--- a/PortfolioConstruction/predictions.xlsx
+++ b/PortfolioConstruction/predictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,31 +486,31 @@
         <v>40210</v>
       </c>
       <c r="C3">
-        <v>1.776189804077148</v>
+        <v>1.7752845287323</v>
       </c>
       <c r="D3">
-        <v>19.13954925537109</v>
+        <v>21.12187767028809</v>
       </c>
       <c r="E3">
-        <v>-0.09760718047618866</v>
+        <v>-0.09790517389774323</v>
       </c>
       <c r="F3">
-        <v>3.446103572845459</v>
+        <v>3.456471920013428</v>
       </c>
       <c r="G3">
-        <v>6.082538604736328</v>
+        <v>6.06999397277832</v>
       </c>
       <c r="H3">
-        <v>-1.33305299282074</v>
+        <v>-1.145933151245117</v>
       </c>
       <c r="I3">
-        <v>-3.257834672927856</v>
+        <v>-3.257883548736572</v>
       </c>
       <c r="J3">
-        <v>2.171226739883423</v>
+        <v>2.214009284973145</v>
       </c>
       <c r="K3">
-        <v>-1.097296833992004</v>
+        <v>-0.9842703938484192</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -521,31 +521,31 @@
         <v>40238</v>
       </c>
       <c r="C4">
-        <v>1.764423966407776</v>
+        <v>1.771413087844849</v>
       </c>
       <c r="D4">
-        <v>18.80274963378906</v>
+        <v>21.37207412719727</v>
       </c>
       <c r="E4">
-        <v>-0.06970622390508652</v>
+        <v>-0.08542376756668091</v>
       </c>
       <c r="F4">
-        <v>3.441815137863159</v>
+        <v>3.458339691162109</v>
       </c>
       <c r="G4">
-        <v>6.051350593566895</v>
+        <v>6.090864658355713</v>
       </c>
       <c r="H4">
-        <v>-1.127374768257141</v>
+        <v>-0.9941851496696472</v>
       </c>
       <c r="I4">
-        <v>-3.257834672927856</v>
+        <v>-3.257936000823975</v>
       </c>
       <c r="J4">
-        <v>2.121735334396362</v>
+        <v>2.218528270721436</v>
       </c>
       <c r="K4">
-        <v>-1.137468218803406</v>
+        <v>-0.9861718416213989</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -556,31 +556,31 @@
         <v>40269</v>
       </c>
       <c r="C5">
-        <v>1.828204751014709</v>
+        <v>1.664533972740173</v>
       </c>
       <c r="D5">
-        <v>20.85590744018555</v>
+        <v>23.96820831298828</v>
       </c>
       <c r="E5">
-        <v>0.05199176073074341</v>
+        <v>-0.218716949224472</v>
       </c>
       <c r="F5">
-        <v>4.768884658813477</v>
+        <v>5.633446216583252</v>
       </c>
       <c r="G5">
-        <v>6.54386043548584</v>
+        <v>7.648828983306885</v>
       </c>
       <c r="H5">
-        <v>-0.6235755681991577</v>
+        <v>-0.9191278219223022</v>
       </c>
       <c r="I5">
-        <v>-3.32961893081665</v>
+        <v>-0.02408649958670139</v>
       </c>
       <c r="J5">
-        <v>1.901596665382385</v>
+        <v>2.558163404464722</v>
       </c>
       <c r="K5">
-        <v>-0.1333350390195847</v>
+        <v>0.5737037062644958</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -591,31 +591,31 @@
         <v>40299</v>
       </c>
       <c r="C6">
-        <v>1.919809341430664</v>
+        <v>1.801456689834595</v>
       </c>
       <c r="D6">
-        <v>19.29939079284668</v>
+        <v>23.62563514709473</v>
       </c>
       <c r="E6">
-        <v>0.0800652951002121</v>
+        <v>-0.2498399764299393</v>
       </c>
       <c r="F6">
-        <v>4.768170833587646</v>
+        <v>5.633674621582031</v>
       </c>
       <c r="G6">
-        <v>6.529677391052246</v>
+        <v>7.6494460105896</v>
       </c>
       <c r="H6">
-        <v>-0.5295742154121399</v>
+        <v>-0.9502952694892883</v>
       </c>
       <c r="I6">
-        <v>-3.324596881866455</v>
+        <v>-0.02741390466690063</v>
       </c>
       <c r="J6">
-        <v>1.885799407958984</v>
+        <v>2.565604448318481</v>
       </c>
       <c r="K6">
-        <v>-0.1247440353035927</v>
+        <v>0.6523377895355225</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -626,31 +626,31 @@
         <v>40330</v>
       </c>
       <c r="C7">
-        <v>1.932055830955505</v>
+        <v>1.660178899765015</v>
       </c>
       <c r="D7">
-        <v>19.0593147277832</v>
+        <v>23.39523696899414</v>
       </c>
       <c r="E7">
-        <v>0.1231069341301918</v>
+        <v>-0.2483537644147873</v>
       </c>
       <c r="F7">
-        <v>4.770016670227051</v>
+        <v>5.633135795593262</v>
       </c>
       <c r="G7">
-        <v>6.493601322174072</v>
+        <v>7.699517726898193</v>
       </c>
       <c r="H7">
-        <v>-0.5786445736885071</v>
+        <v>-0.9624525308609009</v>
       </c>
       <c r="I7">
-        <v>-3.324626922607422</v>
+        <v>-0.01887625455856323</v>
       </c>
       <c r="J7">
-        <v>1.806337356567383</v>
+        <v>2.558276414871216</v>
       </c>
       <c r="K7">
-        <v>-0.1964596658945084</v>
+        <v>0.5737022161483765</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -661,31 +661,31 @@
         <v>40360</v>
       </c>
       <c r="C8">
-        <v>2.058764934539795</v>
+        <v>1.623784780502319</v>
       </c>
       <c r="D8">
-        <v>15.06949138641357</v>
+        <v>19.64759063720703</v>
       </c>
       <c r="E8">
-        <v>0.259859710931778</v>
+        <v>-0.3021341562271118</v>
       </c>
       <c r="F8">
-        <v>3.406696319580078</v>
+        <v>5.01517391204834</v>
       </c>
       <c r="G8">
-        <v>6.631370544433594</v>
+        <v>8.268711090087891</v>
       </c>
       <c r="H8">
-        <v>-0.5468500852584839</v>
+        <v>-0.5599241256713867</v>
       </c>
       <c r="I8">
-        <v>-3.329307079315186</v>
+        <v>-3.670993328094482</v>
       </c>
       <c r="J8">
-        <v>2.9267418384552</v>
+        <v>3.368137836456299</v>
       </c>
       <c r="K8">
-        <v>0.07162251323461533</v>
+        <v>2.763946056365967</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -696,31 +696,31 @@
         <v>40391</v>
       </c>
       <c r="C9">
-        <v>2.08486795425415</v>
+        <v>1.639464139938354</v>
       </c>
       <c r="D9">
-        <v>15.15154457092285</v>
+        <v>19.62437057495117</v>
       </c>
       <c r="E9">
-        <v>0.2950643002986908</v>
+        <v>-0.2631652355194092</v>
       </c>
       <c r="F9">
-        <v>3.406383991241455</v>
+        <v>5.01510763168335</v>
       </c>
       <c r="G9">
-        <v>6.6556077003479</v>
+        <v>8.26899528503418</v>
       </c>
       <c r="H9">
-        <v>-0.5131649971008301</v>
+        <v>-0.6072131991386414</v>
       </c>
       <c r="I9">
-        <v>-3.332113742828369</v>
+        <v>-3.653060913085938</v>
       </c>
       <c r="J9">
-        <v>3.000937938690186</v>
+        <v>3.363536357879639</v>
       </c>
       <c r="K9">
-        <v>0.04157488420605659</v>
+        <v>2.763425350189209</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -731,31 +731,31 @@
         <v>40422</v>
       </c>
       <c r="C10">
-        <v>1.984322905540466</v>
+        <v>1.641720414161682</v>
       </c>
       <c r="D10">
-        <v>15.76245403289795</v>
+        <v>19.61050796508789</v>
       </c>
       <c r="E10">
-        <v>0.2891054153442383</v>
+        <v>-0.3022387027740479</v>
       </c>
       <c r="F10">
-        <v>3.406384944915771</v>
+        <v>5.015125751495361</v>
       </c>
       <c r="G10">
-        <v>6.651707649230957</v>
+        <v>8.266654014587402</v>
       </c>
       <c r="H10">
-        <v>-0.6324308514595032</v>
+        <v>-0.5160881280899048</v>
       </c>
       <c r="I10">
-        <v>-3.332095623016357</v>
+        <v>-3.671379089355469</v>
       </c>
       <c r="J10">
-        <v>3.025348663330078</v>
+        <v>3.36836314201355</v>
       </c>
       <c r="K10">
-        <v>0.09496082365512848</v>
+        <v>2.765564680099487</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -766,31 +766,31 @@
         <v>40452</v>
       </c>
       <c r="C11">
-        <v>1.977909684181213</v>
+        <v>1.680512666702271</v>
       </c>
       <c r="D11">
-        <v>14.68950080871582</v>
+        <v>17.47373199462891</v>
       </c>
       <c r="E11">
-        <v>0.1668517291545868</v>
+        <v>-0.7995738983154297</v>
       </c>
       <c r="F11">
-        <v>3.394791126251221</v>
+        <v>4.832088470458984</v>
       </c>
       <c r="G11">
-        <v>7.288661956787109</v>
+        <v>8.812005996704102</v>
       </c>
       <c r="H11">
-        <v>-0.8600879907608032</v>
+        <v>1.999865770339966</v>
       </c>
       <c r="I11">
-        <v>-6.843397617340088</v>
+        <v>0.004602730274200439</v>
       </c>
       <c r="J11">
-        <v>2.912544727325439</v>
+        <v>3.577951431274414</v>
       </c>
       <c r="K11">
-        <v>0.643451988697052</v>
+        <v>2.313657760620117</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -801,31 +801,31 @@
         <v>40483</v>
       </c>
       <c r="C12">
-        <v>1.963961005210876</v>
+        <v>1.680153846740723</v>
       </c>
       <c r="D12">
-        <v>14.6886568069458</v>
+        <v>17.56413841247559</v>
       </c>
       <c r="E12">
-        <v>0.1828278005123138</v>
+        <v>-0.7996381521224976</v>
       </c>
       <c r="F12">
-        <v>3.394272565841675</v>
+        <v>4.833022117614746</v>
       </c>
       <c r="G12">
-        <v>7.276995182037354</v>
+        <v>8.818756103515625</v>
       </c>
       <c r="H12">
-        <v>-0.8601994514465332</v>
+        <v>1.999802589416504</v>
       </c>
       <c r="I12">
-        <v>-6.808812618255615</v>
+        <v>0.01233410835266113</v>
       </c>
       <c r="J12">
-        <v>2.891861438751221</v>
+        <v>3.579542875289917</v>
       </c>
       <c r="K12">
-        <v>0.9363657832145691</v>
+        <v>2.335814714431763</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -836,31 +836,31 @@
         <v>40513</v>
       </c>
       <c r="C13">
-        <v>1.966121435165405</v>
+        <v>1.679888486862183</v>
       </c>
       <c r="D13">
-        <v>14.71407890319824</v>
+        <v>17.58512115478516</v>
       </c>
       <c r="E13">
-        <v>0.1692292392253876</v>
+        <v>-0.785247802734375</v>
       </c>
       <c r="F13">
-        <v>3.399073123931885</v>
+        <v>4.806203842163086</v>
       </c>
       <c r="G13">
-        <v>7.293925285339355</v>
+        <v>8.822109222412109</v>
       </c>
       <c r="H13">
-        <v>-0.8601716160774231</v>
+        <v>1.999674558639526</v>
       </c>
       <c r="I13">
-        <v>-6.797869205474854</v>
+        <v>0.01191478967666626</v>
       </c>
       <c r="J13">
-        <v>2.908190727233887</v>
+        <v>3.579962968826294</v>
       </c>
       <c r="K13">
-        <v>1.009923338890076</v>
+        <v>2.313634157180786</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -871,31 +871,31 @@
         <v>40544</v>
       </c>
       <c r="C14">
-        <v>2.091888189315796</v>
+        <v>2.2055983543396</v>
       </c>
       <c r="D14">
-        <v>10.6463794708252</v>
+        <v>13.18587017059326</v>
       </c>
       <c r="E14">
-        <v>0.2172086536884308</v>
+        <v>-0.369794487953186</v>
       </c>
       <c r="F14">
-        <v>3.396871089935303</v>
+        <v>5.290374279022217</v>
       </c>
       <c r="G14">
-        <v>7.452225685119629</v>
+        <v>10.36324501037598</v>
       </c>
       <c r="H14">
-        <v>-0.563493549823761</v>
+        <v>2.049092054367065</v>
       </c>
       <c r="I14">
-        <v>-6.737242698669434</v>
+        <v>3.80247163772583</v>
       </c>
       <c r="J14">
-        <v>2.894247531890869</v>
+        <v>3.935982465744019</v>
       </c>
       <c r="K14">
-        <v>0.904389500617981</v>
+        <v>2.440043449401855</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -906,31 +906,31 @@
         <v>40575</v>
       </c>
       <c r="C15">
-        <v>2.168948411941528</v>
+        <v>2.209709167480469</v>
       </c>
       <c r="D15">
-        <v>10.55747604370117</v>
+        <v>13.31224822998047</v>
       </c>
       <c r="E15">
-        <v>0.2172236740589142</v>
+        <v>-0.3698000907897949</v>
       </c>
       <c r="F15">
-        <v>3.396756649017334</v>
+        <v>5.290766716003418</v>
       </c>
       <c r="G15">
-        <v>7.452408790588379</v>
+        <v>10.19955921173096</v>
       </c>
       <c r="H15">
-        <v>-0.03347384929656982</v>
+        <v>2.049507617950439</v>
       </c>
       <c r="I15">
-        <v>-6.738300323486328</v>
+        <v>3.786853075027466</v>
       </c>
       <c r="J15">
-        <v>2.89923357963562</v>
+        <v>3.948045015335083</v>
       </c>
       <c r="K15">
-        <v>0.628564178943634</v>
+        <v>2.440068006515503</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -941,31 +941,31 @@
         <v>40603</v>
       </c>
       <c r="C16">
-        <v>2.195872783660889</v>
+        <v>2.222306728363037</v>
       </c>
       <c r="D16">
-        <v>10.58343505859375</v>
+        <v>13.54751396179199</v>
       </c>
       <c r="E16">
-        <v>0.215578630566597</v>
+        <v>-0.3698070049285889</v>
       </c>
       <c r="F16">
-        <v>3.396747589111328</v>
+        <v>5.290878295898438</v>
       </c>
       <c r="G16">
-        <v>7.420063972473145</v>
+        <v>10.55170440673828</v>
       </c>
       <c r="H16">
-        <v>0.2730036973953247</v>
+        <v>2.049522399902344</v>
       </c>
       <c r="I16">
-        <v>-6.738803863525391</v>
+        <v>3.793176174163818</v>
       </c>
       <c r="J16">
-        <v>2.917028188705444</v>
+        <v>3.948765516281128</v>
       </c>
       <c r="K16">
-        <v>0.9310539364814758</v>
+        <v>2.440094470977783</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -976,31 +976,31 @@
         <v>40634</v>
       </c>
       <c r="C17">
-        <v>2.276573181152344</v>
+        <v>2.429538249969482</v>
       </c>
       <c r="D17">
-        <v>9.738128662109375</v>
+        <v>9.149152755737305</v>
       </c>
       <c r="E17">
-        <v>0.2150847017765045</v>
+        <v>-0.4797948896884918</v>
       </c>
       <c r="F17">
-        <v>3.35932469367981</v>
+        <v>4.353089332580566</v>
       </c>
       <c r="G17">
-        <v>7.064883232116699</v>
+        <v>11.06611156463623</v>
       </c>
       <c r="H17">
-        <v>0.1706983596086502</v>
+        <v>2.088670969009399</v>
       </c>
       <c r="I17">
-        <v>-6.879754543304443</v>
+        <v>3.306788682937622</v>
       </c>
       <c r="J17">
-        <v>3.673484325408936</v>
+        <v>4.481620788574219</v>
       </c>
       <c r="K17">
-        <v>0.8936494588851929</v>
+        <v>1.958863854408264</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1011,31 +1011,31 @@
         <v>40664</v>
       </c>
       <c r="C18">
-        <v>2.274368286132812</v>
+        <v>2.418747425079346</v>
       </c>
       <c r="D18">
-        <v>9.739526748657227</v>
+        <v>9.108913421630859</v>
       </c>
       <c r="E18">
-        <v>0.1590778380632401</v>
+        <v>-0.556671142578125</v>
       </c>
       <c r="F18">
-        <v>3.359339952468872</v>
+        <v>4.387609004974365</v>
       </c>
       <c r="G18">
-        <v>7.064627170562744</v>
+        <v>11.2721118927002</v>
       </c>
       <c r="H18">
-        <v>-0.47572261095047</v>
+        <v>2.089200019836426</v>
       </c>
       <c r="I18">
-        <v>-6.879080295562744</v>
+        <v>3.305927991867065</v>
       </c>
       <c r="J18">
-        <v>3.68303918838501</v>
+        <v>4.471494197845459</v>
       </c>
       <c r="K18">
-        <v>0.8962512016296387</v>
+        <v>1.95022714138031</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1046,31 +1046,31 @@
         <v>40695</v>
       </c>
       <c r="C19">
-        <v>2.231887817382812</v>
+        <v>2.364560604095459</v>
       </c>
       <c r="D19">
-        <v>9.498562812805176</v>
+        <v>9.162679672241211</v>
       </c>
       <c r="E19">
-        <v>0.1592330932617188</v>
+        <v>-0.4853605628013611</v>
       </c>
       <c r="F19">
-        <v>3.358867645263672</v>
+        <v>4.084460258483887</v>
       </c>
       <c r="G19">
-        <v>7.070880889892578</v>
+        <v>11.25303840637207</v>
       </c>
       <c r="H19">
-        <v>-0.5862993001937866</v>
+        <v>2.089810848236084</v>
       </c>
       <c r="I19">
-        <v>-6.881369590759277</v>
+        <v>3.291572570800781</v>
       </c>
       <c r="J19">
-        <v>3.675986051559448</v>
+        <v>4.423023223876953</v>
       </c>
       <c r="K19">
-        <v>0.8963509798049927</v>
+        <v>1.933142423629761</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1081,31 +1081,31 @@
         <v>40725</v>
       </c>
       <c r="C20">
-        <v>2.110009670257568</v>
+        <v>2.566421031951904</v>
       </c>
       <c r="D20">
-        <v>9.13945484161377</v>
+        <v>10.15241813659668</v>
       </c>
       <c r="E20">
-        <v>0.136092022061348</v>
+        <v>-1.65687108039856</v>
       </c>
       <c r="F20">
-        <v>3.363913059234619</v>
+        <v>4.972672939300537</v>
       </c>
       <c r="G20">
-        <v>7.273319244384766</v>
+        <v>12.26551246643066</v>
       </c>
       <c r="H20">
-        <v>-0.4914434552192688</v>
+        <v>2.139469861984253</v>
       </c>
       <c r="I20">
-        <v>-6.894613742828369</v>
+        <v>3.45881986618042</v>
       </c>
       <c r="J20">
-        <v>3.662399768829346</v>
+        <v>4.590250968933105</v>
       </c>
       <c r="K20">
-        <v>0.7377961874008179</v>
+        <v>0.4803618788719177</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1116,31 +1116,31 @@
         <v>40756</v>
       </c>
       <c r="C21">
-        <v>2.118216991424561</v>
+        <v>2.562899827957153</v>
       </c>
       <c r="D21">
-        <v>9.128799438476562</v>
+        <v>10.15263652801514</v>
       </c>
       <c r="E21">
-        <v>0.1362579166889191</v>
+        <v>-1.653270483016968</v>
       </c>
       <c r="F21">
-        <v>3.3636155128479</v>
+        <v>4.895689964294434</v>
       </c>
       <c r="G21">
-        <v>7.248194217681885</v>
+        <v>12.26323890686035</v>
       </c>
       <c r="H21">
-        <v>-0.4868715405464172</v>
+        <v>2.140039443969727</v>
       </c>
       <c r="I21">
-        <v>-6.87084436416626</v>
+        <v>3.304176330566406</v>
       </c>
       <c r="J21">
-        <v>3.661916017532349</v>
+        <v>4.525520324707031</v>
       </c>
       <c r="K21">
-        <v>0.708497166633606</v>
+        <v>0.5399650931358337</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1151,31 +1151,31 @@
         <v>40787</v>
       </c>
       <c r="C22">
-        <v>2.055413961410522</v>
+        <v>2.576302051544189</v>
       </c>
       <c r="D22">
-        <v>8.932214736938477</v>
+        <v>10.1729564666748</v>
       </c>
       <c r="E22">
-        <v>0.179712101817131</v>
+        <v>-1.657066941261292</v>
       </c>
       <c r="F22">
-        <v>3.363946914672852</v>
+        <v>4.970448970794678</v>
       </c>
       <c r="G22">
-        <v>7.266085147857666</v>
+        <v>12.27211284637451</v>
       </c>
       <c r="H22">
-        <v>-0.5380537509918213</v>
+        <v>2.147457361221313</v>
       </c>
       <c r="I22">
-        <v>-7.003879547119141</v>
+        <v>3.006401062011719</v>
       </c>
       <c r="J22">
-        <v>3.647453308105469</v>
+        <v>4.661948204040527</v>
       </c>
       <c r="K22">
-        <v>0.4364787936210632</v>
+        <v>0.5945819020271301</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1186,31 +1186,31 @@
         <v>40817</v>
       </c>
       <c r="C23">
-        <v>2.15089225769043</v>
+        <v>2.686755418777466</v>
       </c>
       <c r="D23">
-        <v>8.91649341583252</v>
+        <v>6.379417419433594</v>
       </c>
       <c r="E23">
-        <v>0.1879581660032272</v>
+        <v>-0.3248750567436218</v>
       </c>
       <c r="F23">
-        <v>3.081842422485352</v>
+        <v>4.6926589012146</v>
       </c>
       <c r="G23">
-        <v>7.481747627258301</v>
+        <v>12.55230903625488</v>
       </c>
       <c r="H23">
-        <v>0.3161133527755737</v>
+        <v>2.159018278121948</v>
       </c>
       <c r="I23">
-        <v>-6.956801414489746</v>
+        <v>3.703074216842651</v>
       </c>
       <c r="J23">
-        <v>3.654088258743286</v>
+        <v>4.664194583892822</v>
       </c>
       <c r="K23">
-        <v>0.4822975099086761</v>
+        <v>1.700957059860229</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1221,31 +1221,31 @@
         <v>40848</v>
       </c>
       <c r="C24">
-        <v>2.131653308868408</v>
+        <v>2.674583435058594</v>
       </c>
       <c r="D24">
-        <v>8.836860656738281</v>
+        <v>6.378904819488525</v>
       </c>
       <c r="E24">
-        <v>0.1876167953014374</v>
+        <v>-0.3275294303894043</v>
       </c>
       <c r="F24">
-        <v>3.08186149597168</v>
+        <v>4.686519622802734</v>
       </c>
       <c r="G24">
-        <v>7.493428707122803</v>
+        <v>12.2206859588623</v>
       </c>
       <c r="H24">
-        <v>0.3163917064666748</v>
+        <v>2.162959814071655</v>
       </c>
       <c r="I24">
-        <v>-6.957755088806152</v>
+        <v>2.612796306610107</v>
       </c>
       <c r="J24">
-        <v>3.652060031890869</v>
+        <v>4.68953800201416</v>
       </c>
       <c r="K24">
-        <v>0.4637256562709808</v>
+        <v>1.701578140258789</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1256,31 +1256,31 @@
         <v>40878</v>
       </c>
       <c r="C25">
-        <v>2.121567964553833</v>
+        <v>2.691488742828369</v>
       </c>
       <c r="D25">
-        <v>8.66655158996582</v>
+        <v>6.374743461608887</v>
       </c>
       <c r="E25">
-        <v>0.1830301731824875</v>
+        <v>-0.3275046944618225</v>
       </c>
       <c r="F25">
-        <v>3.081855297088623</v>
+        <v>4.694917678833008</v>
       </c>
       <c r="G25">
-        <v>7.483862400054932</v>
+        <v>12.56287479400635</v>
       </c>
       <c r="H25">
-        <v>0.3315231204032898</v>
+        <v>2.159943103790283</v>
       </c>
       <c r="I25">
-        <v>-6.957428932189941</v>
+        <v>3.702506303787231</v>
       </c>
       <c r="J25">
-        <v>3.64971399307251</v>
+        <v>4.636511325836182</v>
       </c>
       <c r="K25">
-        <v>0.4737372398376465</v>
+        <v>1.697362899780273</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1291,31 +1291,31 @@
         <v>40909</v>
       </c>
       <c r="C26">
-        <v>2.088252305984497</v>
+        <v>2.800821781158447</v>
       </c>
       <c r="D26">
-        <v>8.163310050964355</v>
+        <v>4.43370532989502</v>
       </c>
       <c r="E26">
-        <v>0.1518803536891937</v>
+        <v>-0.02820293977856636</v>
       </c>
       <c r="F26">
-        <v>3.012382030487061</v>
+        <v>4.144237995147705</v>
       </c>
       <c r="G26">
-        <v>7.48479700088501</v>
+        <v>12.24064064025879</v>
       </c>
       <c r="H26">
-        <v>0.3519600331783295</v>
+        <v>2.034512758255005</v>
       </c>
       <c r="I26">
-        <v>-7.021761894226074</v>
+        <v>3.575165510177612</v>
       </c>
       <c r="J26">
-        <v>3.651759386062622</v>
+        <v>4.434868812561035</v>
       </c>
       <c r="K26">
-        <v>0.4743607938289642</v>
+        <v>1.125602006912231</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1326,31 +1326,31 @@
         <v>40940</v>
       </c>
       <c r="C27">
-        <v>2.090658187866211</v>
+        <v>2.815429925918579</v>
       </c>
       <c r="D27">
-        <v>8.161679267883301</v>
+        <v>4.428620338439941</v>
       </c>
       <c r="E27">
-        <v>0.1783712804317474</v>
+        <v>-0.02921929396688938</v>
       </c>
       <c r="F27">
-        <v>3.012368679046631</v>
+        <v>4.161423683166504</v>
       </c>
       <c r="G27">
-        <v>7.491552829742432</v>
+        <v>12.37913513183594</v>
       </c>
       <c r="H27">
-        <v>0.351936012506485</v>
+        <v>2.034884214401245</v>
       </c>
       <c r="I27">
-        <v>-7.022337913513184</v>
+        <v>3.5741868019104</v>
       </c>
       <c r="J27">
-        <v>3.6483314037323</v>
+        <v>4.455868721008301</v>
       </c>
       <c r="K27">
-        <v>0.4613999724388123</v>
+        <v>1.112542867660522</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1361,31 +1361,31 @@
         <v>40969</v>
       </c>
       <c r="C28">
-        <v>2.097884654998779</v>
+        <v>2.819113969802856</v>
       </c>
       <c r="D28">
-        <v>8.163419723510742</v>
+        <v>4.425611019134521</v>
       </c>
       <c r="E28">
-        <v>0.1786194741725922</v>
+        <v>-0.02919373475015163</v>
       </c>
       <c r="F28">
-        <v>3.012382030487061</v>
+        <v>4.145735740661621</v>
       </c>
       <c r="G28">
-        <v>7.486998558044434</v>
+        <v>12.0543327331543</v>
       </c>
       <c r="H28">
-        <v>0.3519605994224548</v>
+        <v>2.034792900085449</v>
       </c>
       <c r="I28">
-        <v>-7.023776054382324</v>
+        <v>3.574182033538818</v>
       </c>
       <c r="J28">
-        <v>3.649459838867188</v>
+        <v>4.465313911437988</v>
       </c>
       <c r="K28">
-        <v>0.4614020884037018</v>
+        <v>1.125119805335999</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1396,31 +1396,31 @@
         <v>41000</v>
       </c>
       <c r="C29">
-        <v>2.168453931808472</v>
+        <v>2.896223068237305</v>
       </c>
       <c r="D29">
-        <v>8.192059516906738</v>
+        <v>6.77800464630127</v>
       </c>
       <c r="E29">
-        <v>0.1805325746536255</v>
+        <v>-0.168227031826973</v>
       </c>
       <c r="F29">
-        <v>3.352635860443115</v>
+        <v>4.841622352600098</v>
       </c>
       <c r="G29">
-        <v>7.506801605224609</v>
+        <v>12.62905025482178</v>
       </c>
       <c r="H29">
-        <v>-0.496425062417984</v>
+        <v>2.038192272186279</v>
       </c>
       <c r="I29">
-        <v>-7.0954270362854</v>
+        <v>3.54449987411499</v>
       </c>
       <c r="J29">
-        <v>3.098960399627686</v>
+        <v>4.49921178817749</v>
       </c>
       <c r="K29">
-        <v>0.2831642627716064</v>
+        <v>0.5651289820671082</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1431,31 +1431,31 @@
         <v>41030</v>
       </c>
       <c r="C30">
-        <v>2.267489910125732</v>
+        <v>2.898774385452271</v>
       </c>
       <c r="D30">
-        <v>8.192070960998535</v>
+        <v>6.778619289398193</v>
       </c>
       <c r="E30">
-        <v>0.08318351209163666</v>
+        <v>-0.1681748628616333</v>
       </c>
       <c r="F30">
-        <v>3.352585554122925</v>
+        <v>4.84241247177124</v>
       </c>
       <c r="G30">
-        <v>7.506849765777588</v>
+        <v>12.62909412384033</v>
       </c>
       <c r="H30">
-        <v>-0.4880296587944031</v>
+        <v>2.054018974304199</v>
       </c>
       <c r="I30">
-        <v>-7.096426486968994</v>
+        <v>3.54315185546875</v>
       </c>
       <c r="J30">
-        <v>3.120394229888916</v>
+        <v>4.498307228088379</v>
       </c>
       <c r="K30">
-        <v>0.2957433760166168</v>
+        <v>0.5650612115859985</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1466,31 +1466,31 @@
         <v>41061</v>
       </c>
       <c r="C31">
-        <v>2.284554958343506</v>
+        <v>2.899111032485962</v>
       </c>
       <c r="D31">
-        <v>8.191940307617188</v>
+        <v>6.778689384460449</v>
       </c>
       <c r="E31">
-        <v>0.08344930410385132</v>
+        <v>-0.1681716442108154</v>
       </c>
       <c r="F31">
-        <v>3.354560375213623</v>
+        <v>4.84244441986084</v>
       </c>
       <c r="G31">
-        <v>7.506699562072754</v>
+        <v>12.62922096252441</v>
       </c>
       <c r="H31">
-        <v>-0.4880862236022949</v>
+        <v>2.054337739944458</v>
       </c>
       <c r="I31">
-        <v>-7.094743251800537</v>
+        <v>3.542453765869141</v>
       </c>
       <c r="J31">
-        <v>3.022196531295776</v>
+        <v>4.497289180755615</v>
       </c>
       <c r="K31">
-        <v>0.2957870066165924</v>
+        <v>0.5650840997695923</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1501,31 +1501,31 @@
         <v>41091</v>
       </c>
       <c r="C32">
-        <v>2.30701470375061</v>
+        <v>3.019402980804443</v>
       </c>
       <c r="D32">
-        <v>8.06255054473877</v>
+        <v>6.700523376464844</v>
       </c>
       <c r="E32">
-        <v>0.2429318428039551</v>
+        <v>0.9237073063850403</v>
       </c>
       <c r="F32">
-        <v>3.363566637039185</v>
+        <v>4.715619087219238</v>
       </c>
       <c r="G32">
-        <v>6.532680511474609</v>
+        <v>12.49962139129639</v>
       </c>
       <c r="H32">
-        <v>-0.4887872636318207</v>
+        <v>1.855340242385864</v>
       </c>
       <c r="I32">
-        <v>-7.021254062652588</v>
+        <v>3.445257663726807</v>
       </c>
       <c r="J32">
-        <v>2.828830003738403</v>
+        <v>4.440496444702148</v>
       </c>
       <c r="K32">
-        <v>0.4414753317832947</v>
+        <v>1.236004710197449</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1536,31 +1536,31 @@
         <v>41122</v>
       </c>
       <c r="C33">
-        <v>2.389317989349365</v>
+        <v>3.019416332244873</v>
       </c>
       <c r="D33">
-        <v>8.049837112426758</v>
+        <v>6.697070121765137</v>
       </c>
       <c r="E33">
-        <v>0.2432878464460373</v>
+        <v>0.9238181114196777</v>
       </c>
       <c r="F33">
-        <v>3.363867282867432</v>
+        <v>4.715322971343994</v>
       </c>
       <c r="G33">
-        <v>6.533453941345215</v>
+        <v>12.49935054779053</v>
       </c>
       <c r="H33">
-        <v>-0.4887944757938385</v>
+        <v>1.854939460754395</v>
       </c>
       <c r="I33">
-        <v>-7.022432804107666</v>
+        <v>3.443610668182373</v>
       </c>
       <c r="J33">
-        <v>2.928505659103394</v>
+        <v>4.441200733184814</v>
       </c>
       <c r="K33">
-        <v>0.4413886070251465</v>
+        <v>1.235202670097351</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1571,31 +1571,31 @@
         <v>41153</v>
       </c>
       <c r="C34">
-        <v>2.436500549316406</v>
+        <v>3.004894733428955</v>
       </c>
       <c r="D34">
-        <v>8.055310249328613</v>
+        <v>6.693749904632568</v>
       </c>
       <c r="E34">
-        <v>0.2746803164482117</v>
+        <v>0.8602927327156067</v>
       </c>
       <c r="F34">
-        <v>3.366750240325928</v>
+        <v>4.774579048156738</v>
       </c>
       <c r="G34">
-        <v>6.524706363677979</v>
+        <v>12.45309448242188</v>
       </c>
       <c r="H34">
-        <v>-0.3237881064414978</v>
+        <v>1.871081590652466</v>
       </c>
       <c r="I34">
-        <v>-7.325438022613525</v>
+        <v>3.418192625045776</v>
       </c>
       <c r="J34">
-        <v>3.089451789855957</v>
+        <v>4.423514366149902</v>
       </c>
       <c r="K34">
-        <v>0.2274470627307892</v>
+        <v>0.9706472158432007</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1606,31 +1606,31 @@
         <v>41183</v>
       </c>
       <c r="C35">
-        <v>2.493765354156494</v>
+        <v>3.179127216339111</v>
       </c>
       <c r="D35">
-        <v>8.147824287414551</v>
+        <v>10.34692192077637</v>
       </c>
       <c r="E35">
-        <v>0.2551304697990417</v>
+        <v>0.3580035865306854</v>
       </c>
       <c r="F35">
-        <v>3.378183841705322</v>
+        <v>5.376596927642822</v>
       </c>
       <c r="G35">
-        <v>6.482100009918213</v>
+        <v>12.90877342224121</v>
       </c>
       <c r="H35">
-        <v>0.3360942602157593</v>
+        <v>1.934728264808655</v>
       </c>
       <c r="I35">
-        <v>-8.479156494140625</v>
+        <v>2.372389078140259</v>
       </c>
       <c r="J35">
-        <v>3.621032238006592</v>
+        <v>4.813051700592041</v>
       </c>
       <c r="K35">
-        <v>-0.7973421812057495</v>
+        <v>-0.5200983285903931</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1641,31 +1641,31 @@
         <v>41214</v>
       </c>
       <c r="C36">
-        <v>2.500149488449097</v>
+        <v>3.138498306274414</v>
       </c>
       <c r="D36">
-        <v>8.145995140075684</v>
+        <v>10.37325954437256</v>
       </c>
       <c r="E36">
-        <v>0.2666121125221252</v>
+        <v>0.3577179908752441</v>
       </c>
       <c r="F36">
-        <v>3.374906063079834</v>
+        <v>5.377413272857666</v>
       </c>
       <c r="G36">
-        <v>6.481467247009277</v>
+        <v>12.91804981231689</v>
       </c>
       <c r="H36">
-        <v>0.3361997902393341</v>
+        <v>1.934670686721802</v>
       </c>
       <c r="I36">
-        <v>-8.464269638061523</v>
+        <v>2.368042469024658</v>
       </c>
       <c r="J36">
-        <v>3.623214721679688</v>
+        <v>4.817269325256348</v>
       </c>
       <c r="K36">
-        <v>-0.7973507642745972</v>
+        <v>-0.4641199111938477</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1676,31 +1676,31 @@
         <v>41244</v>
       </c>
       <c r="C37">
-        <v>2.504150390625</v>
+        <v>3.160617113113403</v>
       </c>
       <c r="D37">
-        <v>8.146090507507324</v>
+        <v>10.42593955993652</v>
       </c>
       <c r="E37">
-        <v>0.2666345238685608</v>
+        <v>0.3577249944210052</v>
       </c>
       <c r="F37">
-        <v>3.378218412399292</v>
+        <v>5.377720355987549</v>
       </c>
       <c r="G37">
-        <v>6.482234001159668</v>
+        <v>12.91816234588623</v>
       </c>
       <c r="H37">
-        <v>0.3360851407051086</v>
+        <v>1.934633255004883</v>
       </c>
       <c r="I37">
-        <v>-8.451635360717773</v>
+        <v>2.366734981536865</v>
       </c>
       <c r="J37">
-        <v>3.631001949310303</v>
+        <v>4.817545413970947</v>
       </c>
       <c r="K37">
-        <v>-0.7980918884277344</v>
+        <v>-0.4664796888828278</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1711,31 +1711,31 @@
         <v>41275</v>
       </c>
       <c r="C38">
-        <v>2.526058435440063</v>
+        <v>3.359596252441406</v>
       </c>
       <c r="D38">
-        <v>12.96652793884277</v>
+        <v>14.49808502197266</v>
       </c>
       <c r="E38">
-        <v>0.2661592364311218</v>
+        <v>0.2486917674541473</v>
       </c>
       <c r="F38">
-        <v>3.393557786941528</v>
+        <v>5.970298290252686</v>
       </c>
       <c r="G38">
-        <v>7.34504222869873</v>
+        <v>13.79666709899902</v>
       </c>
       <c r="H38">
-        <v>-0.4963740408420563</v>
+        <v>2.049638748168945</v>
       </c>
       <c r="I38">
-        <v>-6.825685024261475</v>
+        <v>2.437223434448242</v>
       </c>
       <c r="J38">
-        <v>3.6663498878479</v>
+        <v>5.306539058685303</v>
       </c>
       <c r="K38">
-        <v>-0.3666956722736359</v>
+        <v>-0.04144380241632462</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1746,31 +1746,31 @@
         <v>41306</v>
       </c>
       <c r="C39">
-        <v>2.534884691238403</v>
+        <v>3.355833053588867</v>
       </c>
       <c r="D39">
-        <v>13.02823352813721</v>
+        <v>14.16653442382812</v>
       </c>
       <c r="E39">
-        <v>0.2661229968070984</v>
+        <v>0.2489269971847534</v>
       </c>
       <c r="F39">
-        <v>3.393486022949219</v>
+        <v>5.984284400939941</v>
       </c>
       <c r="G39">
-        <v>7.34308910369873</v>
+        <v>13.79698467254639</v>
       </c>
       <c r="H39">
-        <v>-0.4966979920864105</v>
+        <v>2.049633502960205</v>
       </c>
       <c r="I39">
-        <v>-6.842156410217285</v>
+        <v>2.440079212188721</v>
       </c>
       <c r="J39">
-        <v>3.684822559356689</v>
+        <v>5.308071613311768</v>
       </c>
       <c r="K39">
-        <v>-0.4248498976230621</v>
+        <v>-0.0338284857571125</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1781,31 +1781,31 @@
         <v>41334</v>
       </c>
       <c r="C40">
-        <v>2.535017728805542</v>
+        <v>3.359242916107178</v>
       </c>
       <c r="D40">
-        <v>13.03034973144531</v>
+        <v>14.15124225616455</v>
       </c>
       <c r="E40">
-        <v>0.2661229968070984</v>
+        <v>0.2490417957305908</v>
       </c>
       <c r="F40">
-        <v>3.393486022949219</v>
+        <v>5.984040260314941</v>
       </c>
       <c r="G40">
-        <v>7.3451247215271</v>
+        <v>13.7981014251709</v>
       </c>
       <c r="H40">
-        <v>-0.4977293908596039</v>
+        <v>2.049737215042114</v>
       </c>
       <c r="I40">
-        <v>-6.841742038726807</v>
+        <v>2.440950393676758</v>
       </c>
       <c r="J40">
-        <v>3.69524884223938</v>
+        <v>5.308453559875488</v>
       </c>
       <c r="K40">
-        <v>-0.3667268753051758</v>
+        <v>-0.0299338698387146</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1816,31 +1816,31 @@
         <v>41365</v>
       </c>
       <c r="C41">
-        <v>2.538604736328125</v>
+        <v>3.529651641845703</v>
       </c>
       <c r="D41">
-        <v>12.96543407440186</v>
+        <v>14.50581169128418</v>
       </c>
       <c r="E41">
-        <v>0.2666187882423401</v>
+        <v>0.3182489275932312</v>
       </c>
       <c r="F41">
-        <v>3.405125379562378</v>
+        <v>6.655195713043213</v>
       </c>
       <c r="G41">
-        <v>6.92154598236084</v>
+        <v>14.27588653564453</v>
       </c>
       <c r="H41">
-        <v>-0.5377132892608643</v>
+        <v>1.299693703651428</v>
       </c>
       <c r="I41">
-        <v>-6.853377342224121</v>
+        <v>2.687743425369263</v>
       </c>
       <c r="J41">
-        <v>3.652136564254761</v>
+        <v>5.565292835235596</v>
       </c>
       <c r="K41">
-        <v>-0.01922240294516087</v>
+        <v>0.5124647617340088</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1851,31 +1851,31 @@
         <v>41395</v>
       </c>
       <c r="C42">
-        <v>2.539502143859863</v>
+        <v>3.529753446578979</v>
       </c>
       <c r="D42">
-        <v>13.07550048828125</v>
+        <v>14.57257270812988</v>
       </c>
       <c r="E42">
-        <v>0.2666096091270447</v>
+        <v>0.3183965086936951</v>
       </c>
       <c r="F42">
-        <v>3.405084609985352</v>
+        <v>6.6583571434021</v>
       </c>
       <c r="G42">
-        <v>6.924970149993896</v>
+        <v>14.27641010284424</v>
       </c>
       <c r="H42">
-        <v>-0.5377563238143921</v>
+        <v>1.299752950668335</v>
       </c>
       <c r="I42">
-        <v>-6.853377342224121</v>
+        <v>2.692363023757935</v>
       </c>
       <c r="J42">
-        <v>3.683140516281128</v>
+        <v>5.589058876037598</v>
       </c>
       <c r="K42">
-        <v>-0.02299690246582031</v>
+        <v>0.5098591446876526</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1886,31 +1886,31 @@
         <v>41426</v>
       </c>
       <c r="C43">
-        <v>2.539867401123047</v>
+        <v>3.529759168624878</v>
       </c>
       <c r="D43">
-        <v>12.99105644226074</v>
+        <v>14.80018424987793</v>
       </c>
       <c r="E43">
-        <v>0.272352546453476</v>
+        <v>0.3185534775257111</v>
       </c>
       <c r="F43">
-        <v>3.405083417892456</v>
+        <v>6.658694267272949</v>
       </c>
       <c r="G43">
-        <v>6.930622100830078</v>
+        <v>14.27485656738281</v>
       </c>
       <c r="H43">
-        <v>-0.545220673084259</v>
+        <v>1.300154685974121</v>
       </c>
       <c r="I43">
-        <v>-6.85470724105835</v>
+        <v>2.693857669830322</v>
       </c>
       <c r="J43">
-        <v>3.720044374465942</v>
+        <v>5.568867683410645</v>
       </c>
       <c r="K43">
-        <v>-0.02301297150552273</v>
+        <v>0.5156382322311401</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1921,31 +1921,31 @@
         <v>41456</v>
       </c>
       <c r="C44">
-        <v>2.540789365768433</v>
+        <v>3.689566135406494</v>
       </c>
       <c r="D44">
-        <v>12.23399543762207</v>
+        <v>16.45217895507812</v>
       </c>
       <c r="E44">
-        <v>0.131114274263382</v>
+        <v>0.4463283121585846</v>
       </c>
       <c r="F44">
-        <v>4.829158782958984</v>
+        <v>7.244532585144043</v>
       </c>
       <c r="G44">
-        <v>7.200499057769775</v>
+        <v>15.38683891296387</v>
       </c>
       <c r="H44">
-        <v>-0.557087779045105</v>
+        <v>1.621048927307129</v>
       </c>
       <c r="I44">
-        <v>-6.855063438415527</v>
+        <v>3.068817377090454</v>
       </c>
       <c r="J44">
-        <v>3.803976535797119</v>
+        <v>5.977822303771973</v>
       </c>
       <c r="K44">
-        <v>0.4962325990200043</v>
+        <v>0.6292583346366882</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1956,31 +1956,31 @@
         <v>41487</v>
       </c>
       <c r="C45">
-        <v>2.541707515716553</v>
+        <v>3.689700603485107</v>
       </c>
       <c r="D45">
-        <v>12.38149642944336</v>
+        <v>16.42027282714844</v>
       </c>
       <c r="E45">
-        <v>0.1309609413146973</v>
+        <v>0.446582019329071</v>
       </c>
       <c r="F45">
-        <v>4.829905033111572</v>
+        <v>7.24517297744751</v>
       </c>
       <c r="G45">
-        <v>7.189145088195801</v>
+        <v>15.38700389862061</v>
       </c>
       <c r="H45">
-        <v>-0.3691128194332123</v>
+        <v>1.620575547218323</v>
       </c>
       <c r="I45">
-        <v>-6.855063438415527</v>
+        <v>3.08369779586792</v>
       </c>
       <c r="J45">
-        <v>3.804016828536987</v>
+        <v>5.978198051452637</v>
       </c>
       <c r="K45">
-        <v>0.4993720054626465</v>
+        <v>0.6297460198402405</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1991,31 +1991,31 @@
         <v>41518</v>
       </c>
       <c r="C46">
-        <v>2.54063868522644</v>
+        <v>3.689726591110229</v>
       </c>
       <c r="D46">
-        <v>12.4369535446167</v>
+        <v>16.59845924377441</v>
       </c>
       <c r="E46">
-        <v>0.130782812833786</v>
+        <v>0.4466462135314941</v>
       </c>
       <c r="F46">
-        <v>4.826210975646973</v>
+        <v>7.244362831115723</v>
       </c>
       <c r="G46">
-        <v>7.191379547119141</v>
+        <v>15.38768291473389</v>
       </c>
       <c r="H46">
-        <v>-0.3307670950889587</v>
+        <v>1.620230317115784</v>
       </c>
       <c r="I46">
-        <v>-6.855902671813965</v>
+        <v>3.083887100219727</v>
       </c>
       <c r="J46">
-        <v>3.803471088409424</v>
+        <v>5.971251010894775</v>
       </c>
       <c r="K46">
-        <v>0.5165573954582214</v>
+        <v>0.6348070502281189</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2026,31 +2026,31 @@
         <v>41548</v>
       </c>
       <c r="C47">
-        <v>2.564805269241333</v>
+        <v>3.799385786056519</v>
       </c>
       <c r="D47">
-        <v>13.33583068847656</v>
+        <v>16.50813293457031</v>
       </c>
       <c r="E47">
-        <v>0.3121365308761597</v>
+        <v>0.6494659781455994</v>
       </c>
       <c r="F47">
-        <v>4.895205497741699</v>
+        <v>7.711690425872803</v>
       </c>
       <c r="G47">
-        <v>7.26075267791748</v>
+        <v>15.94503021240234</v>
       </c>
       <c r="H47">
-        <v>-0.1884794980287552</v>
+        <v>1.829851508140564</v>
       </c>
       <c r="I47">
-        <v>-6.674304008483887</v>
+        <v>3.924087047576904</v>
       </c>
       <c r="J47">
-        <v>2.886370420455933</v>
+        <v>4.410150527954102</v>
       </c>
       <c r="K47">
-        <v>0.6152527928352356</v>
+        <v>1.67811906337738</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2061,31 +2061,31 @@
         <v>41579</v>
       </c>
       <c r="C48">
-        <v>2.564462184906006</v>
+        <v>3.799633026123047</v>
       </c>
       <c r="D48">
-        <v>13.41377830505371</v>
+        <v>16.78463172912598</v>
       </c>
       <c r="E48">
-        <v>0.3121245503425598</v>
+        <v>0.6557506322860718</v>
       </c>
       <c r="F48">
-        <v>4.895216941833496</v>
+        <v>7.712862491607666</v>
       </c>
       <c r="G48">
-        <v>7.259742736816406</v>
+        <v>15.94030284881592</v>
       </c>
       <c r="H48">
-        <v>0.3786173462867737</v>
+        <v>1.829744100570679</v>
       </c>
       <c r="I48">
-        <v>-6.674304008483887</v>
+        <v>3.933096647262573</v>
       </c>
       <c r="J48">
-        <v>2.884404182434082</v>
+        <v>4.409855842590332</v>
       </c>
       <c r="K48">
-        <v>1.022879362106323</v>
+        <v>1.631953835487366</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2096,31 +2096,31 @@
         <v>41609</v>
       </c>
       <c r="C49">
-        <v>2.564546585083008</v>
+        <v>3.799603223800659</v>
       </c>
       <c r="D49">
-        <v>13.67923259735107</v>
+        <v>16.74142837524414</v>
       </c>
       <c r="E49">
-        <v>0.311014860868454</v>
+        <v>0.6492992639541626</v>
       </c>
       <c r="F49">
-        <v>4.894259929656982</v>
+        <v>7.712975978851318</v>
       </c>
       <c r="G49">
-        <v>7.259786128997803</v>
+        <v>15.94767284393311</v>
       </c>
       <c r="H49">
-        <v>0.3825615644454956</v>
+        <v>1.829981088638306</v>
       </c>
       <c r="I49">
-        <v>-6.674069404602051</v>
+        <v>3.935659885406494</v>
       </c>
       <c r="J49">
-        <v>2.883995056152344</v>
+        <v>4.410032749176025</v>
       </c>
       <c r="K49">
-        <v>1.218302965164185</v>
+        <v>1.629894495010376</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2131,31 +2131,31 @@
         <v>41640</v>
       </c>
       <c r="C50">
-        <v>2.539224147796631</v>
+        <v>3.889198303222656</v>
       </c>
       <c r="D50">
-        <v>9.675978660583496</v>
+        <v>15.6981372833252</v>
       </c>
       <c r="E50">
-        <v>0.289242684841156</v>
+        <v>0.9007177352905273</v>
       </c>
       <c r="F50">
-        <v>4.81842565536499</v>
+        <v>7.896639823913574</v>
       </c>
       <c r="G50">
-        <v>7.011136531829834</v>
+        <v>16.87400245666504</v>
       </c>
       <c r="H50">
-        <v>0.808340847492218</v>
+        <v>1.738218069076538</v>
       </c>
       <c r="I50">
-        <v>-6.7758469581604</v>
+        <v>4.245285034179688</v>
       </c>
       <c r="J50">
-        <v>2.750744104385376</v>
+        <v>4.319292068481445</v>
       </c>
       <c r="K50">
-        <v>1.297428488731384</v>
+        <v>1.360436201095581</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2166,31 +2166,31 @@
         <v>41671</v>
       </c>
       <c r="C51">
-        <v>2.53943395614624</v>
+        <v>3.88945460319519</v>
       </c>
       <c r="D51">
-        <v>9.826839447021484</v>
+        <v>15.46464538574219</v>
       </c>
       <c r="E51">
-        <v>0.3160201013088226</v>
+        <v>0.9032629132270813</v>
       </c>
       <c r="F51">
-        <v>4.815152168273926</v>
+        <v>7.814522743225098</v>
       </c>
       <c r="G51">
-        <v>7.02277135848999</v>
+        <v>16.87691879272461</v>
       </c>
       <c r="H51">
-        <v>0.8445954322814941</v>
+        <v>1.738857865333557</v>
       </c>
       <c r="I51">
-        <v>-6.779952049255371</v>
+        <v>4.233951091766357</v>
       </c>
       <c r="J51">
-        <v>2.752104520797729</v>
+        <v>4.319823265075684</v>
       </c>
       <c r="K51">
-        <v>1.185657382011414</v>
+        <v>1.360032439231873</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2201,31 +2201,31 @@
         <v>41699</v>
       </c>
       <c r="C52">
-        <v>2.541437864303589</v>
+        <v>3.889556169509888</v>
       </c>
       <c r="D52">
-        <v>9.622331619262695</v>
+        <v>15.5604887008667</v>
       </c>
       <c r="E52">
-        <v>0.3519180715084076</v>
+        <v>0.9010157585144043</v>
       </c>
       <c r="F52">
-        <v>4.818682193756104</v>
+        <v>7.898135185241699</v>
       </c>
       <c r="G52">
-        <v>7.053548336029053</v>
+        <v>16.87776947021484</v>
       </c>
       <c r="H52">
-        <v>0.8454439043998718</v>
+        <v>1.745594263076782</v>
       </c>
       <c r="I52">
-        <v>-6.779782295227051</v>
+        <v>4.251711845397949</v>
       </c>
       <c r="J52">
-        <v>2.750097990036011</v>
+        <v>4.319823265075684</v>
       </c>
       <c r="K52">
-        <v>1.269862532615662</v>
+        <v>1.360166192054749</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2236,31 +2236,31 @@
         <v>41730</v>
       </c>
       <c r="C53">
-        <v>2.535018920898438</v>
+        <v>4.019256591796875</v>
       </c>
       <c r="D53">
-        <v>9.688447952270508</v>
+        <v>15.23577308654785</v>
       </c>
       <c r="E53">
-        <v>0.3399178087711334</v>
+        <v>0.753526508808136</v>
       </c>
       <c r="F53">
-        <v>3.566680192947388</v>
+        <v>7.82174825668335</v>
       </c>
       <c r="G53">
-        <v>6.99648380279541</v>
+        <v>17.65185928344727</v>
       </c>
       <c r="H53">
-        <v>0.8820956349372864</v>
+        <v>2.526437282562256</v>
       </c>
       <c r="I53">
-        <v>-6.88003396987915</v>
+        <v>4.081952095031738</v>
       </c>
       <c r="J53">
-        <v>2.019609928131104</v>
+        <v>4.010047435760498</v>
       </c>
       <c r="K53">
-        <v>1.276415705680847</v>
+        <v>1.619872450828552</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2271,31 +2271,31 @@
         <v>41760</v>
       </c>
       <c r="C54">
-        <v>2.536180019378662</v>
+        <v>4.019552230834961</v>
       </c>
       <c r="D54">
-        <v>9.574438095092773</v>
+        <v>15.20293617248535</v>
       </c>
       <c r="E54">
-        <v>0.3038878440856934</v>
+        <v>0.7531682252883911</v>
       </c>
       <c r="F54">
-        <v>3.56665301322937</v>
+        <v>7.8221116065979</v>
       </c>
       <c r="G54">
-        <v>6.99569845199585</v>
+        <v>17.65684127807617</v>
       </c>
       <c r="H54">
-        <v>0.8838527798652649</v>
+        <v>2.540488481521606</v>
       </c>
       <c r="I54">
-        <v>-6.879315853118896</v>
+        <v>4.277731895446777</v>
       </c>
       <c r="J54">
-        <v>2.019521236419678</v>
+        <v>4.010604858398438</v>
       </c>
       <c r="K54">
-        <v>1.260807991027832</v>
+        <v>1.619944334030151</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2306,31 +2306,31 @@
         <v>41791</v>
       </c>
       <c r="C55">
-        <v>2.536077976226807</v>
+        <v>4.019484519958496</v>
       </c>
       <c r="D55">
-        <v>9.473723411560059</v>
+        <v>15.18511962890625</v>
       </c>
       <c r="E55">
-        <v>0.2981208264827728</v>
+        <v>0.7528098821640015</v>
       </c>
       <c r="F55">
-        <v>3.566642761230469</v>
+        <v>7.822049140930176</v>
       </c>
       <c r="G55">
-        <v>6.99566125869751</v>
+        <v>17.65354156494141</v>
       </c>
       <c r="H55">
-        <v>0.8876498937606812</v>
+        <v>2.540096521377563</v>
       </c>
       <c r="I55">
-        <v>-6.8793625831604</v>
+        <v>4.280756950378418</v>
       </c>
       <c r="J55">
-        <v>2.019506692886353</v>
+        <v>4.010043144226074</v>
       </c>
       <c r="K55">
-        <v>1.322790503501892</v>
+        <v>1.61965537071228</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2341,31 +2341,31 @@
         <v>41821</v>
       </c>
       <c r="C56">
-        <v>2.537272930145264</v>
+        <v>4.049132347106934</v>
       </c>
       <c r="D56">
-        <v>9.616998672485352</v>
+        <v>15.57789897918701</v>
       </c>
       <c r="E56">
-        <v>0.3014470040798187</v>
+        <v>0.6248376965522766</v>
       </c>
       <c r="F56">
-        <v>4.78006649017334</v>
+        <v>8.570774078369141</v>
       </c>
       <c r="G56">
-        <v>6.704888343811035</v>
+        <v>18.18520545959473</v>
       </c>
       <c r="H56">
-        <v>0.9043703079223633</v>
+        <v>2.310212135314941</v>
       </c>
       <c r="I56">
-        <v>-6.751064300537109</v>
+        <v>2.968371868133545</v>
       </c>
       <c r="J56">
-        <v>1.808108925819397</v>
+        <v>3.869401454925537</v>
       </c>
       <c r="K56">
-        <v>1.370172739028931</v>
+        <v>2.129825115203857</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2376,31 +2376,31 @@
         <v>41852</v>
       </c>
       <c r="C57">
-        <v>2.537214994430542</v>
+        <v>4.046287059783936</v>
       </c>
       <c r="D57">
-        <v>9.610692977905273</v>
+        <v>15.59268951416016</v>
       </c>
       <c r="E57">
-        <v>0.31267911195755</v>
+        <v>0.6239041090011597</v>
       </c>
       <c r="F57">
-        <v>4.780021190643311</v>
+        <v>8.571738243103027</v>
       </c>
       <c r="G57">
-        <v>6.70651912689209</v>
+        <v>18.18637084960938</v>
       </c>
       <c r="H57">
-        <v>0.9108710289001465</v>
+        <v>2.308492183685303</v>
       </c>
       <c r="I57">
-        <v>-6.751064300537109</v>
+        <v>2.965476989746094</v>
       </c>
       <c r="J57">
-        <v>1.808579087257385</v>
+        <v>3.869972944259644</v>
       </c>
       <c r="K57">
-        <v>1.512754797935486</v>
+        <v>2.145478010177612</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2411,31 +2411,31 @@
         <v>41883</v>
       </c>
       <c r="C58">
-        <v>2.535999774932861</v>
+        <v>4.049495220184326</v>
       </c>
       <c r="D58">
-        <v>9.674675941467285</v>
+        <v>15.57615947723389</v>
       </c>
       <c r="E58">
-        <v>0.32991623878479</v>
+        <v>0.6239346861839294</v>
       </c>
       <c r="F58">
-        <v>4.780107975006104</v>
+        <v>8.570398330688477</v>
       </c>
       <c r="G58">
-        <v>6.706544399261475</v>
+        <v>18.18731117248535</v>
       </c>
       <c r="H58">
-        <v>0.9069042205810547</v>
+        <v>2.309221982955933</v>
       </c>
       <c r="I58">
-        <v>-6.751055717468262</v>
+        <v>3.012304782867432</v>
       </c>
       <c r="J58">
-        <v>1.80854856967926</v>
+        <v>3.869926452636719</v>
       </c>
       <c r="K58">
-        <v>1.7583167552948</v>
+        <v>2.387579441070557</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2446,31 +2446,31 @@
         <v>41913</v>
       </c>
       <c r="C59">
-        <v>2.535995244979858</v>
+        <v>4.079109668731689</v>
       </c>
       <c r="D59">
-        <v>9.948829650878906</v>
+        <v>17.30023574829102</v>
       </c>
       <c r="E59">
-        <v>0.3189983069896698</v>
+        <v>0.3810116052627563</v>
       </c>
       <c r="F59">
-        <v>3.78778076171875</v>
+        <v>8.396400451660156</v>
       </c>
       <c r="G59">
-        <v>6.718766212463379</v>
+        <v>19.26665878295898</v>
       </c>
       <c r="H59">
-        <v>1.000120639801025</v>
+        <v>2.415249347686768</v>
       </c>
       <c r="I59">
-        <v>-8.131132125854492</v>
+        <v>2.906256914138794</v>
       </c>
       <c r="J59">
-        <v>3.599371671676636</v>
+        <v>5.394669532775879</v>
       </c>
       <c r="K59">
-        <v>1.502312898635864</v>
+        <v>2.513341188430786</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2481,31 +2481,31 @@
         <v>41944</v>
       </c>
       <c r="C60">
-        <v>2.536928653717041</v>
+        <v>4.079312801361084</v>
       </c>
       <c r="D60">
-        <v>9.934120178222656</v>
+        <v>17.31109046936035</v>
       </c>
       <c r="E60">
-        <v>0.315185546875</v>
+        <v>0.381388396024704</v>
       </c>
       <c r="F60">
-        <v>3.7877037525177</v>
+        <v>8.396908760070801</v>
       </c>
       <c r="G60">
-        <v>6.718446254730225</v>
+        <v>19.23353576660156</v>
       </c>
       <c r="H60">
-        <v>1.000130414962769</v>
+        <v>2.4181809425354</v>
       </c>
       <c r="I60">
-        <v>-8.130213737487793</v>
+        <v>2.924055337905884</v>
       </c>
       <c r="J60">
-        <v>3.61176609992981</v>
+        <v>5.399495124816895</v>
       </c>
       <c r="K60">
-        <v>1.709612846374512</v>
+        <v>2.513770818710327</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2516,31 +2516,31 @@
         <v>41974</v>
       </c>
       <c r="C61">
-        <v>2.537147998809814</v>
+        <v>4.079549312591553</v>
       </c>
       <c r="D61">
-        <v>9.932779312133789</v>
+        <v>17.34294509887695</v>
       </c>
       <c r="E61">
-        <v>0.3259626030921936</v>
+        <v>0.3796411454677582</v>
       </c>
       <c r="F61">
-        <v>3.787772655487061</v>
+        <v>8.396947860717773</v>
       </c>
       <c r="G61">
-        <v>6.718172550201416</v>
+        <v>19.34727668762207</v>
       </c>
       <c r="H61">
-        <v>1.044366121292114</v>
+        <v>2.423041343688965</v>
       </c>
       <c r="I61">
-        <v>-8.127062797546387</v>
+        <v>2.845975399017334</v>
       </c>
       <c r="J61">
-        <v>3.611788988113403</v>
+        <v>5.399535179138184</v>
       </c>
       <c r="K61">
-        <v>2.516954183578491</v>
+        <v>2.510948896408081</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2551,31 +2551,31 @@
         <v>42005</v>
       </c>
       <c r="C62">
-        <v>2.535263538360596</v>
+        <v>4.099170207977295</v>
       </c>
       <c r="D62">
-        <v>11.85714149475098</v>
+        <v>17.05470657348633</v>
       </c>
       <c r="E62">
-        <v>0.3064039349555969</v>
+        <v>0.3373062908649445</v>
       </c>
       <c r="F62">
-        <v>3.364120483398438</v>
+        <v>8.060503005981445</v>
       </c>
       <c r="G62">
-        <v>7.102398872375488</v>
+        <v>19.25815200805664</v>
       </c>
       <c r="H62">
-        <v>1.416675448417664</v>
+        <v>2.232919692993164</v>
       </c>
       <c r="I62">
-        <v>-6.739753723144531</v>
+        <v>2.393890857696533</v>
       </c>
       <c r="J62">
-        <v>3.635223388671875</v>
+        <v>5.290713310241699</v>
       </c>
       <c r="K62">
-        <v>2.290739774703979</v>
+        <v>1.580142378807068</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2586,31 +2586,31 @@
         <v>42036</v>
       </c>
       <c r="C63">
-        <v>2.535647392272949</v>
+        <v>4.099417686462402</v>
       </c>
       <c r="D63">
-        <v>11.73902416229248</v>
+        <v>17.04790115356445</v>
       </c>
       <c r="E63">
-        <v>0.2772790193557739</v>
+        <v>0.3369893133640289</v>
       </c>
       <c r="F63">
-        <v>3.363667249679565</v>
+        <v>8.060616493225098</v>
       </c>
       <c r="G63">
-        <v>7.106979370117188</v>
+        <v>19.2583179473877</v>
       </c>
       <c r="H63">
-        <v>1.501469016075134</v>
+        <v>2.237415313720703</v>
       </c>
       <c r="I63">
-        <v>-6.732550144195557</v>
+        <v>2.20937180519104</v>
       </c>
       <c r="J63">
-        <v>3.641107082366943</v>
+        <v>5.286734104156494</v>
       </c>
       <c r="K63">
-        <v>2.22157883644104</v>
+        <v>1.581737160682678</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2621,31 +2621,31 @@
         <v>42064</v>
       </c>
       <c r="C64">
-        <v>2.535032272338867</v>
+        <v>4.099470615386963</v>
       </c>
       <c r="D64">
-        <v>11.74976825714111</v>
+        <v>17.06586837768555</v>
       </c>
       <c r="E64">
-        <v>0.2782265543937683</v>
+        <v>0.3369343876838684</v>
       </c>
       <c r="F64">
-        <v>3.36359167098999</v>
+        <v>8.060276031494141</v>
       </c>
       <c r="G64">
-        <v>7.094856262207031</v>
+        <v>19.25836563110352</v>
       </c>
       <c r="H64">
-        <v>1.506675481796265</v>
+        <v>2.245582580566406</v>
       </c>
       <c r="I64">
-        <v>-6.731183052062988</v>
+        <v>2.201376676559448</v>
       </c>
       <c r="J64">
-        <v>3.632344007492065</v>
+        <v>5.290898323059082</v>
       </c>
       <c r="K64">
-        <v>2.291182279586792</v>
+        <v>1.582588076591492</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2656,31 +2656,31 @@
         <v>42095</v>
       </c>
       <c r="C65">
-        <v>2.536859512329102</v>
+        <v>4.089699745178223</v>
       </c>
       <c r="D65">
-        <v>14.24729156494141</v>
+        <v>18.97287750244141</v>
       </c>
       <c r="E65">
-        <v>0.2973207831382751</v>
+        <v>0.6560977697372437</v>
       </c>
       <c r="F65">
-        <v>3.383455276489258</v>
+        <v>8.24698543548584</v>
       </c>
       <c r="G65">
-        <v>7.229432106018066</v>
+        <v>19.63870620727539</v>
       </c>
       <c r="H65">
-        <v>1.696377396583557</v>
+        <v>2.274049043655396</v>
       </c>
       <c r="I65">
-        <v>-6.732563018798828</v>
+        <v>2.486740827560425</v>
       </c>
       <c r="J65">
-        <v>3.625882625579834</v>
+        <v>5.458731651306152</v>
       </c>
       <c r="K65">
-        <v>2.295743942260742</v>
+        <v>2.021567821502686</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2691,31 +2691,31 @@
         <v>42125</v>
       </c>
       <c r="C66">
-        <v>2.536111831665039</v>
+        <v>4.089653491973877</v>
       </c>
       <c r="D66">
-        <v>14.49113655090332</v>
+        <v>18.97180938720703</v>
       </c>
       <c r="E66">
-        <v>0.2996883690357208</v>
+        <v>0.6561015844345093</v>
       </c>
       <c r="F66">
-        <v>3.383475780487061</v>
+        <v>8.247164726257324</v>
       </c>
       <c r="G66">
-        <v>7.229434013366699</v>
+        <v>19.69674682617188</v>
       </c>
       <c r="H66">
-        <v>1.69697380065918</v>
+        <v>2.274930477142334</v>
       </c>
       <c r="I66">
-        <v>-6.739760398864746</v>
+        <v>2.477434396743774</v>
       </c>
       <c r="J66">
-        <v>3.626922130584717</v>
+        <v>5.463072776794434</v>
       </c>
       <c r="K66">
-        <v>2.328902721405029</v>
+        <v>2.025335788726807</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2726,31 +2726,31 @@
         <v>42156</v>
       </c>
       <c r="C67">
-        <v>2.538062810897827</v>
+        <v>4.089736938476562</v>
       </c>
       <c r="D67">
-        <v>14.50007438659668</v>
+        <v>18.9815788269043</v>
       </c>
       <c r="E67">
-        <v>0.3246402442455292</v>
+        <v>0.6561554074287415</v>
       </c>
       <c r="F67">
-        <v>3.383480548858643</v>
+        <v>8.24741268157959</v>
       </c>
       <c r="G67">
-        <v>7.229660987854004</v>
+        <v>19.69655227661133</v>
       </c>
       <c r="H67">
-        <v>1.696635007858276</v>
+        <v>2.306838750839233</v>
       </c>
       <c r="I67">
-        <v>-6.735592842102051</v>
+        <v>2.495263338088989</v>
       </c>
       <c r="J67">
-        <v>3.626766920089722</v>
+        <v>5.459659576416016</v>
       </c>
       <c r="K67">
-        <v>2.328896284103394</v>
+        <v>2.022151231765747</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2761,31 +2761,31 @@
         <v>42186</v>
       </c>
       <c r="C68">
-        <v>2.560644626617432</v>
+        <v>4.108258724212646</v>
       </c>
       <c r="D68">
-        <v>10.92328071594238</v>
+        <v>16.86965560913086</v>
       </c>
       <c r="E68">
-        <v>0.3279016315937042</v>
+        <v>0.9178129434585571</v>
       </c>
       <c r="F68">
-        <v>3.047978162765503</v>
+        <v>7.283770561218262</v>
       </c>
       <c r="G68">
-        <v>7.231572151184082</v>
+        <v>19.81518173217773</v>
       </c>
       <c r="H68">
-        <v>1.698792457580566</v>
+        <v>2.508528232574463</v>
       </c>
       <c r="I68">
-        <v>-8.209604263305664</v>
+        <v>3.914099216461182</v>
       </c>
       <c r="J68">
-        <v>3.622529268264771</v>
+        <v>5.539085388183594</v>
       </c>
       <c r="K68">
-        <v>2.497913360595703</v>
+        <v>1.954558730125427</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2796,31 +2796,31 @@
         <v>42217</v>
       </c>
       <c r="C69">
-        <v>2.559255838394165</v>
+        <v>4.109437465667725</v>
       </c>
       <c r="D69">
-        <v>10.92267227172852</v>
+        <v>16.86229705810547</v>
       </c>
       <c r="E69">
-        <v>0.3175020813941956</v>
+        <v>0.9184163212776184</v>
       </c>
       <c r="F69">
-        <v>3.047636985778809</v>
+        <v>7.283308506011963</v>
       </c>
       <c r="G69">
-        <v>7.231604099273682</v>
+        <v>19.79765892028809</v>
       </c>
       <c r="H69">
-        <v>1.699272871017456</v>
+        <v>2.511561870574951</v>
       </c>
       <c r="I69">
-        <v>-8.207958221435547</v>
+        <v>3.951925754547119</v>
       </c>
       <c r="J69">
-        <v>3.622513294219971</v>
+        <v>5.539919376373291</v>
       </c>
       <c r="K69">
-        <v>2.497923612594604</v>
+        <v>1.95419716835022</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2831,31 +2831,31 @@
         <v>42248</v>
       </c>
       <c r="C70">
-        <v>2.559130191802979</v>
+        <v>4.107257843017578</v>
       </c>
       <c r="D70">
-        <v>10.79500579833984</v>
+        <v>16.86886596679688</v>
       </c>
       <c r="E70">
-        <v>0.3176628649234772</v>
+        <v>0.9181920289993286</v>
       </c>
       <c r="F70">
-        <v>3.047692060470581</v>
+        <v>7.283443450927734</v>
       </c>
       <c r="G70">
-        <v>7.242240905761719</v>
+        <v>19.68938064575195</v>
       </c>
       <c r="H70">
-        <v>1.653652191162109</v>
+        <v>2.500049114227295</v>
       </c>
       <c r="I70">
-        <v>-8.215189933776855</v>
+        <v>3.947670459747314</v>
       </c>
       <c r="J70">
-        <v>3.623144865036011</v>
+        <v>5.53971004486084</v>
       </c>
       <c r="K70">
-        <v>2.416147708892822</v>
+        <v>1.949886322021484</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2866,31 +2866,31 @@
         <v>42278</v>
       </c>
       <c r="C71">
-        <v>2.538722515106201</v>
+        <v>4.13109827041626</v>
       </c>
       <c r="D71">
-        <v>11.8595142364502</v>
+        <v>15.22712135314941</v>
       </c>
       <c r="E71">
-        <v>0.2926775813102722</v>
+        <v>1.329684734344482</v>
       </c>
       <c r="F71">
-        <v>4.684210777282715</v>
+        <v>9.159782409667969</v>
       </c>
       <c r="G71">
-        <v>7.275429725646973</v>
+        <v>19.44755744934082</v>
       </c>
       <c r="H71">
-        <v>1.5749591588974</v>
+        <v>2.33644437789917</v>
       </c>
       <c r="I71">
-        <v>-6.819550514221191</v>
+        <v>4.43613338470459</v>
       </c>
       <c r="J71">
-        <v>3.762463808059692</v>
+        <v>5.850229740142822</v>
       </c>
       <c r="K71">
-        <v>2.316368818283081</v>
+        <v>1.601189255714417</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2901,31 +2901,31 @@
         <v>42309</v>
       </c>
       <c r="C72">
-        <v>2.538042545318604</v>
+        <v>4.13834285736084</v>
       </c>
       <c r="D72">
-        <v>11.79337501525879</v>
+        <v>15.30204200744629</v>
       </c>
       <c r="E72">
-        <v>0.2960557043552399</v>
+        <v>1.335040688514709</v>
       </c>
       <c r="F72">
-        <v>4.683860778808594</v>
+        <v>9.214555740356445</v>
       </c>
       <c r="G72">
-        <v>7.269340515136719</v>
+        <v>19.44871711730957</v>
       </c>
       <c r="H72">
-        <v>1.619753479957581</v>
+        <v>2.330336093902588</v>
       </c>
       <c r="I72">
-        <v>-6.818602085113525</v>
+        <v>4.444914817810059</v>
       </c>
       <c r="J72">
-        <v>3.768634080886841</v>
+        <v>5.855575561523438</v>
       </c>
       <c r="K72">
-        <v>2.03764271736145</v>
+        <v>1.600389838218689</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2936,31 +2936,31 @@
         <v>42339</v>
       </c>
       <c r="C73">
-        <v>2.538532733917236</v>
+        <v>4.139554023742676</v>
       </c>
       <c r="D73">
-        <v>11.76616477966309</v>
+        <v>15.20585155487061</v>
       </c>
       <c r="E73">
-        <v>0.3202778995037079</v>
+        <v>1.332190036773682</v>
       </c>
       <c r="F73">
-        <v>4.684209823608398</v>
+        <v>9.226020812988281</v>
       </c>
       <c r="G73">
-        <v>7.269097328186035</v>
+        <v>19.44861793518066</v>
       </c>
       <c r="H73">
-        <v>1.536310911178589</v>
+        <v>2.327013731002808</v>
       </c>
       <c r="I73">
-        <v>-6.816736698150635</v>
+        <v>4.435894012451172</v>
       </c>
       <c r="J73">
-        <v>3.768696546554565</v>
+        <v>5.858424186706543</v>
       </c>
       <c r="K73">
-        <v>2.15112829208374</v>
+        <v>1.600115776062012</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2971,31 +2971,31 @@
         <v>42370</v>
       </c>
       <c r="C74">
-        <v>2.536776065826416</v>
+        <v>4.145671844482422</v>
       </c>
       <c r="D74">
-        <v>11.3849401473999</v>
+        <v>12.09814071655273</v>
       </c>
       <c r="E74">
-        <v>0.3244710564613342</v>
+        <v>1.366306900978088</v>
       </c>
       <c r="F74">
-        <v>4.897139072418213</v>
+        <v>9.767720222473145</v>
       </c>
       <c r="G74">
-        <v>6.868701934814453</v>
+        <v>19.76885032653809</v>
       </c>
       <c r="H74">
-        <v>1.095028638839722</v>
+        <v>2.683970928192139</v>
       </c>
       <c r="I74">
-        <v>-13.85561370849609</v>
+        <v>5.144949436187744</v>
       </c>
       <c r="J74">
-        <v>3.6455237865448</v>
+        <v>5.984095573425293</v>
       </c>
       <c r="K74">
-        <v>3.038669109344482</v>
+        <v>2.898799657821655</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3006,31 +3006,31 @@
         <v>42401</v>
       </c>
       <c r="C75">
-        <v>2.536772727966309</v>
+        <v>4.13405704498291</v>
       </c>
       <c r="D75">
-        <v>11.30044460296631</v>
+        <v>12.02215003967285</v>
       </c>
       <c r="E75">
-        <v>0.2972460389137268</v>
+        <v>1.365403056144714</v>
       </c>
       <c r="F75">
-        <v>4.897910118103027</v>
+        <v>9.768551826477051</v>
       </c>
       <c r="G75">
-        <v>6.863898277282715</v>
+        <v>19.78232383728027</v>
       </c>
       <c r="H75">
-        <v>1.076597213745117</v>
+        <v>2.710049867630005</v>
       </c>
       <c r="I75">
-        <v>-13.84215545654297</v>
+        <v>5.38468074798584</v>
       </c>
       <c r="J75">
-        <v>3.646008253097534</v>
+        <v>5.982077598571777</v>
       </c>
       <c r="K75">
-        <v>1.708523035049438</v>
+        <v>2.899033069610596</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3041,31 +3041,31 @@
         <v>42430</v>
       </c>
       <c r="C76">
-        <v>2.536800146102905</v>
+        <v>4.145618438720703</v>
       </c>
       <c r="D76">
-        <v>11.17253112792969</v>
+        <v>12.08674049377441</v>
       </c>
       <c r="E76">
-        <v>0.312335878610611</v>
+        <v>1.370117783546448</v>
       </c>
       <c r="F76">
-        <v>4.897902965545654</v>
+        <v>9.76832103729248</v>
       </c>
       <c r="G76">
-        <v>6.821389198303223</v>
+        <v>19.78815841674805</v>
       </c>
       <c r="H76">
-        <v>0.9198582768440247</v>
+        <v>2.715260028839111</v>
       </c>
       <c r="I76">
-        <v>-13.84283924102783</v>
+        <v>5.386697292327881</v>
       </c>
       <c r="J76">
-        <v>3.646646022796631</v>
+        <v>5.984329223632812</v>
       </c>
       <c r="K76">
-        <v>1.250002861022949</v>
+        <v>2.8992018699646</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3076,31 +3076,31 @@
         <v>42461</v>
       </c>
       <c r="C77">
-        <v>2.538380146026611</v>
+        <v>4.100132942199707</v>
       </c>
       <c r="D77">
-        <v>11.70084762573242</v>
+        <v>8.863492012023926</v>
       </c>
       <c r="E77">
-        <v>0.3426225781440735</v>
+        <v>1.307623147964478</v>
       </c>
       <c r="F77">
-        <v>3.960746049880981</v>
+        <v>9.938563346862793</v>
       </c>
       <c r="G77">
-        <v>6.887592315673828</v>
+        <v>18.8690299987793</v>
       </c>
       <c r="H77">
-        <v>0.882350742816925</v>
+        <v>2.771414041519165</v>
       </c>
       <c r="I77">
-        <v>-21.24562454223633</v>
+        <v>4.994667053222656</v>
       </c>
       <c r="J77">
-        <v>3.765864133834839</v>
+        <v>5.887913703918457</v>
       </c>
       <c r="K77">
-        <v>0.6330085396766663</v>
+        <v>2.27199649810791</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3111,31 +3111,31 @@
         <v>42491</v>
       </c>
       <c r="C78">
-        <v>2.537913799285889</v>
+        <v>4.096678256988525</v>
       </c>
       <c r="D78">
-        <v>11.71754264831543</v>
+        <v>9.194082260131836</v>
       </c>
       <c r="E78">
-        <v>0.3501927852630615</v>
+        <v>1.307485580444336</v>
       </c>
       <c r="F78">
-        <v>3.960739850997925</v>
+        <v>9.933794021606445</v>
       </c>
       <c r="G78">
-        <v>6.8848557472229</v>
+        <v>18.86836051940918</v>
       </c>
       <c r="H78">
-        <v>0.9328292608261108</v>
+        <v>2.77874755859375</v>
       </c>
       <c r="I78">
-        <v>-21.2442626953125</v>
+        <v>4.994531631469727</v>
       </c>
       <c r="J78">
-        <v>3.765154361724854</v>
+        <v>5.886942863464355</v>
       </c>
       <c r="K78">
-        <v>0.6467214822769165</v>
+        <v>2.274190902709961</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3146,31 +3146,31 @@
         <v>42522</v>
       </c>
       <c r="C79">
-        <v>2.538693904876709</v>
+        <v>4.099784851074219</v>
       </c>
       <c r="D79">
-        <v>11.74493217468262</v>
+        <v>8.852824211120605</v>
       </c>
       <c r="E79">
-        <v>0.3616348803043365</v>
+        <v>1.30762791633606</v>
       </c>
       <c r="F79">
-        <v>3.960665941238403</v>
+        <v>9.930237770080566</v>
       </c>
       <c r="G79">
-        <v>6.877963066101074</v>
+        <v>18.87717247009277</v>
       </c>
       <c r="H79">
-        <v>1.186157584190369</v>
+        <v>2.778427124023438</v>
       </c>
       <c r="I79">
-        <v>-21.23828506469727</v>
+        <v>4.991594791412354</v>
       </c>
       <c r="J79">
-        <v>3.764898777008057</v>
+        <v>5.885552406311035</v>
       </c>
       <c r="K79">
-        <v>0.6275647878646851</v>
+        <v>2.273294448852539</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3181,31 +3181,31 @@
         <v>42552</v>
       </c>
       <c r="C80">
-        <v>2.539484262466431</v>
+        <v>4.078321933746338</v>
       </c>
       <c r="D80">
-        <v>11.18458843231201</v>
+        <v>10.60689353942871</v>
       </c>
       <c r="E80">
-        <v>0.3455642759799957</v>
+        <v>1.214375257492065</v>
       </c>
       <c r="F80">
-        <v>4.764616012573242</v>
+        <v>10.32612133026123</v>
       </c>
       <c r="G80">
-        <v>7.327207088470459</v>
+        <v>18.76025009155273</v>
       </c>
       <c r="H80">
-        <v>1.19299042224884</v>
+        <v>2.790330410003662</v>
       </c>
       <c r="I80">
-        <v>-6.812190055847168</v>
+        <v>4.728623390197754</v>
       </c>
       <c r="J80">
-        <v>3.765689849853516</v>
+        <v>5.896783351898193</v>
       </c>
       <c r="K80">
-        <v>0.02435410022735596</v>
+        <v>2.168749809265137</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3216,31 +3216,31 @@
         <v>42583</v>
       </c>
       <c r="C81">
-        <v>2.539419412612915</v>
+        <v>4.079946994781494</v>
       </c>
       <c r="D81">
-        <v>11.16973400115967</v>
+        <v>10.61249351501465</v>
       </c>
       <c r="E81">
-        <v>0.3507029414176941</v>
+        <v>1.214213013648987</v>
       </c>
       <c r="F81">
-        <v>4.764634132385254</v>
+        <v>10.3398323059082</v>
       </c>
       <c r="G81">
-        <v>7.316525936126709</v>
+        <v>18.75957107543945</v>
       </c>
       <c r="H81">
-        <v>1.465918779373169</v>
+        <v>2.798785209655762</v>
       </c>
       <c r="I81">
-        <v>-6.811676025390625</v>
+        <v>4.728880882263184</v>
       </c>
       <c r="J81">
-        <v>3.765572786331177</v>
+        <v>5.895339012145996</v>
       </c>
       <c r="K81">
-        <v>0.04264820739626884</v>
+        <v>2.169585466384888</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3251,31 +3251,31 @@
         <v>42614</v>
       </c>
       <c r="C82">
-        <v>2.538404941558838</v>
+        <v>4.078366756439209</v>
       </c>
       <c r="D82">
-        <v>11.24896907806396</v>
+        <v>10.56218814849854</v>
       </c>
       <c r="E82">
-        <v>0.3693789541721344</v>
+        <v>1.213958501815796</v>
       </c>
       <c r="F82">
-        <v>4.764708995819092</v>
+        <v>10.28539657592773</v>
       </c>
       <c r="G82">
-        <v>7.315798282623291</v>
+        <v>18.75942230224609</v>
       </c>
       <c r="H82">
-        <v>1.722687482833862</v>
+        <v>2.804254055023193</v>
       </c>
       <c r="I82">
-        <v>-6.80876636505127</v>
+        <v>4.739298820495605</v>
       </c>
       <c r="J82">
-        <v>3.755681991577148</v>
+        <v>5.89877986907959</v>
       </c>
       <c r="K82">
-        <v>0.5010980367660522</v>
+        <v>2.168200969696045</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3286,31 +3286,31 @@
         <v>42644</v>
       </c>
       <c r="C83">
-        <v>2.537256717681885</v>
+        <v>4.041934967041016</v>
       </c>
       <c r="D83">
-        <v>11.21454238891602</v>
+        <v>12.55328845977783</v>
       </c>
       <c r="E83">
-        <v>0.3408638834953308</v>
+        <v>1.254693865776062</v>
       </c>
       <c r="F83">
-        <v>3.519543170928955</v>
+        <v>9.435724258422852</v>
       </c>
       <c r="G83">
-        <v>7.329115867614746</v>
+        <v>19.01897430419922</v>
       </c>
       <c r="H83">
-        <v>1.853565573692322</v>
+        <v>2.956618785858154</v>
       </c>
       <c r="I83">
-        <v>-6.745843410491943</v>
+        <v>4.600944519042969</v>
       </c>
       <c r="J83">
-        <v>3.637948274612427</v>
+        <v>5.792229652404785</v>
       </c>
       <c r="K83">
-        <v>0.5360790491104126</v>
+        <v>2.497292757034302</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3321,31 +3321,31 @@
         <v>42675</v>
       </c>
       <c r="C84">
-        <v>2.537359952926636</v>
+        <v>4.059562206268311</v>
       </c>
       <c r="D84">
-        <v>11.27490520477295</v>
+        <v>12.53609371185303</v>
       </c>
       <c r="E84">
-        <v>0.3341540694236755</v>
+        <v>1.255149483680725</v>
       </c>
       <c r="F84">
-        <v>3.519203186035156</v>
+        <v>9.436014175415039</v>
       </c>
       <c r="G84">
-        <v>7.32909107208252</v>
+        <v>19.01871299743652</v>
       </c>
       <c r="H84">
-        <v>1.881544470787048</v>
+        <v>2.9591224193573</v>
       </c>
       <c r="I84">
-        <v>-6.746917724609375</v>
+        <v>4.600020885467529</v>
       </c>
       <c r="J84">
-        <v>3.638831377029419</v>
+        <v>5.799330711364746</v>
       </c>
       <c r="K84">
-        <v>0.5561984777450562</v>
+        <v>2.498940229415894</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3356,31 +3356,31 @@
         <v>42705</v>
       </c>
       <c r="C85">
-        <v>2.536625385284424</v>
+        <v>4.059833526611328</v>
       </c>
       <c r="D85">
-        <v>11.62819957733154</v>
+        <v>12.42027473449707</v>
       </c>
       <c r="E85">
-        <v>0.3644007444381714</v>
+        <v>1.259307146072388</v>
       </c>
       <c r="F85">
-        <v>3.520568132400513</v>
+        <v>9.4356689453125</v>
       </c>
       <c r="G85">
-        <v>7.329054355621338</v>
+        <v>19.01912689208984</v>
       </c>
       <c r="H85">
-        <v>1.863379836082458</v>
+        <v>2.939245700836182</v>
       </c>
       <c r="I85">
-        <v>-6.740148067474365</v>
+        <v>4.605125427246094</v>
       </c>
       <c r="J85">
-        <v>3.638775587081909</v>
+        <v>5.797204971313477</v>
       </c>
       <c r="K85">
-        <v>0.4567523002624512</v>
+        <v>2.499314785003662</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3391,31 +3391,31 @@
         <v>42736</v>
       </c>
       <c r="C86">
-        <v>2.566159725189209</v>
+        <v>3.996949672698975</v>
       </c>
       <c r="D86">
-        <v>12.0628833770752</v>
+        <v>16.34321403503418</v>
       </c>
       <c r="E86">
-        <v>0.3709762692451477</v>
+        <v>1.382293701171875</v>
       </c>
       <c r="F86">
-        <v>3.78082275390625</v>
+        <v>9.761235237121582</v>
       </c>
       <c r="G86">
-        <v>7.191205501556396</v>
+        <v>19.03586196899414</v>
       </c>
       <c r="H86">
-        <v>1.827010154724121</v>
+        <v>3.134841442108154</v>
       </c>
       <c r="I86">
-        <v>-6.625288486480713</v>
+        <v>4.722701549530029</v>
       </c>
       <c r="J86">
-        <v>3.669475555419922</v>
+        <v>6.18489933013916</v>
       </c>
       <c r="K86">
-        <v>0.5846179723739624</v>
+        <v>2.918217897415161</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3426,31 +3426,31 @@
         <v>42767</v>
       </c>
       <c r="C87">
-        <v>2.565394401550293</v>
+        <v>3.99368143081665</v>
       </c>
       <c r="D87">
-        <v>12.06834411621094</v>
+        <v>16.19342231750488</v>
       </c>
       <c r="E87">
-        <v>0.4926166534423828</v>
+        <v>1.377972841262817</v>
       </c>
       <c r="F87">
-        <v>3.781221389770508</v>
+        <v>9.762028694152832</v>
       </c>
       <c r="G87">
-        <v>7.191766262054443</v>
+        <v>19.03769302368164</v>
       </c>
       <c r="H87">
-        <v>1.764908790588379</v>
+        <v>3.156731367111206</v>
       </c>
       <c r="I87">
-        <v>-6.626614570617676</v>
+        <v>4.722005367279053</v>
       </c>
       <c r="J87">
-        <v>3.671175718307495</v>
+        <v>6.181758880615234</v>
       </c>
       <c r="K87">
-        <v>0.6299710273742676</v>
+        <v>2.919712066650391</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3461,31 +3461,31 @@
         <v>42795</v>
       </c>
       <c r="C88">
-        <v>2.564783573150635</v>
+        <v>3.992258071899414</v>
       </c>
       <c r="D88">
-        <v>12.06826114654541</v>
+        <v>16.33470726013184</v>
       </c>
       <c r="E88">
-        <v>0.4926075041294098</v>
+        <v>1.392573356628418</v>
       </c>
       <c r="F88">
-        <v>3.780838489532471</v>
+        <v>9.762175559997559</v>
       </c>
       <c r="G88">
-        <v>7.192511081695557</v>
+        <v>19.03812789916992</v>
       </c>
       <c r="H88">
-        <v>1.620049834251404</v>
+        <v>3.149705171585083</v>
       </c>
       <c r="I88">
-        <v>-6.626111030578613</v>
+        <v>4.723219871520996</v>
       </c>
       <c r="J88">
-        <v>3.671363115310669</v>
+        <v>6.187303066253662</v>
       </c>
       <c r="K88">
-        <v>0.6530194282531738</v>
+        <v>2.921353816986084</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3496,31 +3496,31 @@
         <v>42826</v>
       </c>
       <c r="C89">
-        <v>2.57084584236145</v>
+        <v>4.000030040740967</v>
       </c>
       <c r="D89">
-        <v>11.64245891571045</v>
+        <v>18.74979591369629</v>
       </c>
       <c r="E89">
-        <v>0.6606743335723877</v>
+        <v>1.56671679019928</v>
       </c>
       <c r="F89">
-        <v>3.363245725631714</v>
+        <v>9.142328262329102</v>
       </c>
       <c r="G89">
-        <v>7.235809326171875</v>
+        <v>20.34528732299805</v>
       </c>
       <c r="H89">
-        <v>1.621654152870178</v>
+        <v>3.24749755859375</v>
       </c>
       <c r="I89">
-        <v>-6.624851226806641</v>
+        <v>4.985859870910645</v>
       </c>
       <c r="J89">
-        <v>3.690690994262695</v>
+        <v>6.402575016021729</v>
       </c>
       <c r="K89">
-        <v>0.9542844891548157</v>
+        <v>3.364720582962036</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3531,31 +3531,31 @@
         <v>42856</v>
       </c>
       <c r="C90">
-        <v>2.57044529914856</v>
+        <v>4.003303527832031</v>
       </c>
       <c r="D90">
-        <v>11.64652729034424</v>
+        <v>18.8204517364502</v>
       </c>
       <c r="E90">
-        <v>0.6606651544570923</v>
+        <v>1.579245567321777</v>
       </c>
       <c r="F90">
-        <v>3.366681575775146</v>
+        <v>9.141454696655273</v>
       </c>
       <c r="G90">
-        <v>7.235568046569824</v>
+        <v>20.34617233276367</v>
       </c>
       <c r="H90">
-        <v>1.615530014038086</v>
+        <v>3.247002363204956</v>
       </c>
       <c r="I90">
-        <v>-6.624851226806641</v>
+        <v>4.971956253051758</v>
       </c>
       <c r="J90">
-        <v>3.690555572509766</v>
+        <v>6.488478660583496</v>
       </c>
       <c r="K90">
-        <v>1.17462158203125</v>
+        <v>3.368240356445312</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3566,31 +3566,31 @@
         <v>42887</v>
       </c>
       <c r="C91">
-        <v>2.569915294647217</v>
+        <v>4.000476837158203</v>
       </c>
       <c r="D91">
-        <v>11.73706722259521</v>
+        <v>18.81119346618652</v>
       </c>
       <c r="E91">
-        <v>0.6606537103652954</v>
+        <v>1.576656579971313</v>
       </c>
       <c r="F91">
-        <v>3.365742206573486</v>
+        <v>9.14130973815918</v>
       </c>
       <c r="G91">
-        <v>7.23537540435791</v>
+        <v>20.3469295501709</v>
       </c>
       <c r="H91">
-        <v>1.610170364379883</v>
+        <v>3.248876094818115</v>
       </c>
       <c r="I91">
-        <v>-6.623236179351807</v>
+        <v>5.051175117492676</v>
       </c>
       <c r="J91">
-        <v>3.690616607666016</v>
+        <v>6.482279777526855</v>
       </c>
       <c r="K91">
-        <v>2.320220947265625</v>
+        <v>3.369699954986572</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3601,31 +3601,31 @@
         <v>42917</v>
       </c>
       <c r="C92">
-        <v>2.570216417312622</v>
+        <v>4.059042453765869</v>
       </c>
       <c r="D92">
-        <v>11.81028842926025</v>
+        <v>19.036376953125</v>
       </c>
       <c r="E92">
-        <v>0.6602045297622681</v>
+        <v>1.659642815589905</v>
       </c>
       <c r="F92">
-        <v>3.356846570968628</v>
+        <v>8.843673706054688</v>
       </c>
       <c r="G92">
-        <v>7.597169399261475</v>
+        <v>20.83470726013184</v>
       </c>
       <c r="H92">
-        <v>1.628282189369202</v>
+        <v>3.377076625823975</v>
       </c>
       <c r="I92">
-        <v>-3.257454633712769</v>
+        <v>5.009127616882324</v>
       </c>
       <c r="J92">
-        <v>3.910607099533081</v>
+        <v>6.754198551177979</v>
       </c>
       <c r="K92">
-        <v>2.759552478790283</v>
+        <v>3.491996765136719</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3636,31 +3636,31 @@
         <v>42948</v>
       </c>
       <c r="C93">
-        <v>2.570264577865601</v>
+        <v>4.060226917266846</v>
       </c>
       <c r="D93">
-        <v>11.71234512329102</v>
+        <v>19.03845596313477</v>
       </c>
       <c r="E93">
-        <v>0.6601952314376831</v>
+        <v>1.68096923828125</v>
       </c>
       <c r="F93">
-        <v>3.356836318969727</v>
+        <v>8.841891288757324</v>
       </c>
       <c r="G93">
-        <v>7.597146034240723</v>
+        <v>20.83590126037598</v>
       </c>
       <c r="H93">
-        <v>1.628136396408081</v>
+        <v>3.378732204437256</v>
       </c>
       <c r="I93">
-        <v>-3.257251739501953</v>
+        <v>5.009180545806885</v>
       </c>
       <c r="J93">
-        <v>3.910046339035034</v>
+        <v>6.752429008483887</v>
       </c>
       <c r="K93">
-        <v>3.290491819381714</v>
+        <v>3.49370002746582</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3671,31 +3671,31 @@
         <v>42979</v>
       </c>
       <c r="C94">
-        <v>2.569716930389404</v>
+        <v>4.051226615905762</v>
       </c>
       <c r="D94">
-        <v>11.85550117492676</v>
+        <v>19.03738975524902</v>
       </c>
       <c r="E94">
-        <v>0.6683145761489868</v>
+        <v>1.675233483314514</v>
       </c>
       <c r="F94">
-        <v>3.35210919380188</v>
+        <v>8.776736259460449</v>
       </c>
       <c r="G94">
-        <v>7.467184543609619</v>
+        <v>20.74510765075684</v>
       </c>
       <c r="H94">
-        <v>1.629869818687439</v>
+        <v>3.358795166015625</v>
       </c>
       <c r="I94">
-        <v>-3.257310390472412</v>
+        <v>4.990647792816162</v>
       </c>
       <c r="J94">
-        <v>3.91279411315918</v>
+        <v>6.744585990905762</v>
       </c>
       <c r="K94">
-        <v>3.25849461555481</v>
+        <v>3.531356334686279</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3706,31 +3706,31 @@
         <v>43009</v>
       </c>
       <c r="C95">
-        <v>2.566609621047974</v>
+        <v>3.870553493499756</v>
       </c>
       <c r="D95">
-        <v>11.98713207244873</v>
+        <v>19.1584300994873</v>
       </c>
       <c r="E95">
-        <v>0.6685585975646973</v>
+        <v>1.750376343727112</v>
       </c>
       <c r="F95">
-        <v>3.333201885223389</v>
+        <v>7.572766304016113</v>
       </c>
       <c r="G95">
-        <v>6.945404052734375</v>
+        <v>21.3523006439209</v>
       </c>
       <c r="H95">
-        <v>1.635839462280273</v>
+        <v>3.419701814651489</v>
       </c>
       <c r="I95">
-        <v>-3.254854917526245</v>
+        <v>5.176789283752441</v>
       </c>
       <c r="J95">
-        <v>3.944403171539307</v>
+        <v>6.930451393127441</v>
       </c>
       <c r="K95">
-        <v>3.129708528518677</v>
+        <v>3.607805728912354</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3741,31 +3741,31 @@
         <v>43040</v>
       </c>
       <c r="C96">
-        <v>2.567678928375244</v>
+        <v>3.870342969894409</v>
       </c>
       <c r="D96">
-        <v>11.98726844787598</v>
+        <v>19.18630027770996</v>
       </c>
       <c r="E96">
-        <v>0.6690249443054199</v>
+        <v>1.751813888549805</v>
       </c>
       <c r="F96">
-        <v>3.333206176757812</v>
+        <v>7.57066822052002</v>
       </c>
       <c r="G96">
-        <v>6.945086002349854</v>
+        <v>21.34602737426758</v>
       </c>
       <c r="H96">
-        <v>1.635862350463867</v>
+        <v>3.420099973678589</v>
       </c>
       <c r="I96">
-        <v>-3.256059169769287</v>
+        <v>5.179868221282959</v>
       </c>
       <c r="J96">
-        <v>3.943555116653442</v>
+        <v>6.932597160339355</v>
       </c>
       <c r="K96">
-        <v>3.122563123703003</v>
+        <v>3.611153841018677</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3776,31 +3776,31 @@
         <v>43070</v>
       </c>
       <c r="C97">
-        <v>2.569103956222534</v>
+        <v>3.870006084442139</v>
       </c>
       <c r="D97">
-        <v>11.98752593994141</v>
+        <v>19.19079399108887</v>
       </c>
       <c r="E97">
-        <v>0.6690149903297424</v>
+        <v>1.750584363937378</v>
       </c>
       <c r="F97">
-        <v>3.333200931549072</v>
+        <v>7.570973873138428</v>
       </c>
       <c r="G97">
-        <v>6.930471897125244</v>
+        <v>21.35801696777344</v>
       </c>
       <c r="H97">
-        <v>1.636274099349976</v>
+        <v>3.42314076423645</v>
       </c>
       <c r="I97">
-        <v>-3.256431579589844</v>
+        <v>5.182900428771973</v>
       </c>
       <c r="J97">
-        <v>3.943579196929932</v>
+        <v>6.937846183776855</v>
       </c>
       <c r="K97">
-        <v>3.230422973632812</v>
+        <v>3.613217830657959</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3811,31 +3811,696 @@
         <v>43101</v>
       </c>
       <c r="C98">
-        <v>2.568027019500732</v>
+        <v>4.069823265075684</v>
       </c>
       <c r="D98">
-        <v>11.86455726623535</v>
+        <v>9.48046875</v>
       </c>
       <c r="E98">
-        <v>0.6701059937477112</v>
+        <v>1.563482642173767</v>
       </c>
       <c r="F98">
-        <v>3.755148649215698</v>
+        <v>18.21243858337402</v>
       </c>
       <c r="G98">
-        <v>7.200677394866943</v>
+        <v>30.29372024536133</v>
       </c>
       <c r="H98">
-        <v>1.642263650894165</v>
+        <v>3.728843688964844</v>
       </c>
       <c r="I98">
-        <v>-6.712327480316162</v>
+        <v>-3.19440746307373</v>
       </c>
       <c r="J98">
-        <v>3.149077892303467</v>
+        <v>6.30479097366333</v>
       </c>
       <c r="K98">
-        <v>2.504376411437988</v>
+        <v>3.092613220214844</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43132</v>
+      </c>
+      <c r="C99">
+        <v>4.068861961364746</v>
+      </c>
+      <c r="D99">
+        <v>9.051449775695801</v>
+      </c>
+      <c r="E99">
+        <v>1.560179829597473</v>
+      </c>
+      <c r="F99">
+        <v>18.21368980407715</v>
+      </c>
+      <c r="G99">
+        <v>30.29615211486816</v>
+      </c>
+      <c r="H99">
+        <v>3.737611770629883</v>
+      </c>
+      <c r="I99">
+        <v>-3.196927547454834</v>
+      </c>
+      <c r="J99">
+        <v>6.304269313812256</v>
+      </c>
+      <c r="K99">
+        <v>3.358577013015747</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C100">
+        <v>4.071442604064941</v>
+      </c>
+      <c r="D100">
+        <v>8.627771377563477</v>
+      </c>
+      <c r="E100">
+        <v>1.558882713317871</v>
+      </c>
+      <c r="F100">
+        <v>18.2139892578125</v>
+      </c>
+      <c r="G100">
+        <v>30.29648399353027</v>
+      </c>
+      <c r="H100">
+        <v>3.733582258224487</v>
+      </c>
+      <c r="I100">
+        <v>-3.197010517120361</v>
+      </c>
+      <c r="J100">
+        <v>6.305237770080566</v>
+      </c>
+      <c r="K100">
+        <v>3.514997959136963</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C101">
+        <v>4.028765678405762</v>
+      </c>
+      <c r="D101">
+        <v>11.57131767272949</v>
+      </c>
+      <c r="E101">
+        <v>1.768309950828552</v>
+      </c>
+      <c r="F101">
+        <v>16.72864151000977</v>
+      </c>
+      <c r="G101">
+        <v>31.61968421936035</v>
+      </c>
+      <c r="H101">
+        <v>4.002225399017334</v>
+      </c>
+      <c r="I101">
+        <v>-2.875911712646484</v>
+      </c>
+      <c r="J101">
+        <v>7.007046699523926</v>
+      </c>
+      <c r="K101">
+        <v>4.567000865936279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C102">
+        <v>4.030101776123047</v>
+      </c>
+      <c r="D102">
+        <v>11.39626502990723</v>
+      </c>
+      <c r="E102">
+        <v>1.770063638687134</v>
+      </c>
+      <c r="F102">
+        <v>15.81260967254639</v>
+      </c>
+      <c r="G102">
+        <v>31.74532699584961</v>
+      </c>
+      <c r="H102">
+        <v>4.005582809448242</v>
+      </c>
+      <c r="I102">
+        <v>-2.870643615722656</v>
+      </c>
+      <c r="J102">
+        <v>7.024582862854004</v>
+      </c>
+      <c r="K102">
+        <v>3.540550708770752</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C103">
+        <v>4.030877113342285</v>
+      </c>
+      <c r="D103">
+        <v>11.32229900360107</v>
+      </c>
+      <c r="E103">
+        <v>1.771013617515564</v>
+      </c>
+      <c r="F103">
+        <v>15.86672496795654</v>
+      </c>
+      <c r="G103">
+        <v>31.74543762207031</v>
+      </c>
+      <c r="H103">
+        <v>4.005755424499512</v>
+      </c>
+      <c r="I103">
+        <v>-2.869059562683105</v>
+      </c>
+      <c r="J103">
+        <v>7.025203704833984</v>
+      </c>
+      <c r="K103">
+        <v>3.539298295974731</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C104">
+        <v>3.939843416213989</v>
+      </c>
+      <c r="D104">
+        <v>12.44526195526123</v>
+      </c>
+      <c r="E104">
+        <v>1.940024971961975</v>
+      </c>
+      <c r="F104">
+        <v>18.70310974121094</v>
+      </c>
+      <c r="G104">
+        <v>32.5346565246582</v>
+      </c>
+      <c r="H104">
+        <v>4.147792816162109</v>
+      </c>
+      <c r="I104">
+        <v>-2.524263858795166</v>
+      </c>
+      <c r="J104">
+        <v>7.44146203994751</v>
+      </c>
+      <c r="K104">
+        <v>3.956057071685791</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C105">
+        <v>3.939965486526489</v>
+      </c>
+      <c r="D105">
+        <v>12.44253635406494</v>
+      </c>
+      <c r="E105">
+        <v>1.922592163085938</v>
+      </c>
+      <c r="F105">
+        <v>19.24624061584473</v>
+      </c>
+      <c r="G105">
+        <v>33.08837127685547</v>
+      </c>
+      <c r="H105">
+        <v>4.153968811035156</v>
+      </c>
+      <c r="I105">
+        <v>-2.517148017883301</v>
+      </c>
+      <c r="J105">
+        <v>7.488067626953125</v>
+      </c>
+      <c r="K105">
+        <v>3.968955993652344</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43344</v>
+      </c>
+      <c r="C106">
+        <v>3.96490740776062</v>
+      </c>
+      <c r="D106">
+        <v>12.51612663269043</v>
+      </c>
+      <c r="E106">
+        <v>1.929358243942261</v>
+      </c>
+      <c r="F106">
+        <v>19.22064971923828</v>
+      </c>
+      <c r="G106">
+        <v>32.81281280517578</v>
+      </c>
+      <c r="H106">
+        <v>4.004702568054199</v>
+      </c>
+      <c r="I106">
+        <v>-2.5042724609375</v>
+      </c>
+      <c r="J106">
+        <v>7.409489631652832</v>
+      </c>
+      <c r="K106">
+        <v>3.980411529541016</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C107">
+        <v>4.227344512939453</v>
+      </c>
+      <c r="D107">
+        <v>13.71165752410889</v>
+      </c>
+      <c r="E107">
+        <v>2.111033916473389</v>
+      </c>
+      <c r="F107">
+        <v>25.11383438110352</v>
+      </c>
+      <c r="G107">
+        <v>34.89702987670898</v>
+      </c>
+      <c r="H107">
+        <v>4.285624504089355</v>
+      </c>
+      <c r="I107">
+        <v>-2.205717086791992</v>
+      </c>
+      <c r="J107">
+        <v>8.071648597717285</v>
+      </c>
+      <c r="K107">
+        <v>4.205382823944092</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>43405</v>
+      </c>
+      <c r="C108">
+        <v>4.229249954223633</v>
+      </c>
+      <c r="D108">
+        <v>13.70625591278076</v>
+      </c>
+      <c r="E108">
+        <v>2.104836940765381</v>
+      </c>
+      <c r="F108">
+        <v>25.09147834777832</v>
+      </c>
+      <c r="G108">
+        <v>34.89993667602539</v>
+      </c>
+      <c r="H108">
+        <v>4.278064727783203</v>
+      </c>
+      <c r="I108">
+        <v>-2.188777923583984</v>
+      </c>
+      <c r="J108">
+        <v>8.070492744445801</v>
+      </c>
+      <c r="K108">
+        <v>4.184301853179932</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C109">
+        <v>4.212117671966553</v>
+      </c>
+      <c r="D109">
+        <v>13.72633647918701</v>
+      </c>
+      <c r="E109">
+        <v>2.103530406951904</v>
+      </c>
+      <c r="F109">
+        <v>25.08056831359863</v>
+      </c>
+      <c r="G109">
+        <v>34.79155731201172</v>
+      </c>
+      <c r="H109">
+        <v>4.210220336914062</v>
+      </c>
+      <c r="I109">
+        <v>-0.8198708295822144</v>
+      </c>
+      <c r="J109">
+        <v>8.054849624633789</v>
+      </c>
+      <c r="K109">
+        <v>4.121840000152588</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C110">
+        <v>4.249300956726074</v>
+      </c>
+      <c r="D110">
+        <v>23.50438499450684</v>
+      </c>
+      <c r="E110">
+        <v>2.573913097381592</v>
+      </c>
+      <c r="F110">
+        <v>1.628949761390686</v>
+      </c>
+      <c r="G110">
+        <v>25.8998908996582</v>
+      </c>
+      <c r="H110">
+        <v>3.940474033355713</v>
+      </c>
+      <c r="I110">
+        <v>6.625927925109863</v>
+      </c>
+      <c r="J110">
+        <v>8.865361213684082</v>
+      </c>
+      <c r="K110">
+        <v>4.673908710479736</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43497</v>
+      </c>
+      <c r="C111">
+        <v>4.278619289398193</v>
+      </c>
+      <c r="D111">
+        <v>24.43439865112305</v>
+      </c>
+      <c r="E111">
+        <v>2.600906372070312</v>
+      </c>
+      <c r="F111">
+        <v>1.62353515625</v>
+      </c>
+      <c r="G111">
+        <v>26.61319541931152</v>
+      </c>
+      <c r="H111">
+        <v>3.982450485229492</v>
+      </c>
+      <c r="I111">
+        <v>6.671717166900635</v>
+      </c>
+      <c r="J111">
+        <v>8.961174964904785</v>
+      </c>
+      <c r="K111">
+        <v>4.705183506011963</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>43525</v>
+      </c>
+      <c r="C112">
+        <v>4.261376857757568</v>
+      </c>
+      <c r="D112">
+        <v>25.16966247558594</v>
+      </c>
+      <c r="E112">
+        <v>2.604634284973145</v>
+      </c>
+      <c r="F112">
+        <v>1.621547937393188</v>
+      </c>
+      <c r="G112">
+        <v>26.69819259643555</v>
+      </c>
+      <c r="H112">
+        <v>4.015944480895996</v>
+      </c>
+      <c r="I112">
+        <v>6.588766574859619</v>
+      </c>
+      <c r="J112">
+        <v>8.979789733886719</v>
+      </c>
+      <c r="K112">
+        <v>4.710934638977051</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C113">
+        <v>4.505188941955566</v>
+      </c>
+      <c r="D113">
+        <v>23.9079475402832</v>
+      </c>
+      <c r="E113">
+        <v>2.648766756057739</v>
+      </c>
+      <c r="F113">
+        <v>10.8714427947998</v>
+      </c>
+      <c r="G113">
+        <v>26.54862403869629</v>
+      </c>
+      <c r="H113">
+        <v>3.862366437911987</v>
+      </c>
+      <c r="I113">
+        <v>6.869841575622559</v>
+      </c>
+      <c r="J113">
+        <v>9.250930786132812</v>
+      </c>
+      <c r="K113">
+        <v>4.649517059326172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>43586</v>
+      </c>
+      <c r="C114">
+        <v>4.515897274017334</v>
+      </c>
+      <c r="D114">
+        <v>23.91165542602539</v>
+      </c>
+      <c r="E114">
+        <v>2.690484523773193</v>
+      </c>
+      <c r="F114">
+        <v>9.295101165771484</v>
+      </c>
+      <c r="G114">
+        <v>26.89598655700684</v>
+      </c>
+      <c r="H114">
+        <v>3.862969636917114</v>
+      </c>
+      <c r="I114">
+        <v>6.871778011322021</v>
+      </c>
+      <c r="J114">
+        <v>9.228682518005371</v>
+      </c>
+      <c r="K114">
+        <v>4.659931182861328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C115">
+        <v>4.520336151123047</v>
+      </c>
+      <c r="D115">
+        <v>23.83611679077148</v>
+      </c>
+      <c r="E115">
+        <v>2.691854000091553</v>
+      </c>
+      <c r="F115">
+        <v>10.88596630096436</v>
+      </c>
+      <c r="G115">
+        <v>26.54218482971191</v>
+      </c>
+      <c r="H115">
+        <v>3.856756925582886</v>
+      </c>
+      <c r="I115">
+        <v>6.870429992675781</v>
+      </c>
+      <c r="J115">
+        <v>9.203692436218262</v>
+      </c>
+      <c r="K115">
+        <v>4.681746482849121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C116">
+        <v>4.806096076965332</v>
+      </c>
+      <c r="D116">
+        <v>23.72422409057617</v>
+      </c>
+      <c r="E116">
+        <v>2.805678129196167</v>
+      </c>
+      <c r="F116">
+        <v>11.75540733337402</v>
+      </c>
+      <c r="G116">
+        <v>26.5655574798584</v>
+      </c>
+      <c r="H116">
+        <v>3.830507755279541</v>
+      </c>
+      <c r="I116">
+        <v>7.181566715240479</v>
+      </c>
+      <c r="J116">
+        <v>9.760869979858398</v>
+      </c>
+      <c r="K116">
+        <v>4.588809967041016</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C117">
+        <v>4.838399410247803</v>
+      </c>
+      <c r="D117">
+        <v>23.82462120056152</v>
+      </c>
+      <c r="E117">
+        <v>2.799602508544922</v>
+      </c>
+      <c r="F117">
+        <v>11.75671100616455</v>
+      </c>
+      <c r="G117">
+        <v>27.27486610412598</v>
+      </c>
+      <c r="H117">
+        <v>3.845990419387817</v>
+      </c>
+      <c r="I117">
+        <v>7.18744421005249</v>
+      </c>
+      <c r="J117">
+        <v>9.786554336547852</v>
+      </c>
+      <c r="K117">
+        <v>4.589581966400146</v>
       </c>
     </row>
   </sheetData>

--- a/PortfolioConstruction/predictions.xlsx
+++ b/PortfolioConstruction/predictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>MorganStanley</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
   </si>
 </sst>
 </file>
@@ -405,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +451,17 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -477,8 +495,17 @@
       <c r="K2">
         <v>-1.317630767822266</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0.7402021884918213</v>
+      </c>
+      <c r="M2">
+        <v>1.166845798492432</v>
+      </c>
+      <c r="N2">
+        <v>-0.6399502754211426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,34 +513,43 @@
         <v>40210</v>
       </c>
       <c r="C3">
-        <v>1.7752845287323</v>
+        <v>1.776189804077148</v>
       </c>
       <c r="D3">
-        <v>21.12187767028809</v>
+        <v>19.13954925537109</v>
       </c>
       <c r="E3">
-        <v>-0.09790517389774323</v>
+        <v>-0.09760718047618866</v>
       </c>
       <c r="F3">
-        <v>3.456471920013428</v>
+        <v>3.446103572845459</v>
       </c>
       <c r="G3">
-        <v>6.06999397277832</v>
+        <v>6.082538604736328</v>
       </c>
       <c r="H3">
-        <v>-1.145933151245117</v>
+        <v>-1.33305299282074</v>
       </c>
       <c r="I3">
-        <v>-3.257883548736572</v>
+        <v>-3.257834672927856</v>
       </c>
       <c r="J3">
-        <v>2.214009284973145</v>
+        <v>2.171226739883423</v>
       </c>
       <c r="K3">
-        <v>-0.9842703938484192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>-1.097296833992004</v>
+      </c>
+      <c r="L3">
+        <v>0.7441619634628296</v>
+      </c>
+      <c r="M3">
+        <v>1.080115795135498</v>
+      </c>
+      <c r="N3">
+        <v>-0.6239091157913208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -521,34 +557,43 @@
         <v>40238</v>
       </c>
       <c r="C4">
-        <v>1.771413087844849</v>
+        <v>1.764423966407776</v>
       </c>
       <c r="D4">
-        <v>21.37207412719727</v>
+        <v>18.80274963378906</v>
       </c>
       <c r="E4">
-        <v>-0.08542376756668091</v>
+        <v>-0.06970622390508652</v>
       </c>
       <c r="F4">
-        <v>3.458339691162109</v>
+        <v>3.441815137863159</v>
       </c>
       <c r="G4">
-        <v>6.090864658355713</v>
+        <v>6.051350593566895</v>
       </c>
       <c r="H4">
-        <v>-0.9941851496696472</v>
+        <v>-1.127374768257141</v>
       </c>
       <c r="I4">
-        <v>-3.257936000823975</v>
+        <v>-3.257834672927856</v>
       </c>
       <c r="J4">
-        <v>2.218528270721436</v>
+        <v>2.121735334396362</v>
       </c>
       <c r="K4">
-        <v>-0.9861718416213989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>-1.137468218803406</v>
+      </c>
+      <c r="L4">
+        <v>0.7830978631973267</v>
+      </c>
+      <c r="M4">
+        <v>1.068543314933777</v>
+      </c>
+      <c r="N4">
+        <v>-0.6239091157913208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,34 +601,43 @@
         <v>40269</v>
       </c>
       <c r="C5">
-        <v>1.664533972740173</v>
+        <v>1.828204751014709</v>
       </c>
       <c r="D5">
-        <v>23.96820831298828</v>
+        <v>20.85590744018555</v>
       </c>
       <c r="E5">
-        <v>-0.218716949224472</v>
+        <v>0.05199176073074341</v>
       </c>
       <c r="F5">
-        <v>5.633446216583252</v>
+        <v>4.768884658813477</v>
       </c>
       <c r="G5">
-        <v>7.648828983306885</v>
+        <v>6.54386043548584</v>
       </c>
       <c r="H5">
-        <v>-0.9191278219223022</v>
+        <v>-0.6235755681991577</v>
       </c>
       <c r="I5">
-        <v>-0.02408649958670139</v>
+        <v>-3.32961893081665</v>
       </c>
       <c r="J5">
-        <v>2.558163404464722</v>
+        <v>1.901596665382385</v>
       </c>
       <c r="K5">
-        <v>0.5737037062644958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>-0.1333350390195847</v>
+      </c>
+      <c r="L5">
+        <v>0.7873122692108154</v>
+      </c>
+      <c r="M5">
+        <v>1.039065837860107</v>
+      </c>
+      <c r="N5">
+        <v>-0.623910129070282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -591,34 +645,43 @@
         <v>40299</v>
       </c>
       <c r="C6">
-        <v>1.801456689834595</v>
+        <v>1.919809341430664</v>
       </c>
       <c r="D6">
-        <v>23.62563514709473</v>
+        <v>19.29939079284668</v>
       </c>
       <c r="E6">
-        <v>-0.2498399764299393</v>
+        <v>0.0800652951002121</v>
       </c>
       <c r="F6">
-        <v>5.633674621582031</v>
+        <v>4.768170833587646</v>
       </c>
       <c r="G6">
-        <v>7.6494460105896</v>
+        <v>6.529677391052246</v>
       </c>
       <c r="H6">
-        <v>-0.9502952694892883</v>
+        <v>-0.5295742154121399</v>
       </c>
       <c r="I6">
-        <v>-0.02741390466690063</v>
+        <v>-3.324596881866455</v>
       </c>
       <c r="J6">
-        <v>2.565604448318481</v>
+        <v>1.885799407958984</v>
       </c>
       <c r="K6">
-        <v>0.6523377895355225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-0.1247440353035927</v>
+      </c>
+      <c r="L6">
+        <v>0.7873825430870056</v>
+      </c>
+      <c r="M6">
+        <v>1.072300553321838</v>
+      </c>
+      <c r="N6">
+        <v>-0.6129052042961121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,34 +689,43 @@
         <v>40330</v>
       </c>
       <c r="C7">
-        <v>1.660178899765015</v>
+        <v>1.932055830955505</v>
       </c>
       <c r="D7">
-        <v>23.39523696899414</v>
+        <v>19.0593147277832</v>
       </c>
       <c r="E7">
-        <v>-0.2483537644147873</v>
+        <v>0.1231069341301918</v>
       </c>
       <c r="F7">
-        <v>5.633135795593262</v>
+        <v>4.770016670227051</v>
       </c>
       <c r="G7">
-        <v>7.699517726898193</v>
+        <v>6.493601322174072</v>
       </c>
       <c r="H7">
-        <v>-0.9624525308609009</v>
+        <v>-0.5786445736885071</v>
       </c>
       <c r="I7">
-        <v>-0.01887625455856323</v>
+        <v>-3.324626922607422</v>
       </c>
       <c r="J7">
-        <v>2.558276414871216</v>
+        <v>1.806337356567383</v>
       </c>
       <c r="K7">
-        <v>0.5737022161483765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>-0.1964596658945084</v>
+      </c>
+      <c r="L7">
+        <v>1.034608006477356</v>
+      </c>
+      <c r="M7">
+        <v>1.03915548324585</v>
+      </c>
+      <c r="N7">
+        <v>-0.6185449957847595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -661,34 +733,43 @@
         <v>40360</v>
       </c>
       <c r="C8">
-        <v>1.623784780502319</v>
+        <v>2.058764934539795</v>
       </c>
       <c r="D8">
-        <v>19.64759063720703</v>
+        <v>15.06949138641357</v>
       </c>
       <c r="E8">
-        <v>-0.3021341562271118</v>
+        <v>0.259859710931778</v>
       </c>
       <c r="F8">
-        <v>5.01517391204834</v>
+        <v>3.406696319580078</v>
       </c>
       <c r="G8">
-        <v>8.268711090087891</v>
+        <v>6.631370544433594</v>
       </c>
       <c r="H8">
-        <v>-0.5599241256713867</v>
+        <v>-0.5468500852584839</v>
       </c>
       <c r="I8">
-        <v>-3.670993328094482</v>
+        <v>-3.329307079315186</v>
       </c>
       <c r="J8">
-        <v>3.368137836456299</v>
+        <v>2.9267418384552</v>
       </c>
       <c r="K8">
-        <v>2.763946056365967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.07162251323461533</v>
+      </c>
+      <c r="L8">
+        <v>1.032956838607788</v>
+      </c>
+      <c r="M8">
+        <v>1.005239963531494</v>
+      </c>
+      <c r="N8">
+        <v>-0.615716814994812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -696,34 +777,43 @@
         <v>40391</v>
       </c>
       <c r="C9">
-        <v>1.639464139938354</v>
+        <v>2.08486795425415</v>
       </c>
       <c r="D9">
-        <v>19.62437057495117</v>
+        <v>15.15154457092285</v>
       </c>
       <c r="E9">
-        <v>-0.2631652355194092</v>
+        <v>0.2950643002986908</v>
       </c>
       <c r="F9">
-        <v>5.01510763168335</v>
+        <v>3.406383991241455</v>
       </c>
       <c r="G9">
-        <v>8.26899528503418</v>
+        <v>6.6556077003479</v>
       </c>
       <c r="H9">
-        <v>-0.6072131991386414</v>
+        <v>-0.5131649971008301</v>
       </c>
       <c r="I9">
-        <v>-3.653060913085938</v>
+        <v>-3.332113742828369</v>
       </c>
       <c r="J9">
-        <v>3.363536357879639</v>
+        <v>3.000937938690186</v>
       </c>
       <c r="K9">
-        <v>2.763425350189209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.04157488420605659</v>
+      </c>
+      <c r="L9">
+        <v>1.031331419944763</v>
+      </c>
+      <c r="M9">
+        <v>1.004924535751343</v>
+      </c>
+      <c r="N9">
+        <v>-0.6127880215644836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -731,34 +821,43 @@
         <v>40422</v>
       </c>
       <c r="C10">
-        <v>1.641720414161682</v>
+        <v>1.984322905540466</v>
       </c>
       <c r="D10">
-        <v>19.61050796508789</v>
+        <v>15.76245403289795</v>
       </c>
       <c r="E10">
-        <v>-0.3022387027740479</v>
+        <v>0.2891054153442383</v>
       </c>
       <c r="F10">
-        <v>5.015125751495361</v>
+        <v>3.406384944915771</v>
       </c>
       <c r="G10">
-        <v>8.266654014587402</v>
+        <v>6.651707649230957</v>
       </c>
       <c r="H10">
-        <v>-0.5160881280899048</v>
+        <v>-0.6324308514595032</v>
       </c>
       <c r="I10">
-        <v>-3.671379089355469</v>
+        <v>-3.332095623016357</v>
       </c>
       <c r="J10">
-        <v>3.36836314201355</v>
+        <v>3.025348663330078</v>
       </c>
       <c r="K10">
-        <v>2.765564680099487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.09496082365512848</v>
+      </c>
+      <c r="L10">
+        <v>0.9977723956108093</v>
+      </c>
+      <c r="M10">
+        <v>1.040211796760559</v>
+      </c>
+      <c r="N10">
+        <v>-0.5234065055847168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -766,34 +865,43 @@
         <v>40452</v>
       </c>
       <c r="C11">
-        <v>1.680512666702271</v>
+        <v>1.977909684181213</v>
       </c>
       <c r="D11">
-        <v>17.47373199462891</v>
+        <v>14.68950080871582</v>
       </c>
       <c r="E11">
-        <v>-0.7995738983154297</v>
+        <v>0.1668517291545868</v>
       </c>
       <c r="F11">
-        <v>4.832088470458984</v>
+        <v>3.394791126251221</v>
       </c>
       <c r="G11">
-        <v>8.812005996704102</v>
+        <v>7.288661956787109</v>
       </c>
       <c r="H11">
-        <v>1.999865770339966</v>
+        <v>-0.8600879907608032</v>
       </c>
       <c r="I11">
-        <v>0.004602730274200439</v>
+        <v>-6.843397617340088</v>
       </c>
       <c r="J11">
-        <v>3.577951431274414</v>
+        <v>2.912544727325439</v>
       </c>
       <c r="K11">
-        <v>2.313657760620117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0.643451988697052</v>
+      </c>
+      <c r="L11">
+        <v>1.000656723976135</v>
+      </c>
+      <c r="M11">
+        <v>1.078655600547791</v>
+      </c>
+      <c r="N11">
+        <v>-0.666850209236145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,34 +909,43 @@
         <v>40483</v>
       </c>
       <c r="C12">
-        <v>1.680153846740723</v>
+        <v>1.963961005210876</v>
       </c>
       <c r="D12">
-        <v>17.56413841247559</v>
+        <v>14.6886568069458</v>
       </c>
       <c r="E12">
-        <v>-0.7996381521224976</v>
+        <v>0.1828278005123138</v>
       </c>
       <c r="F12">
-        <v>4.833022117614746</v>
+        <v>3.394272565841675</v>
       </c>
       <c r="G12">
-        <v>8.818756103515625</v>
+        <v>7.276995182037354</v>
       </c>
       <c r="H12">
-        <v>1.999802589416504</v>
+        <v>-0.8601994514465332</v>
       </c>
       <c r="I12">
-        <v>0.01233410835266113</v>
+        <v>-6.808812618255615</v>
       </c>
       <c r="J12">
-        <v>3.579542875289917</v>
+        <v>2.891861438751221</v>
       </c>
       <c r="K12">
-        <v>2.335814714431763</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.9363657832145691</v>
+      </c>
+      <c r="L12">
+        <v>1.000916481018066</v>
+      </c>
+      <c r="M12">
+        <v>1.078718662261963</v>
+      </c>
+      <c r="N12">
+        <v>-0.6534706354141235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -836,34 +953,43 @@
         <v>40513</v>
       </c>
       <c r="C13">
-        <v>1.679888486862183</v>
+        <v>1.966121435165405</v>
       </c>
       <c r="D13">
-        <v>17.58512115478516</v>
+        <v>14.71407890319824</v>
       </c>
       <c r="E13">
-        <v>-0.785247802734375</v>
+        <v>0.1692292392253876</v>
       </c>
       <c r="F13">
-        <v>4.806203842163086</v>
+        <v>3.399073123931885</v>
       </c>
       <c r="G13">
-        <v>8.822109222412109</v>
+        <v>7.293925285339355</v>
       </c>
       <c r="H13">
-        <v>1.999674558639526</v>
+        <v>-0.8601716160774231</v>
       </c>
       <c r="I13">
-        <v>0.01191478967666626</v>
+        <v>-6.797869205474854</v>
       </c>
       <c r="J13">
-        <v>3.579962968826294</v>
+        <v>2.908190727233887</v>
       </c>
       <c r="K13">
-        <v>2.313634157180786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>1.009923338890076</v>
+      </c>
+      <c r="L13">
+        <v>1.225250005722046</v>
+      </c>
+      <c r="M13">
+        <v>1.077280282974243</v>
+      </c>
+      <c r="N13">
+        <v>-0.6534723043441772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,34 +997,43 @@
         <v>40544</v>
       </c>
       <c r="C14">
-        <v>2.2055983543396</v>
+        <v>2.091888189315796</v>
       </c>
       <c r="D14">
-        <v>13.18587017059326</v>
+        <v>10.6463794708252</v>
       </c>
       <c r="E14">
-        <v>-0.369794487953186</v>
+        <v>0.2172086536884308</v>
       </c>
       <c r="F14">
-        <v>5.290374279022217</v>
+        <v>3.396871089935303</v>
       </c>
       <c r="G14">
-        <v>10.36324501037598</v>
+        <v>7.452225685119629</v>
       </c>
       <c r="H14">
-        <v>2.049092054367065</v>
+        <v>-0.563493549823761</v>
       </c>
       <c r="I14">
-        <v>3.80247163772583</v>
+        <v>-6.737242698669434</v>
       </c>
       <c r="J14">
-        <v>3.935982465744019</v>
+        <v>2.894247531890869</v>
       </c>
       <c r="K14">
-        <v>2.440043449401855</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0.904389500617981</v>
+      </c>
+      <c r="L14">
+        <v>1.225308418273926</v>
+      </c>
+      <c r="M14">
+        <v>1.013827323913574</v>
+      </c>
+      <c r="N14">
+        <v>-0.6424924731254578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -906,34 +1041,43 @@
         <v>40575</v>
       </c>
       <c r="C15">
-        <v>2.209709167480469</v>
+        <v>2.168948411941528</v>
       </c>
       <c r="D15">
-        <v>13.31224822998047</v>
+        <v>10.55747604370117</v>
       </c>
       <c r="E15">
-        <v>-0.3698000907897949</v>
+        <v>0.2172236740589142</v>
       </c>
       <c r="F15">
-        <v>5.290766716003418</v>
+        <v>3.396756649017334</v>
       </c>
       <c r="G15">
-        <v>10.19955921173096</v>
+        <v>7.452408790588379</v>
       </c>
       <c r="H15">
-        <v>2.049507617950439</v>
+        <v>-0.03347384929656982</v>
       </c>
       <c r="I15">
-        <v>3.786853075027466</v>
+        <v>-6.738300323486328</v>
       </c>
       <c r="J15">
-        <v>3.948045015335083</v>
+        <v>2.89923357963562</v>
       </c>
       <c r="K15">
-        <v>2.440068006515503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0.628564178943634</v>
+      </c>
+      <c r="L15">
+        <v>1.225501418113708</v>
+      </c>
+      <c r="M15">
+        <v>1.017369031906128</v>
+      </c>
+      <c r="N15">
+        <v>-0.4457713067531586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -941,34 +1085,43 @@
         <v>40603</v>
       </c>
       <c r="C16">
-        <v>2.222306728363037</v>
+        <v>2.195872783660889</v>
       </c>
       <c r="D16">
-        <v>13.54751396179199</v>
+        <v>10.58343505859375</v>
       </c>
       <c r="E16">
-        <v>-0.3698070049285889</v>
+        <v>0.215578630566597</v>
       </c>
       <c r="F16">
-        <v>5.290878295898438</v>
+        <v>3.396747589111328</v>
       </c>
       <c r="G16">
-        <v>10.55170440673828</v>
+        <v>7.420063972473145</v>
       </c>
       <c r="H16">
-        <v>2.049522399902344</v>
+        <v>0.2730036973953247</v>
       </c>
       <c r="I16">
-        <v>3.793176174163818</v>
+        <v>-6.738803863525391</v>
       </c>
       <c r="J16">
-        <v>3.948765516281128</v>
+        <v>2.917028188705444</v>
       </c>
       <c r="K16">
-        <v>2.440094470977783</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0.9310539364814758</v>
+      </c>
+      <c r="L16">
+        <v>1.225358486175537</v>
+      </c>
+      <c r="M16">
+        <v>1.017860293388367</v>
+      </c>
+      <c r="N16">
+        <v>-0.4457771778106689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -976,34 +1129,43 @@
         <v>40634</v>
       </c>
       <c r="C17">
-        <v>2.429538249969482</v>
+        <v>2.276573181152344</v>
       </c>
       <c r="D17">
-        <v>9.149152755737305</v>
+        <v>9.738128662109375</v>
       </c>
       <c r="E17">
-        <v>-0.4797948896884918</v>
+        <v>0.2150847017765045</v>
       </c>
       <c r="F17">
-        <v>4.353089332580566</v>
+        <v>3.35932469367981</v>
       </c>
       <c r="G17">
-        <v>11.06611156463623</v>
+        <v>7.064883232116699</v>
       </c>
       <c r="H17">
-        <v>2.088670969009399</v>
+        <v>0.1706983596086502</v>
       </c>
       <c r="I17">
-        <v>3.306788682937622</v>
+        <v>-6.879754543304443</v>
       </c>
       <c r="J17">
-        <v>4.481620788574219</v>
+        <v>3.673484325408936</v>
       </c>
       <c r="K17">
-        <v>1.958863854408264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0.8936494588851929</v>
+      </c>
+      <c r="L17">
+        <v>1.225094079971313</v>
+      </c>
+      <c r="M17">
+        <v>1.050207376480103</v>
+      </c>
+      <c r="N17">
+        <v>-0.4462423324584961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1011,34 +1173,43 @@
         <v>40664</v>
       </c>
       <c r="C18">
-        <v>2.418747425079346</v>
+        <v>2.274368286132812</v>
       </c>
       <c r="D18">
-        <v>9.108913421630859</v>
+        <v>9.739526748657227</v>
       </c>
       <c r="E18">
-        <v>-0.556671142578125</v>
+        <v>0.1590778380632401</v>
       </c>
       <c r="F18">
-        <v>4.387609004974365</v>
+        <v>3.359339952468872</v>
       </c>
       <c r="G18">
-        <v>11.2721118927002</v>
+        <v>7.064627170562744</v>
       </c>
       <c r="H18">
-        <v>2.089200019836426</v>
+        <v>-0.47572261095047</v>
       </c>
       <c r="I18">
-        <v>3.305927991867065</v>
+        <v>-6.879080295562744</v>
       </c>
       <c r="J18">
-        <v>4.471494197845459</v>
+        <v>3.68303918838501</v>
       </c>
       <c r="K18">
-        <v>1.95022714138031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0.8962512016296387</v>
+      </c>
+      <c r="L18">
+        <v>1.22522234916687</v>
+      </c>
+      <c r="M18">
+        <v>1.050207376480103</v>
+      </c>
+      <c r="N18">
+        <v>-0.4294240474700928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1046,34 +1217,43 @@
         <v>40695</v>
       </c>
       <c r="C19">
-        <v>2.364560604095459</v>
+        <v>2.231887817382812</v>
       </c>
       <c r="D19">
-        <v>9.162679672241211</v>
+        <v>9.498562812805176</v>
       </c>
       <c r="E19">
-        <v>-0.4853605628013611</v>
+        <v>0.1592330932617188</v>
       </c>
       <c r="F19">
-        <v>4.084460258483887</v>
+        <v>3.358867645263672</v>
       </c>
       <c r="G19">
-        <v>11.25303840637207</v>
+        <v>7.070880889892578</v>
       </c>
       <c r="H19">
-        <v>2.089810848236084</v>
+        <v>-0.5862993001937866</v>
       </c>
       <c r="I19">
-        <v>3.291572570800781</v>
+        <v>-6.881369590759277</v>
       </c>
       <c r="J19">
-        <v>4.423023223876953</v>
+        <v>3.675986051559448</v>
       </c>
       <c r="K19">
-        <v>1.933142423629761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0.8963509798049927</v>
+      </c>
+      <c r="L19">
+        <v>1.219783663749695</v>
+      </c>
+      <c r="M19">
+        <v>1.050207376480103</v>
+      </c>
+      <c r="N19">
+        <v>-0.4242885708808899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1081,34 +1261,43 @@
         <v>40725</v>
       </c>
       <c r="C20">
-        <v>2.566421031951904</v>
+        <v>2.110009670257568</v>
       </c>
       <c r="D20">
-        <v>10.15241813659668</v>
+        <v>9.13945484161377</v>
       </c>
       <c r="E20">
-        <v>-1.65687108039856</v>
+        <v>0.136092022061348</v>
       </c>
       <c r="F20">
-        <v>4.972672939300537</v>
+        <v>3.363913059234619</v>
       </c>
       <c r="G20">
-        <v>12.26551246643066</v>
+        <v>7.273319244384766</v>
       </c>
       <c r="H20">
-        <v>2.139469861984253</v>
+        <v>-0.4914434552192688</v>
       </c>
       <c r="I20">
-        <v>3.45881986618042</v>
+        <v>-6.894613742828369</v>
       </c>
       <c r="J20">
-        <v>4.590250968933105</v>
+        <v>3.662399768829346</v>
       </c>
       <c r="K20">
-        <v>0.4803618788719177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0.7377961874008179</v>
+      </c>
+      <c r="L20">
+        <v>1.219737768173218</v>
+      </c>
+      <c r="M20">
+        <v>1.052576303482056</v>
+      </c>
+      <c r="N20">
+        <v>-0.1395017355680466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1116,34 +1305,43 @@
         <v>40756</v>
       </c>
       <c r="C21">
-        <v>2.562899827957153</v>
+        <v>2.118216991424561</v>
       </c>
       <c r="D21">
-        <v>10.15263652801514</v>
+        <v>9.128799438476562</v>
       </c>
       <c r="E21">
-        <v>-1.653270483016968</v>
+        <v>0.1362579166889191</v>
       </c>
       <c r="F21">
-        <v>4.895689964294434</v>
+        <v>3.3636155128479</v>
       </c>
       <c r="G21">
-        <v>12.26323890686035</v>
+        <v>7.248194217681885</v>
       </c>
       <c r="H21">
-        <v>2.140039443969727</v>
+        <v>-0.4868715405464172</v>
       </c>
       <c r="I21">
-        <v>3.304176330566406</v>
+        <v>-6.87084436416626</v>
       </c>
       <c r="J21">
-        <v>4.525520324707031</v>
+        <v>3.661916017532349</v>
       </c>
       <c r="K21">
-        <v>0.5399650931358337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0.708497166633606</v>
+      </c>
+      <c r="L21">
+        <v>1.219423413276672</v>
+      </c>
+      <c r="M21">
+        <v>1.052576303482056</v>
+      </c>
+      <c r="N21">
+        <v>0.9995067715644836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1151,34 +1349,43 @@
         <v>40787</v>
       </c>
       <c r="C22">
-        <v>2.576302051544189</v>
+        <v>2.055413961410522</v>
       </c>
       <c r="D22">
-        <v>10.1729564666748</v>
+        <v>8.932214736938477</v>
       </c>
       <c r="E22">
-        <v>-1.657066941261292</v>
+        <v>0.179712101817131</v>
       </c>
       <c r="F22">
-        <v>4.970448970794678</v>
+        <v>3.363946914672852</v>
       </c>
       <c r="G22">
-        <v>12.27211284637451</v>
+        <v>7.266085147857666</v>
       </c>
       <c r="H22">
-        <v>2.147457361221313</v>
+        <v>-0.5380537509918213</v>
       </c>
       <c r="I22">
-        <v>3.006401062011719</v>
+        <v>-7.003879547119141</v>
       </c>
       <c r="J22">
-        <v>4.661948204040527</v>
+        <v>3.647453308105469</v>
       </c>
       <c r="K22">
-        <v>0.5945819020271301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0.4364787936210632</v>
+      </c>
+      <c r="L22">
+        <v>1.200904250144958</v>
+      </c>
+      <c r="M22">
+        <v>1.05262815952301</v>
+      </c>
+      <c r="N22">
+        <v>0.9976289868354797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1186,34 +1393,43 @@
         <v>40817</v>
       </c>
       <c r="C23">
-        <v>2.686755418777466</v>
+        <v>2.15089225769043</v>
       </c>
       <c r="D23">
-        <v>6.379417419433594</v>
+        <v>8.91649341583252</v>
       </c>
       <c r="E23">
-        <v>-0.3248750567436218</v>
+        <v>0.1879581660032272</v>
       </c>
       <c r="F23">
-        <v>4.6926589012146</v>
+        <v>3.081842422485352</v>
       </c>
       <c r="G23">
-        <v>12.55230903625488</v>
+        <v>7.481747627258301</v>
       </c>
       <c r="H23">
-        <v>2.159018278121948</v>
+        <v>0.3161133527755737</v>
       </c>
       <c r="I23">
-        <v>3.703074216842651</v>
+        <v>-6.956801414489746</v>
       </c>
       <c r="J23">
-        <v>4.664194583892822</v>
+        <v>3.654088258743286</v>
       </c>
       <c r="K23">
-        <v>1.700957059860229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0.4822975099086761</v>
+      </c>
+      <c r="L23">
+        <v>1.200636148452759</v>
+      </c>
+      <c r="M23">
+        <v>1.082965135574341</v>
+      </c>
+      <c r="N23">
+        <v>0.9974726438522339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1221,34 +1437,43 @@
         <v>40848</v>
       </c>
       <c r="C24">
-        <v>2.674583435058594</v>
+        <v>2.131653308868408</v>
       </c>
       <c r="D24">
-        <v>6.378904819488525</v>
+        <v>8.836860656738281</v>
       </c>
       <c r="E24">
-        <v>-0.3275294303894043</v>
+        <v>0.1876167953014374</v>
       </c>
       <c r="F24">
-        <v>4.686519622802734</v>
+        <v>3.08186149597168</v>
       </c>
       <c r="G24">
-        <v>12.2206859588623</v>
+        <v>7.493428707122803</v>
       </c>
       <c r="H24">
-        <v>2.162959814071655</v>
+        <v>0.3163917064666748</v>
       </c>
       <c r="I24">
-        <v>2.612796306610107</v>
+        <v>-6.957755088806152</v>
       </c>
       <c r="J24">
-        <v>4.68953800201416</v>
+        <v>3.652060031890869</v>
       </c>
       <c r="K24">
-        <v>1.701578140258789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0.4637256562709808</v>
+      </c>
+      <c r="L24">
+        <v>1.200210094451904</v>
+      </c>
+      <c r="M24">
+        <v>1.06175684928894</v>
+      </c>
+      <c r="N24">
+        <v>1.103536367416382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1256,34 +1481,43 @@
         <v>40878</v>
       </c>
       <c r="C25">
-        <v>2.691488742828369</v>
+        <v>2.121567964553833</v>
       </c>
       <c r="D25">
-        <v>6.374743461608887</v>
+        <v>8.66655158996582</v>
       </c>
       <c r="E25">
-        <v>-0.3275046944618225</v>
+        <v>0.1830301731824875</v>
       </c>
       <c r="F25">
-        <v>4.694917678833008</v>
+        <v>3.081855297088623</v>
       </c>
       <c r="G25">
-        <v>12.56287479400635</v>
+        <v>7.483862400054932</v>
       </c>
       <c r="H25">
-        <v>2.159943103790283</v>
+        <v>0.3315231204032898</v>
       </c>
       <c r="I25">
-        <v>3.702506303787231</v>
+        <v>-6.957428932189941</v>
       </c>
       <c r="J25">
-        <v>4.636511325836182</v>
+        <v>3.64971399307251</v>
       </c>
       <c r="K25">
-        <v>1.697362899780273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0.4737372398376465</v>
+      </c>
+      <c r="L25">
+        <v>1.21616518497467</v>
+      </c>
+      <c r="M25">
+        <v>1.061675071716309</v>
+      </c>
+      <c r="N25">
+        <v>1.100432157516479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1291,34 +1525,43 @@
         <v>40909</v>
       </c>
       <c r="C26">
-        <v>2.800821781158447</v>
+        <v>2.088252305984497</v>
       </c>
       <c r="D26">
-        <v>4.43370532989502</v>
+        <v>8.163310050964355</v>
       </c>
       <c r="E26">
-        <v>-0.02820293977856636</v>
+        <v>0.1518803536891937</v>
       </c>
       <c r="F26">
-        <v>4.144237995147705</v>
+        <v>3.012382030487061</v>
       </c>
       <c r="G26">
-        <v>12.24064064025879</v>
+        <v>7.48479700088501</v>
       </c>
       <c r="H26">
-        <v>2.034512758255005</v>
+        <v>0.3519600331783295</v>
       </c>
       <c r="I26">
-        <v>3.575165510177612</v>
+        <v>-7.021761894226074</v>
       </c>
       <c r="J26">
-        <v>4.434868812561035</v>
+        <v>3.651759386062622</v>
       </c>
       <c r="K26">
-        <v>1.125602006912231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0.4743607938289642</v>
+      </c>
+      <c r="L26">
+        <v>1.21960973739624</v>
+      </c>
+      <c r="M26">
+        <v>1.101212501525879</v>
+      </c>
+      <c r="N26">
+        <v>1.100432157516479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1326,34 +1569,43 @@
         <v>40940</v>
       </c>
       <c r="C27">
-        <v>2.815429925918579</v>
+        <v>2.090658187866211</v>
       </c>
       <c r="D27">
-        <v>4.428620338439941</v>
+        <v>8.161679267883301</v>
       </c>
       <c r="E27">
-        <v>-0.02921929396688938</v>
+        <v>0.1783712804317474</v>
       </c>
       <c r="F27">
-        <v>4.161423683166504</v>
+        <v>3.012368679046631</v>
       </c>
       <c r="G27">
-        <v>12.37913513183594</v>
+        <v>7.491552829742432</v>
       </c>
       <c r="H27">
-        <v>2.034884214401245</v>
+        <v>0.351936012506485</v>
       </c>
       <c r="I27">
-        <v>3.5741868019104</v>
+        <v>-7.022337913513184</v>
       </c>
       <c r="J27">
-        <v>4.455868721008301</v>
+        <v>3.6483314037323</v>
       </c>
       <c r="K27">
-        <v>1.112542867660522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>0.4613999724388123</v>
+      </c>
+      <c r="L27">
+        <v>1.218602538108826</v>
+      </c>
+      <c r="M27">
+        <v>1.145503163337708</v>
+      </c>
+      <c r="N27">
+        <v>0.9097335934638977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1361,34 +1613,43 @@
         <v>40969</v>
       </c>
       <c r="C28">
-        <v>2.819113969802856</v>
+        <v>2.097884654998779</v>
       </c>
       <c r="D28">
-        <v>4.425611019134521</v>
+        <v>8.163419723510742</v>
       </c>
       <c r="E28">
-        <v>-0.02919373475015163</v>
+        <v>0.1786194741725922</v>
       </c>
       <c r="F28">
-        <v>4.145735740661621</v>
+        <v>3.012382030487061</v>
       </c>
       <c r="G28">
-        <v>12.0543327331543</v>
+        <v>7.486998558044434</v>
       </c>
       <c r="H28">
-        <v>2.034792900085449</v>
+        <v>0.3519605994224548</v>
       </c>
       <c r="I28">
-        <v>3.574182033538818</v>
+        <v>-7.023776054382324</v>
       </c>
       <c r="J28">
-        <v>4.465313911437988</v>
+        <v>3.649459838867188</v>
       </c>
       <c r="K28">
-        <v>1.125119805335999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0.4614020884037018</v>
+      </c>
+      <c r="L28">
+        <v>1.220839858055115</v>
+      </c>
+      <c r="M28">
+        <v>1.145503163337708</v>
+      </c>
+      <c r="N28">
+        <v>0.9063925743103027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1396,34 +1657,43 @@
         <v>41000</v>
       </c>
       <c r="C29">
-        <v>2.896223068237305</v>
+        <v>2.168453931808472</v>
       </c>
       <c r="D29">
-        <v>6.77800464630127</v>
+        <v>8.192059516906738</v>
       </c>
       <c r="E29">
-        <v>-0.168227031826973</v>
+        <v>0.1805325746536255</v>
       </c>
       <c r="F29">
-        <v>4.841622352600098</v>
+        <v>3.352635860443115</v>
       </c>
       <c r="G29">
-        <v>12.62905025482178</v>
+        <v>7.506801605224609</v>
       </c>
       <c r="H29">
-        <v>2.038192272186279</v>
+        <v>-0.496425062417984</v>
       </c>
       <c r="I29">
-        <v>3.54449987411499</v>
+        <v>-7.0954270362854</v>
       </c>
       <c r="J29">
-        <v>4.49921178817749</v>
+        <v>3.098960399627686</v>
       </c>
       <c r="K29">
-        <v>0.5651289820671082</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0.2831642627716064</v>
+      </c>
+      <c r="L29">
+        <v>1.232087731361389</v>
+      </c>
+      <c r="M29">
+        <v>1.090612411499023</v>
+      </c>
+      <c r="N29">
+        <v>0.9085906147956848</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1431,34 +1701,43 @@
         <v>41030</v>
       </c>
       <c r="C30">
-        <v>2.898774385452271</v>
+        <v>2.267489910125732</v>
       </c>
       <c r="D30">
-        <v>6.778619289398193</v>
+        <v>8.192070960998535</v>
       </c>
       <c r="E30">
-        <v>-0.1681748628616333</v>
+        <v>0.08318351209163666</v>
       </c>
       <c r="F30">
-        <v>4.84241247177124</v>
+        <v>3.352585554122925</v>
       </c>
       <c r="G30">
-        <v>12.62909412384033</v>
+        <v>7.506849765777588</v>
       </c>
       <c r="H30">
-        <v>2.054018974304199</v>
+        <v>-0.4880296587944031</v>
       </c>
       <c r="I30">
-        <v>3.54315185546875</v>
+        <v>-7.096426486968994</v>
       </c>
       <c r="J30">
-        <v>4.498307228088379</v>
+        <v>3.120394229888916</v>
       </c>
       <c r="K30">
-        <v>0.5650612115859985</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0.2957433760166168</v>
+      </c>
+      <c r="L30">
+        <v>1.23703134059906</v>
+      </c>
+      <c r="M30">
+        <v>1.073884844779968</v>
+      </c>
+      <c r="N30">
+        <v>0.461521327495575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1466,34 +1745,43 @@
         <v>41061</v>
       </c>
       <c r="C31">
-        <v>2.899111032485962</v>
+        <v>2.284554958343506</v>
       </c>
       <c r="D31">
-        <v>6.778689384460449</v>
+        <v>8.191940307617188</v>
       </c>
       <c r="E31">
-        <v>-0.1681716442108154</v>
+        <v>0.08344930410385132</v>
       </c>
       <c r="F31">
-        <v>4.84244441986084</v>
+        <v>3.354560375213623</v>
       </c>
       <c r="G31">
-        <v>12.62922096252441</v>
+        <v>7.506699562072754</v>
       </c>
       <c r="H31">
-        <v>2.054337739944458</v>
+        <v>-0.4880862236022949</v>
       </c>
       <c r="I31">
-        <v>3.542453765869141</v>
+        <v>-7.094743251800537</v>
       </c>
       <c r="J31">
-        <v>4.497289180755615</v>
+        <v>3.022196531295776</v>
       </c>
       <c r="K31">
-        <v>0.5650840997695923</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>0.2957870066165924</v>
+      </c>
+      <c r="L31">
+        <v>1.184325575828552</v>
+      </c>
+      <c r="M31">
+        <v>1.064667463302612</v>
+      </c>
+      <c r="N31">
+        <v>0.4611945152282715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1501,34 +1789,43 @@
         <v>41091</v>
       </c>
       <c r="C32">
-        <v>3.019402980804443</v>
+        <v>2.30701470375061</v>
       </c>
       <c r="D32">
-        <v>6.700523376464844</v>
+        <v>8.06255054473877</v>
       </c>
       <c r="E32">
-        <v>0.9237073063850403</v>
+        <v>0.2429318428039551</v>
       </c>
       <c r="F32">
-        <v>4.715619087219238</v>
+        <v>3.363566637039185</v>
       </c>
       <c r="G32">
-        <v>12.49962139129639</v>
+        <v>6.532680511474609</v>
       </c>
       <c r="H32">
-        <v>1.855340242385864</v>
+        <v>-0.4887872636318207</v>
       </c>
       <c r="I32">
-        <v>3.445257663726807</v>
+        <v>-7.021254062652588</v>
       </c>
       <c r="J32">
-        <v>4.440496444702148</v>
+        <v>2.828830003738403</v>
       </c>
       <c r="K32">
-        <v>1.236004710197449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0.4414753317832947</v>
+      </c>
+      <c r="L32">
+        <v>1.184599637985229</v>
+      </c>
+      <c r="M32">
+        <v>1.063833713531494</v>
+      </c>
+      <c r="N32">
+        <v>0.4647522866725922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1536,34 +1833,43 @@
         <v>41122</v>
       </c>
       <c r="C33">
-        <v>3.019416332244873</v>
+        <v>2.389317989349365</v>
       </c>
       <c r="D33">
-        <v>6.697070121765137</v>
+        <v>8.049837112426758</v>
       </c>
       <c r="E33">
-        <v>0.9238181114196777</v>
+        <v>0.2432878464460373</v>
       </c>
       <c r="F33">
-        <v>4.715322971343994</v>
+        <v>3.363867282867432</v>
       </c>
       <c r="G33">
-        <v>12.49935054779053</v>
+        <v>6.533453941345215</v>
       </c>
       <c r="H33">
-        <v>1.854939460754395</v>
+        <v>-0.4887944757938385</v>
       </c>
       <c r="I33">
-        <v>3.443610668182373</v>
+        <v>-7.022432804107666</v>
       </c>
       <c r="J33">
-        <v>4.441200733184814</v>
+        <v>2.928505659103394</v>
       </c>
       <c r="K33">
-        <v>1.235202670097351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.4413886070251465</v>
+      </c>
+      <c r="L33">
+        <v>1.184631109237671</v>
+      </c>
+      <c r="M33">
+        <v>1.063833713531494</v>
+      </c>
+      <c r="N33">
+        <v>0.6890310049057007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1571,34 +1877,43 @@
         <v>41153</v>
       </c>
       <c r="C34">
-        <v>3.004894733428955</v>
+        <v>2.436500549316406</v>
       </c>
       <c r="D34">
-        <v>6.693749904632568</v>
+        <v>8.055310249328613</v>
       </c>
       <c r="E34">
-        <v>0.8602927327156067</v>
+        <v>0.2746803164482117</v>
       </c>
       <c r="F34">
-        <v>4.774579048156738</v>
+        <v>3.366750240325928</v>
       </c>
       <c r="G34">
-        <v>12.45309448242188</v>
+        <v>6.524706363677979</v>
       </c>
       <c r="H34">
-        <v>1.871081590652466</v>
+        <v>-0.3237881064414978</v>
       </c>
       <c r="I34">
-        <v>3.418192625045776</v>
+        <v>-7.325438022613525</v>
       </c>
       <c r="J34">
-        <v>4.423514366149902</v>
+        <v>3.089451789855957</v>
       </c>
       <c r="K34">
-        <v>0.9706472158432007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.2274470627307892</v>
+      </c>
+      <c r="L34">
+        <v>1.22848105430603</v>
+      </c>
+      <c r="M34">
+        <v>1.078663468360901</v>
+      </c>
+      <c r="N34">
+        <v>0.6859025359153748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1606,34 +1921,43 @@
         <v>41183</v>
       </c>
       <c r="C35">
-        <v>3.179127216339111</v>
+        <v>2.493765354156494</v>
       </c>
       <c r="D35">
-        <v>10.34692192077637</v>
+        <v>8.147824287414551</v>
       </c>
       <c r="E35">
-        <v>0.3580035865306854</v>
+        <v>0.2551304697990417</v>
       </c>
       <c r="F35">
-        <v>5.376596927642822</v>
+        <v>3.378183841705322</v>
       </c>
       <c r="G35">
-        <v>12.90877342224121</v>
+        <v>6.482100009918213</v>
       </c>
       <c r="H35">
-        <v>1.934728264808655</v>
+        <v>0.3360942602157593</v>
       </c>
       <c r="I35">
-        <v>2.372389078140259</v>
+        <v>-8.479156494140625</v>
       </c>
       <c r="J35">
-        <v>4.813051700592041</v>
+        <v>3.621032238006592</v>
       </c>
       <c r="K35">
-        <v>-0.5200983285903931</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>-0.7973421812057495</v>
+      </c>
+      <c r="L35">
+        <v>1.228407263755798</v>
+      </c>
+      <c r="M35">
+        <v>1.052013278007507</v>
+      </c>
+      <c r="N35">
+        <v>0.6894020438194275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1641,34 +1965,43 @@
         <v>41214</v>
       </c>
       <c r="C36">
-        <v>3.138498306274414</v>
+        <v>2.500149488449097</v>
       </c>
       <c r="D36">
-        <v>10.37325954437256</v>
+        <v>8.145995140075684</v>
       </c>
       <c r="E36">
-        <v>0.3577179908752441</v>
+        <v>0.2666121125221252</v>
       </c>
       <c r="F36">
-        <v>5.377413272857666</v>
+        <v>3.374906063079834</v>
       </c>
       <c r="G36">
-        <v>12.91804981231689</v>
+        <v>6.481467247009277</v>
       </c>
       <c r="H36">
-        <v>1.934670686721802</v>
+        <v>0.3361997902393341</v>
       </c>
       <c r="I36">
-        <v>2.368042469024658</v>
+        <v>-8.464269638061523</v>
       </c>
       <c r="J36">
-        <v>4.817269325256348</v>
+        <v>3.623214721679688</v>
       </c>
       <c r="K36">
-        <v>-0.4641199111938477</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>-0.7973507642745972</v>
+      </c>
+      <c r="L36">
+        <v>1.228343725204468</v>
+      </c>
+      <c r="M36">
+        <v>1.052090048789978</v>
+      </c>
+      <c r="N36">
+        <v>0.71125328540802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1676,34 +2009,43 @@
         <v>41244</v>
       </c>
       <c r="C37">
-        <v>3.160617113113403</v>
+        <v>2.504150390625</v>
       </c>
       <c r="D37">
-        <v>10.42593955993652</v>
+        <v>8.146090507507324</v>
       </c>
       <c r="E37">
-        <v>0.3577249944210052</v>
+        <v>0.2666345238685608</v>
       </c>
       <c r="F37">
-        <v>5.377720355987549</v>
+        <v>3.378218412399292</v>
       </c>
       <c r="G37">
-        <v>12.91816234588623</v>
+        <v>6.482234001159668</v>
       </c>
       <c r="H37">
-        <v>1.934633255004883</v>
+        <v>0.3360851407051086</v>
       </c>
       <c r="I37">
-        <v>2.366734981536865</v>
+        <v>-8.451635360717773</v>
       </c>
       <c r="J37">
-        <v>4.817545413970947</v>
+        <v>3.631001949310303</v>
       </c>
       <c r="K37">
-        <v>-0.4664796888828278</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>-0.7980918884277344</v>
+      </c>
+      <c r="L37">
+        <v>1.165365219116211</v>
+      </c>
+      <c r="M37">
+        <v>1.052090048789978</v>
+      </c>
+      <c r="N37">
+        <v>0.7089730501174927</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1711,34 +2053,43 @@
         <v>41275</v>
       </c>
       <c r="C38">
-        <v>3.359596252441406</v>
+        <v>2.526058435440063</v>
       </c>
       <c r="D38">
-        <v>14.49808502197266</v>
+        <v>12.96652793884277</v>
       </c>
       <c r="E38">
-        <v>0.2486917674541473</v>
+        <v>0.2661592364311218</v>
       </c>
       <c r="F38">
-        <v>5.970298290252686</v>
+        <v>3.393557786941528</v>
       </c>
       <c r="G38">
-        <v>13.79666709899902</v>
+        <v>7.34504222869873</v>
       </c>
       <c r="H38">
-        <v>2.049638748168945</v>
+        <v>-0.4963740408420563</v>
       </c>
       <c r="I38">
-        <v>2.437223434448242</v>
+        <v>-6.825685024261475</v>
       </c>
       <c r="J38">
-        <v>5.306539058685303</v>
+        <v>3.6663498878479</v>
       </c>
       <c r="K38">
-        <v>-0.04144380241632462</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>-0.3666956722736359</v>
+      </c>
+      <c r="L38">
+        <v>1.164238691329956</v>
+      </c>
+      <c r="M38">
+        <v>1.104941606521606</v>
+      </c>
+      <c r="N38">
+        <v>0.7086637616157532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1746,34 +2097,43 @@
         <v>41306</v>
       </c>
       <c r="C39">
-        <v>3.355833053588867</v>
+        <v>2.534884691238403</v>
       </c>
       <c r="D39">
-        <v>14.16653442382812</v>
+        <v>13.02823352813721</v>
       </c>
       <c r="E39">
-        <v>0.2489269971847534</v>
+        <v>0.2661229968070984</v>
       </c>
       <c r="F39">
-        <v>5.984284400939941</v>
+        <v>3.393486022949219</v>
       </c>
       <c r="G39">
-        <v>13.79698467254639</v>
+        <v>7.34308910369873</v>
       </c>
       <c r="H39">
-        <v>2.049633502960205</v>
+        <v>-0.4966979920864105</v>
       </c>
       <c r="I39">
-        <v>2.440079212188721</v>
+        <v>-6.842156410217285</v>
       </c>
       <c r="J39">
-        <v>5.308071613311768</v>
+        <v>3.684822559356689</v>
       </c>
       <c r="K39">
-        <v>-0.0338284857571125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>-0.4248498976230621</v>
+      </c>
+      <c r="L39">
+        <v>1.164206266403198</v>
+      </c>
+      <c r="M39">
+        <v>1.082475304603577</v>
+      </c>
+      <c r="N39">
+        <v>0.5680022239685059</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1781,34 +2141,43 @@
         <v>41334</v>
       </c>
       <c r="C40">
-        <v>3.359242916107178</v>
+        <v>2.535017728805542</v>
       </c>
       <c r="D40">
-        <v>14.15124225616455</v>
+        <v>13.03034973144531</v>
       </c>
       <c r="E40">
-        <v>0.2490417957305908</v>
+        <v>0.2661229968070984</v>
       </c>
       <c r="F40">
-        <v>5.984040260314941</v>
+        <v>3.393486022949219</v>
       </c>
       <c r="G40">
-        <v>13.7981014251709</v>
+        <v>7.3451247215271</v>
       </c>
       <c r="H40">
-        <v>2.049737215042114</v>
+        <v>-0.4977293908596039</v>
       </c>
       <c r="I40">
-        <v>2.440950393676758</v>
+        <v>-6.841742038726807</v>
       </c>
       <c r="J40">
-        <v>5.308453559875488</v>
+        <v>3.69524884223938</v>
       </c>
       <c r="K40">
-        <v>-0.0299338698387146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>-0.3667268753051758</v>
+      </c>
+      <c r="L40">
+        <v>1.167936444282532</v>
+      </c>
+      <c r="M40">
+        <v>1.082475304603577</v>
+      </c>
+      <c r="N40">
+        <v>0.5651341676712036</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1816,34 +2185,43 @@
         <v>41365</v>
       </c>
       <c r="C41">
-        <v>3.529651641845703</v>
+        <v>2.538604736328125</v>
       </c>
       <c r="D41">
-        <v>14.50581169128418</v>
+        <v>12.96543407440186</v>
       </c>
       <c r="E41">
-        <v>0.3182489275932312</v>
+        <v>0.2666187882423401</v>
       </c>
       <c r="F41">
-        <v>6.655195713043213</v>
+        <v>3.405125379562378</v>
       </c>
       <c r="G41">
-        <v>14.27588653564453</v>
+        <v>6.92154598236084</v>
       </c>
       <c r="H41">
-        <v>1.299693703651428</v>
+        <v>-0.5377132892608643</v>
       </c>
       <c r="I41">
-        <v>2.687743425369263</v>
+        <v>-6.853377342224121</v>
       </c>
       <c r="J41">
-        <v>5.565292835235596</v>
+        <v>3.652136564254761</v>
       </c>
       <c r="K41">
-        <v>0.5124647617340088</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>-0.01922240294516087</v>
+      </c>
+      <c r="L41">
+        <v>1.167875528335571</v>
+      </c>
+      <c r="M41">
+        <v>1.102987289428711</v>
+      </c>
+      <c r="N41">
+        <v>0.5655346512794495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1851,34 +2229,43 @@
         <v>41395</v>
       </c>
       <c r="C42">
-        <v>3.529753446578979</v>
+        <v>2.539502143859863</v>
       </c>
       <c r="D42">
-        <v>14.57257270812988</v>
+        <v>13.07550048828125</v>
       </c>
       <c r="E42">
-        <v>0.3183965086936951</v>
+        <v>0.2666096091270447</v>
       </c>
       <c r="F42">
-        <v>6.6583571434021</v>
+        <v>3.405084609985352</v>
       </c>
       <c r="G42">
-        <v>14.27641010284424</v>
+        <v>6.924970149993896</v>
       </c>
       <c r="H42">
-        <v>1.299752950668335</v>
+        <v>-0.5377563238143921</v>
       </c>
       <c r="I42">
-        <v>2.692363023757935</v>
+        <v>-6.853377342224121</v>
       </c>
       <c r="J42">
-        <v>5.589058876037598</v>
+        <v>3.683140516281128</v>
       </c>
       <c r="K42">
-        <v>0.5098591446876526</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>-0.02299690246582031</v>
+      </c>
+      <c r="L42">
+        <v>1.168002605438232</v>
+      </c>
+      <c r="M42">
+        <v>1.102987289428711</v>
+      </c>
+      <c r="N42">
+        <v>0.691711962223053</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1886,34 +2273,43 @@
         <v>41426</v>
       </c>
       <c r="C43">
-        <v>3.529759168624878</v>
+        <v>2.539867401123047</v>
       </c>
       <c r="D43">
-        <v>14.80018424987793</v>
+        <v>12.99105644226074</v>
       </c>
       <c r="E43">
-        <v>0.3185534775257111</v>
+        <v>0.272352546453476</v>
       </c>
       <c r="F43">
-        <v>6.658694267272949</v>
+        <v>3.405083417892456</v>
       </c>
       <c r="G43">
-        <v>14.27485656738281</v>
+        <v>6.930622100830078</v>
       </c>
       <c r="H43">
-        <v>1.300154685974121</v>
+        <v>-0.545220673084259</v>
       </c>
       <c r="I43">
-        <v>2.693857669830322</v>
+        <v>-6.85470724105835</v>
       </c>
       <c r="J43">
-        <v>5.568867683410645</v>
+        <v>3.720044374465942</v>
       </c>
       <c r="K43">
-        <v>0.5156382322311401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>-0.02301297150552273</v>
+      </c>
+      <c r="L43">
+        <v>1.124712824821472</v>
+      </c>
+      <c r="M43">
+        <v>1.146871209144592</v>
+      </c>
+      <c r="N43">
+        <v>0.6942290067672729</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1921,34 +2317,43 @@
         <v>41456</v>
       </c>
       <c r="C44">
-        <v>3.689566135406494</v>
+        <v>2.540789365768433</v>
       </c>
       <c r="D44">
-        <v>16.45217895507812</v>
+        <v>12.23399543762207</v>
       </c>
       <c r="E44">
-        <v>0.4463283121585846</v>
+        <v>0.131114274263382</v>
       </c>
       <c r="F44">
-        <v>7.244532585144043</v>
+        <v>4.829158782958984</v>
       </c>
       <c r="G44">
-        <v>15.38683891296387</v>
+        <v>7.200499057769775</v>
       </c>
       <c r="H44">
-        <v>1.621048927307129</v>
+        <v>-0.557087779045105</v>
       </c>
       <c r="I44">
-        <v>3.068817377090454</v>
+        <v>-6.855063438415527</v>
       </c>
       <c r="J44">
-        <v>5.977822303771973</v>
+        <v>3.803976535797119</v>
       </c>
       <c r="K44">
-        <v>0.6292583346366882</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0.4962325990200043</v>
+      </c>
+      <c r="L44">
+        <v>1.12463903427124</v>
+      </c>
+      <c r="M44">
+        <v>1.145500183105469</v>
+      </c>
+      <c r="N44">
+        <v>0.6942512989044189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1956,34 +2361,43 @@
         <v>41487</v>
       </c>
       <c r="C45">
-        <v>3.689700603485107</v>
+        <v>2.541707515716553</v>
       </c>
       <c r="D45">
-        <v>16.42027282714844</v>
+        <v>12.38149642944336</v>
       </c>
       <c r="E45">
-        <v>0.446582019329071</v>
+        <v>0.1309609413146973</v>
       </c>
       <c r="F45">
-        <v>7.24517297744751</v>
+        <v>4.829905033111572</v>
       </c>
       <c r="G45">
-        <v>15.38700389862061</v>
+        <v>7.189145088195801</v>
       </c>
       <c r="H45">
-        <v>1.620575547218323</v>
+        <v>-0.3691128194332123</v>
       </c>
       <c r="I45">
-        <v>3.08369779586792</v>
+        <v>-6.855063438415527</v>
       </c>
       <c r="J45">
-        <v>5.978198051452637</v>
+        <v>3.804016828536987</v>
       </c>
       <c r="K45">
-        <v>0.6297460198402405</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0.4993720054626465</v>
+      </c>
+      <c r="L45">
+        <v>1.124641895294189</v>
+      </c>
+      <c r="M45">
+        <v>1.145500183105469</v>
+      </c>
+      <c r="N45">
+        <v>0.6953613758087158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1991,34 +2405,43 @@
         <v>41518</v>
       </c>
       <c r="C46">
-        <v>3.689726591110229</v>
+        <v>2.54063868522644</v>
       </c>
       <c r="D46">
-        <v>16.59845924377441</v>
+        <v>12.4369535446167</v>
       </c>
       <c r="E46">
-        <v>0.4466462135314941</v>
+        <v>0.130782812833786</v>
       </c>
       <c r="F46">
-        <v>7.244362831115723</v>
+        <v>4.826210975646973</v>
       </c>
       <c r="G46">
-        <v>15.38768291473389</v>
+        <v>7.191379547119141</v>
       </c>
       <c r="H46">
-        <v>1.620230317115784</v>
+        <v>-0.3307670950889587</v>
       </c>
       <c r="I46">
-        <v>3.083887100219727</v>
+        <v>-6.855902671813965</v>
       </c>
       <c r="J46">
-        <v>5.971251010894775</v>
+        <v>3.803471088409424</v>
       </c>
       <c r="K46">
-        <v>0.6348070502281189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>0.5165573954582214</v>
+      </c>
+      <c r="L46">
+        <v>1.147305250167847</v>
+      </c>
+      <c r="M46">
+        <v>1.145500183105469</v>
+      </c>
+      <c r="N46">
+        <v>0.6953729391098022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2026,34 +2449,43 @@
         <v>41548</v>
       </c>
       <c r="C47">
-        <v>3.799385786056519</v>
+        <v>2.564805269241333</v>
       </c>
       <c r="D47">
-        <v>16.50813293457031</v>
+        <v>13.33583068847656</v>
       </c>
       <c r="E47">
-        <v>0.6494659781455994</v>
+        <v>0.3121365308761597</v>
       </c>
       <c r="F47">
-        <v>7.711690425872803</v>
+        <v>4.895205497741699</v>
       </c>
       <c r="G47">
-        <v>15.94503021240234</v>
+        <v>7.26075267791748</v>
       </c>
       <c r="H47">
-        <v>1.829851508140564</v>
+        <v>-0.1884794980287552</v>
       </c>
       <c r="I47">
-        <v>3.924087047576904</v>
+        <v>-6.674304008483887</v>
       </c>
       <c r="J47">
-        <v>4.410150527954102</v>
+        <v>2.886370420455933</v>
       </c>
       <c r="K47">
-        <v>1.67811906337738</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>0.6152527928352356</v>
+      </c>
+      <c r="L47">
+        <v>1.147300958633423</v>
+      </c>
+      <c r="M47">
+        <v>1.149389266967773</v>
+      </c>
+      <c r="N47">
+        <v>0.6953729391098022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2061,34 +2493,43 @@
         <v>41579</v>
       </c>
       <c r="C48">
-        <v>3.799633026123047</v>
+        <v>2.564462184906006</v>
       </c>
       <c r="D48">
-        <v>16.78463172912598</v>
+        <v>13.41377830505371</v>
       </c>
       <c r="E48">
-        <v>0.6557506322860718</v>
+        <v>0.3121245503425598</v>
       </c>
       <c r="F48">
-        <v>7.712862491607666</v>
+        <v>4.895216941833496</v>
       </c>
       <c r="G48">
-        <v>15.94030284881592</v>
+        <v>7.259742736816406</v>
       </c>
       <c r="H48">
-        <v>1.829744100570679</v>
+        <v>0.3786173462867737</v>
       </c>
       <c r="I48">
-        <v>3.933096647262573</v>
+        <v>-6.674304008483887</v>
       </c>
       <c r="J48">
-        <v>4.409855842590332</v>
+        <v>2.884404182434082</v>
       </c>
       <c r="K48">
-        <v>1.631953835487366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>1.022879362106323</v>
+      </c>
+      <c r="L48">
+        <v>1.147307872772217</v>
+      </c>
+      <c r="M48">
+        <v>1.149389266967773</v>
+      </c>
+      <c r="N48">
+        <v>0.5198351740837097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2096,34 +2537,43 @@
         <v>41609</v>
       </c>
       <c r="C49">
-        <v>3.799603223800659</v>
+        <v>2.564546585083008</v>
       </c>
       <c r="D49">
-        <v>16.74142837524414</v>
+        <v>13.67923259735107</v>
       </c>
       <c r="E49">
-        <v>0.6492992639541626</v>
+        <v>0.311014860868454</v>
       </c>
       <c r="F49">
-        <v>7.712975978851318</v>
+        <v>4.894259929656982</v>
       </c>
       <c r="G49">
-        <v>15.94767284393311</v>
+        <v>7.259786128997803</v>
       </c>
       <c r="H49">
-        <v>1.829981088638306</v>
+        <v>0.3825615644454956</v>
       </c>
       <c r="I49">
-        <v>3.935659885406494</v>
+        <v>-6.674069404602051</v>
       </c>
       <c r="J49">
-        <v>4.410032749176025</v>
+        <v>2.883995056152344</v>
       </c>
       <c r="K49">
-        <v>1.629894495010376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>1.218302965164185</v>
+      </c>
+      <c r="L49">
+        <v>1.095126390457153</v>
+      </c>
+      <c r="M49">
+        <v>1.149389266967773</v>
+      </c>
+      <c r="N49">
+        <v>0.5209988355636597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2131,34 +2581,43 @@
         <v>41640</v>
       </c>
       <c r="C50">
-        <v>3.889198303222656</v>
+        <v>2.539224147796631</v>
       </c>
       <c r="D50">
-        <v>15.6981372833252</v>
+        <v>9.675978660583496</v>
       </c>
       <c r="E50">
-        <v>0.9007177352905273</v>
+        <v>0.289242684841156</v>
       </c>
       <c r="F50">
-        <v>7.896639823913574</v>
+        <v>4.81842565536499</v>
       </c>
       <c r="G50">
-        <v>16.87400245666504</v>
+        <v>7.011136531829834</v>
       </c>
       <c r="H50">
-        <v>1.738218069076538</v>
+        <v>0.808340847492218</v>
       </c>
       <c r="I50">
-        <v>4.245285034179688</v>
+        <v>-6.7758469581604</v>
       </c>
       <c r="J50">
-        <v>4.319292068481445</v>
+        <v>2.750744104385376</v>
       </c>
       <c r="K50">
-        <v>1.360436201095581</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>1.297428488731384</v>
+      </c>
+      <c r="L50">
+        <v>1.095132231712341</v>
+      </c>
+      <c r="M50">
+        <v>1.092182874679565</v>
+      </c>
+      <c r="N50">
+        <v>0.5203866958618164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2166,34 +2625,43 @@
         <v>41671</v>
       </c>
       <c r="C51">
-        <v>3.88945460319519</v>
+        <v>2.53943395614624</v>
       </c>
       <c r="D51">
-        <v>15.46464538574219</v>
+        <v>9.826839447021484</v>
       </c>
       <c r="E51">
-        <v>0.9032629132270813</v>
+        <v>0.3160201013088226</v>
       </c>
       <c r="F51">
-        <v>7.814522743225098</v>
+        <v>4.815152168273926</v>
       </c>
       <c r="G51">
-        <v>16.87691879272461</v>
+        <v>7.02277135848999</v>
       </c>
       <c r="H51">
-        <v>1.738857865333557</v>
+        <v>0.8445954322814941</v>
       </c>
       <c r="I51">
-        <v>4.233951091766357</v>
+        <v>-6.779952049255371</v>
       </c>
       <c r="J51">
-        <v>4.319823265075684</v>
+        <v>2.752104520797729</v>
       </c>
       <c r="K51">
-        <v>1.360032439231873</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>1.185657382011414</v>
+      </c>
+      <c r="L51">
+        <v>1.095096230506897</v>
+      </c>
+      <c r="M51">
+        <v>1.092182874679565</v>
+      </c>
+      <c r="N51">
+        <v>0.5244534611701965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2201,34 +2669,43 @@
         <v>41699</v>
       </c>
       <c r="C52">
-        <v>3.889556169509888</v>
+        <v>2.541437864303589</v>
       </c>
       <c r="D52">
-        <v>15.5604887008667</v>
+        <v>9.622331619262695</v>
       </c>
       <c r="E52">
-        <v>0.9010157585144043</v>
+        <v>0.3519180715084076</v>
       </c>
       <c r="F52">
-        <v>7.898135185241699</v>
+        <v>4.818682193756104</v>
       </c>
       <c r="G52">
-        <v>16.87776947021484</v>
+        <v>7.053548336029053</v>
       </c>
       <c r="H52">
-        <v>1.745594263076782</v>
+        <v>0.8454439043998718</v>
       </c>
       <c r="I52">
-        <v>4.251711845397949</v>
+        <v>-6.779782295227051</v>
       </c>
       <c r="J52">
-        <v>4.319823265075684</v>
+        <v>2.750097990036011</v>
       </c>
       <c r="K52">
-        <v>1.360166192054749</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>1.269862532615662</v>
+      </c>
+      <c r="L52">
+        <v>1.002147674560547</v>
+      </c>
+      <c r="M52">
+        <v>1.092182874679565</v>
+      </c>
+      <c r="N52">
+        <v>0.5225676298141479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2236,34 +2713,43 @@
         <v>41730</v>
       </c>
       <c r="C53">
-        <v>4.019256591796875</v>
+        <v>2.535018920898438</v>
       </c>
       <c r="D53">
-        <v>15.23577308654785</v>
+        <v>9.688447952270508</v>
       </c>
       <c r="E53">
-        <v>0.753526508808136</v>
+        <v>0.3399178087711334</v>
       </c>
       <c r="F53">
-        <v>7.82174825668335</v>
+        <v>3.566680192947388</v>
       </c>
       <c r="G53">
-        <v>17.65185928344727</v>
+        <v>6.99648380279541</v>
       </c>
       <c r="H53">
-        <v>2.526437282562256</v>
+        <v>0.8820956349372864</v>
       </c>
       <c r="I53">
-        <v>4.081952095031738</v>
+        <v>-6.88003396987915</v>
       </c>
       <c r="J53">
-        <v>4.010047435760498</v>
+        <v>2.019609928131104</v>
       </c>
       <c r="K53">
-        <v>1.619872450828552</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>1.276415705680847</v>
+      </c>
+      <c r="L53">
+        <v>1.002055525779724</v>
+      </c>
+      <c r="M53">
+        <v>1.145793318748474</v>
+      </c>
+      <c r="N53">
+        <v>0.5225692987442017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2271,34 +2757,43 @@
         <v>41760</v>
       </c>
       <c r="C54">
-        <v>4.019552230834961</v>
+        <v>2.536180019378662</v>
       </c>
       <c r="D54">
-        <v>15.20293617248535</v>
+        <v>9.574438095092773</v>
       </c>
       <c r="E54">
-        <v>0.7531682252883911</v>
+        <v>0.3038878440856934</v>
       </c>
       <c r="F54">
-        <v>7.8221116065979</v>
+        <v>3.56665301322937</v>
       </c>
       <c r="G54">
-        <v>17.65684127807617</v>
+        <v>6.99569845199585</v>
       </c>
       <c r="H54">
-        <v>2.540488481521606</v>
+        <v>0.8838527798652649</v>
       </c>
       <c r="I54">
-        <v>4.277731895446777</v>
+        <v>-6.879315853118896</v>
       </c>
       <c r="J54">
-        <v>4.010604858398438</v>
+        <v>2.019521236419678</v>
       </c>
       <c r="K54">
-        <v>1.619944334030151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>1.260807991027832</v>
+      </c>
+      <c r="L54">
+        <v>1.002062678337097</v>
+      </c>
+      <c r="M54">
+        <v>1.145359516143799</v>
+      </c>
+      <c r="N54">
+        <v>0.529981791973114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2306,34 +2801,43 @@
         <v>41791</v>
       </c>
       <c r="C55">
-        <v>4.019484519958496</v>
+        <v>2.536077976226807</v>
       </c>
       <c r="D55">
-        <v>15.18511962890625</v>
+        <v>9.473723411560059</v>
       </c>
       <c r="E55">
-        <v>0.7528098821640015</v>
+        <v>0.2981208264827728</v>
       </c>
       <c r="F55">
-        <v>7.822049140930176</v>
+        <v>3.566642761230469</v>
       </c>
       <c r="G55">
-        <v>17.65354156494141</v>
+        <v>6.99566125869751</v>
       </c>
       <c r="H55">
-        <v>2.540096521377563</v>
+        <v>0.8876498937606812</v>
       </c>
       <c r="I55">
-        <v>4.280756950378418</v>
+        <v>-6.8793625831604</v>
       </c>
       <c r="J55">
-        <v>4.010043144226074</v>
+        <v>2.019506692886353</v>
       </c>
       <c r="K55">
-        <v>1.61965537071228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>1.322790503501892</v>
+      </c>
+      <c r="L55">
+        <v>1.007714986801147</v>
+      </c>
+      <c r="M55">
+        <v>1.145359516143799</v>
+      </c>
+      <c r="N55">
+        <v>0.5299791693687439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2341,34 +2845,43 @@
         <v>41821</v>
       </c>
       <c r="C56">
-        <v>4.049132347106934</v>
+        <v>2.537272930145264</v>
       </c>
       <c r="D56">
-        <v>15.57789897918701</v>
+        <v>9.616998672485352</v>
       </c>
       <c r="E56">
-        <v>0.6248376965522766</v>
+        <v>0.3014470040798187</v>
       </c>
       <c r="F56">
-        <v>8.570774078369141</v>
+        <v>4.78006649017334</v>
       </c>
       <c r="G56">
-        <v>18.18520545959473</v>
+        <v>6.704888343811035</v>
       </c>
       <c r="H56">
-        <v>2.310212135314941</v>
+        <v>0.9043703079223633</v>
       </c>
       <c r="I56">
-        <v>2.968371868133545</v>
+        <v>-6.751064300537109</v>
       </c>
       <c r="J56">
-        <v>3.869401454925537</v>
+        <v>1.808108925819397</v>
       </c>
       <c r="K56">
-        <v>2.129825115203857</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>1.370172739028931</v>
+      </c>
+      <c r="L56">
+        <v>1.007226705551147</v>
+      </c>
+      <c r="M56">
+        <v>1.08672833442688</v>
+      </c>
+      <c r="N56">
+        <v>0.5335253477096558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2376,34 +2889,43 @@
         <v>41852</v>
       </c>
       <c r="C57">
-        <v>4.046287059783936</v>
+        <v>2.537214994430542</v>
       </c>
       <c r="D57">
-        <v>15.59268951416016</v>
+        <v>9.610692977905273</v>
       </c>
       <c r="E57">
-        <v>0.6239041090011597</v>
+        <v>0.31267911195755</v>
       </c>
       <c r="F57">
-        <v>8.571738243103027</v>
+        <v>4.780021190643311</v>
       </c>
       <c r="G57">
-        <v>18.18637084960938</v>
+        <v>6.70651912689209</v>
       </c>
       <c r="H57">
-        <v>2.308492183685303</v>
+        <v>0.9108710289001465</v>
       </c>
       <c r="I57">
-        <v>2.965476989746094</v>
+        <v>-6.751064300537109</v>
       </c>
       <c r="J57">
-        <v>3.869972944259644</v>
+        <v>1.808579087257385</v>
       </c>
       <c r="K57">
-        <v>2.145478010177612</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>1.512754797935486</v>
+      </c>
+      <c r="L57">
+        <v>1.007201552391052</v>
+      </c>
+      <c r="M57">
+        <v>1.086365461349487</v>
+      </c>
+      <c r="N57">
+        <v>0.5530922412872314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2411,34 +2933,43 @@
         <v>41883</v>
       </c>
       <c r="C58">
-        <v>4.049495220184326</v>
+        <v>2.535999774932861</v>
       </c>
       <c r="D58">
-        <v>15.57615947723389</v>
+        <v>9.674675941467285</v>
       </c>
       <c r="E58">
-        <v>0.6239346861839294</v>
+        <v>0.32991623878479</v>
       </c>
       <c r="F58">
-        <v>8.570398330688477</v>
+        <v>4.780107975006104</v>
       </c>
       <c r="G58">
-        <v>18.18731117248535</v>
+        <v>6.706544399261475</v>
       </c>
       <c r="H58">
-        <v>2.309221982955933</v>
+        <v>0.9069042205810547</v>
       </c>
       <c r="I58">
-        <v>3.012304782867432</v>
+        <v>-6.751055717468262</v>
       </c>
       <c r="J58">
-        <v>3.869926452636719</v>
+        <v>1.80854856967926</v>
       </c>
       <c r="K58">
-        <v>2.387579441070557</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>1.7583167552948</v>
+      </c>
+      <c r="L58">
+        <v>0.8954800367355347</v>
+      </c>
+      <c r="M58">
+        <v>1.086365461349487</v>
+      </c>
+      <c r="N58">
+        <v>0.5544213056564331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2446,34 +2977,43 @@
         <v>41913</v>
       </c>
       <c r="C59">
-        <v>4.079109668731689</v>
+        <v>2.535995244979858</v>
       </c>
       <c r="D59">
-        <v>17.30023574829102</v>
+        <v>9.948829650878906</v>
       </c>
       <c r="E59">
-        <v>0.3810116052627563</v>
+        <v>0.3189983069896698</v>
       </c>
       <c r="F59">
-        <v>8.396400451660156</v>
+        <v>3.78778076171875</v>
       </c>
       <c r="G59">
-        <v>19.26665878295898</v>
+        <v>6.718766212463379</v>
       </c>
       <c r="H59">
-        <v>2.415249347686768</v>
+        <v>1.000120639801025</v>
       </c>
       <c r="I59">
-        <v>2.906256914138794</v>
+        <v>-8.131132125854492</v>
       </c>
       <c r="J59">
-        <v>5.394669532775879</v>
+        <v>3.599371671676636</v>
       </c>
       <c r="K59">
-        <v>2.513341188430786</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>1.502312898635864</v>
+      </c>
+      <c r="L59">
+        <v>0.8950014114379883</v>
+      </c>
+      <c r="M59">
+        <v>1.083430647850037</v>
+      </c>
+      <c r="N59">
+        <v>0.5544213056564331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2481,34 +3021,43 @@
         <v>41944</v>
       </c>
       <c r="C60">
-        <v>4.079312801361084</v>
+        <v>2.536928653717041</v>
       </c>
       <c r="D60">
-        <v>17.31109046936035</v>
+        <v>9.934120178222656</v>
       </c>
       <c r="E60">
-        <v>0.381388396024704</v>
+        <v>0.315185546875</v>
       </c>
       <c r="F60">
-        <v>8.396908760070801</v>
+        <v>3.7877037525177</v>
       </c>
       <c r="G60">
-        <v>19.23353576660156</v>
+        <v>6.718446254730225</v>
       </c>
       <c r="H60">
-        <v>2.4181809425354</v>
+        <v>1.000130414962769</v>
       </c>
       <c r="I60">
-        <v>2.924055337905884</v>
+        <v>-8.130213737487793</v>
       </c>
       <c r="J60">
-        <v>5.399495124816895</v>
+        <v>3.61176609992981</v>
       </c>
       <c r="K60">
-        <v>2.513770818710327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>1.709612846374512</v>
+      </c>
+      <c r="L60">
+        <v>0.8949750661849976</v>
+      </c>
+      <c r="M60">
+        <v>1.08379340171814</v>
+      </c>
+      <c r="N60">
+        <v>0.734470546245575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2516,34 +3065,43 @@
         <v>41974</v>
       </c>
       <c r="C61">
-        <v>4.079549312591553</v>
+        <v>2.537147998809814</v>
       </c>
       <c r="D61">
-        <v>17.34294509887695</v>
+        <v>9.932779312133789</v>
       </c>
       <c r="E61">
-        <v>0.3796411454677582</v>
+        <v>0.3259626030921936</v>
       </c>
       <c r="F61">
-        <v>8.396947860717773</v>
+        <v>3.787772655487061</v>
       </c>
       <c r="G61">
-        <v>19.34727668762207</v>
+        <v>6.718172550201416</v>
       </c>
       <c r="H61">
-        <v>2.423041343688965</v>
+        <v>1.044366121292114</v>
       </c>
       <c r="I61">
-        <v>2.845975399017334</v>
+        <v>-8.127062797546387</v>
       </c>
       <c r="J61">
-        <v>5.399535179138184</v>
+        <v>3.611788988113403</v>
       </c>
       <c r="K61">
-        <v>2.510948896408081</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>2.516954183578491</v>
+      </c>
+      <c r="L61">
+        <v>0.9576935768127441</v>
+      </c>
+      <c r="M61">
+        <v>1.08379340171814</v>
+      </c>
+      <c r="N61">
+        <v>0.7346822023391724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2551,34 +3109,43 @@
         <v>42005</v>
       </c>
       <c r="C62">
-        <v>4.099170207977295</v>
+        <v>2.535263538360596</v>
       </c>
       <c r="D62">
-        <v>17.05470657348633</v>
+        <v>11.85714149475098</v>
       </c>
       <c r="E62">
-        <v>0.3373062908649445</v>
+        <v>0.3064039349555969</v>
       </c>
       <c r="F62">
-        <v>8.060503005981445</v>
+        <v>3.364120483398438</v>
       </c>
       <c r="G62">
-        <v>19.25815200805664</v>
+        <v>7.102398872375488</v>
       </c>
       <c r="H62">
-        <v>2.232919692993164</v>
+        <v>1.416675448417664</v>
       </c>
       <c r="I62">
-        <v>2.393890857696533</v>
+        <v>-6.739753723144531</v>
       </c>
       <c r="J62">
-        <v>5.290713310241699</v>
+        <v>3.635223388671875</v>
       </c>
       <c r="K62">
-        <v>1.580142378807068</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>2.290739774703979</v>
+      </c>
+      <c r="L62">
+        <v>0.9575399160385132</v>
+      </c>
+      <c r="M62">
+        <v>1.140811085700989</v>
+      </c>
+      <c r="N62">
+        <v>0.7346799969673157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2586,34 +3153,43 @@
         <v>42036</v>
       </c>
       <c r="C63">
-        <v>4.099417686462402</v>
+        <v>2.535647392272949</v>
       </c>
       <c r="D63">
-        <v>17.04790115356445</v>
+        <v>11.73902416229248</v>
       </c>
       <c r="E63">
-        <v>0.3369893133640289</v>
+        <v>0.2772790193557739</v>
       </c>
       <c r="F63">
-        <v>8.060616493225098</v>
+        <v>3.363667249679565</v>
       </c>
       <c r="G63">
-        <v>19.2583179473877</v>
+        <v>7.106979370117188</v>
       </c>
       <c r="H63">
-        <v>2.237415313720703</v>
+        <v>1.501469016075134</v>
       </c>
       <c r="I63">
-        <v>2.20937180519104</v>
+        <v>-6.732550144195557</v>
       </c>
       <c r="J63">
-        <v>5.286734104156494</v>
+        <v>3.641107082366943</v>
       </c>
       <c r="K63">
-        <v>1.581737160682678</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>2.22157883644104</v>
+      </c>
+      <c r="L63">
+        <v>0.9574708938598633</v>
+      </c>
+      <c r="M63">
+        <v>1.140811085700989</v>
+      </c>
+      <c r="N63">
+        <v>0.8878947496414185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2621,34 +3197,43 @@
         <v>42064</v>
       </c>
       <c r="C64">
-        <v>4.099470615386963</v>
+        <v>2.535032272338867</v>
       </c>
       <c r="D64">
-        <v>17.06586837768555</v>
+        <v>11.74976825714111</v>
       </c>
       <c r="E64">
-        <v>0.3369343876838684</v>
+        <v>0.2782265543937683</v>
       </c>
       <c r="F64">
-        <v>8.060276031494141</v>
+        <v>3.36359167098999</v>
       </c>
       <c r="G64">
-        <v>19.25836563110352</v>
+        <v>7.094856262207031</v>
       </c>
       <c r="H64">
-        <v>2.245582580566406</v>
+        <v>1.506675481796265</v>
       </c>
       <c r="I64">
-        <v>2.201376676559448</v>
+        <v>-6.731183052062988</v>
       </c>
       <c r="J64">
-        <v>5.290898323059082</v>
+        <v>3.632344007492065</v>
       </c>
       <c r="K64">
-        <v>1.582588076591492</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>2.291182279586792</v>
+      </c>
+      <c r="L64">
+        <v>1.028744459152222</v>
+      </c>
+      <c r="M64">
+        <v>1.140811085700989</v>
+      </c>
+      <c r="N64">
+        <v>0.8879002332687378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2656,34 +3241,43 @@
         <v>42095</v>
       </c>
       <c r="C65">
-        <v>4.089699745178223</v>
+        <v>2.536859512329102</v>
       </c>
       <c r="D65">
-        <v>18.97287750244141</v>
+        <v>14.24729156494141</v>
       </c>
       <c r="E65">
-        <v>0.6560977697372437</v>
+        <v>0.2973207831382751</v>
       </c>
       <c r="F65">
-        <v>8.24698543548584</v>
+        <v>3.383455276489258</v>
       </c>
       <c r="G65">
-        <v>19.63870620727539</v>
+        <v>7.229432106018066</v>
       </c>
       <c r="H65">
-        <v>2.274049043655396</v>
+        <v>1.696377396583557</v>
       </c>
       <c r="I65">
-        <v>2.486740827560425</v>
+        <v>-6.732563018798828</v>
       </c>
       <c r="J65">
-        <v>5.458731651306152</v>
+        <v>3.625882625579834</v>
       </c>
       <c r="K65">
-        <v>2.021567821502686</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>2.295743942260742</v>
+      </c>
+      <c r="L65">
+        <v>1.0286705493927</v>
+      </c>
+      <c r="M65">
+        <v>1.084446907043457</v>
+      </c>
+      <c r="N65">
+        <v>0.8932163119316101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2691,34 +3285,43 @@
         <v>42125</v>
       </c>
       <c r="C66">
-        <v>4.089653491973877</v>
+        <v>2.536111831665039</v>
       </c>
       <c r="D66">
-        <v>18.97180938720703</v>
+        <v>14.49113655090332</v>
       </c>
       <c r="E66">
-        <v>0.6561015844345093</v>
+        <v>0.2996883690357208</v>
       </c>
       <c r="F66">
-        <v>8.247164726257324</v>
+        <v>3.383475780487061</v>
       </c>
       <c r="G66">
-        <v>19.69674682617188</v>
+        <v>7.229434013366699</v>
       </c>
       <c r="H66">
-        <v>2.274930477142334</v>
+        <v>1.69697380065918</v>
       </c>
       <c r="I66">
-        <v>2.477434396743774</v>
+        <v>-6.739760398864746</v>
       </c>
       <c r="J66">
-        <v>5.463072776794434</v>
+        <v>3.626922130584717</v>
       </c>
       <c r="K66">
-        <v>2.025335788726807</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>2.328902721405029</v>
+      </c>
+      <c r="L66">
+        <v>1.028663992881775</v>
+      </c>
+      <c r="M66">
+        <v>1.084446907043457</v>
+      </c>
+      <c r="N66">
+        <v>0.805009663105011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2726,34 +3329,43 @@
         <v>42156</v>
       </c>
       <c r="C67">
-        <v>4.089736938476562</v>
+        <v>2.538062810897827</v>
       </c>
       <c r="D67">
-        <v>18.9815788269043</v>
+        <v>14.50007438659668</v>
       </c>
       <c r="E67">
-        <v>0.6561554074287415</v>
+        <v>0.3246402442455292</v>
       </c>
       <c r="F67">
-        <v>8.24741268157959</v>
+        <v>3.383480548858643</v>
       </c>
       <c r="G67">
-        <v>19.69655227661133</v>
+        <v>7.229660987854004</v>
       </c>
       <c r="H67">
-        <v>2.306838750839233</v>
+        <v>1.696635007858276</v>
       </c>
       <c r="I67">
-        <v>2.495263338088989</v>
+        <v>-6.735592842102051</v>
       </c>
       <c r="J67">
-        <v>5.459659576416016</v>
+        <v>3.626766920089722</v>
       </c>
       <c r="K67">
-        <v>2.022151231765747</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>2.328896284103394</v>
+      </c>
+      <c r="L67">
+        <v>0.8796512484550476</v>
+      </c>
+      <c r="M67">
+        <v>1.08489203453064</v>
+      </c>
+      <c r="N67">
+        <v>0.8078272938728333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2761,34 +3373,43 @@
         <v>42186</v>
       </c>
       <c r="C68">
-        <v>4.108258724212646</v>
+        <v>2.560644626617432</v>
       </c>
       <c r="D68">
-        <v>16.86965560913086</v>
+        <v>10.92328071594238</v>
       </c>
       <c r="E68">
-        <v>0.9178129434585571</v>
+        <v>0.3279016315937042</v>
       </c>
       <c r="F68">
-        <v>7.283770561218262</v>
+        <v>3.047978162765503</v>
       </c>
       <c r="G68">
-        <v>19.81518173217773</v>
+        <v>7.231572151184082</v>
       </c>
       <c r="H68">
-        <v>2.508528232574463</v>
+        <v>1.698792457580566</v>
       </c>
       <c r="I68">
-        <v>3.914099216461182</v>
+        <v>-8.209604263305664</v>
       </c>
       <c r="J68">
-        <v>5.539085388183594</v>
+        <v>3.622529268264771</v>
       </c>
       <c r="K68">
-        <v>1.954558730125427</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>2.497913360595703</v>
+      </c>
+      <c r="L68">
+        <v>0.8795440793037415</v>
+      </c>
+      <c r="M68">
+        <v>1.085453391075134</v>
+      </c>
+      <c r="N68">
+        <v>0.8063780069351196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2796,34 +3417,43 @@
         <v>42217</v>
       </c>
       <c r="C69">
-        <v>4.109437465667725</v>
+        <v>2.559255838394165</v>
       </c>
       <c r="D69">
-        <v>16.86229705810547</v>
+        <v>10.92267227172852</v>
       </c>
       <c r="E69">
-        <v>0.9184163212776184</v>
+        <v>0.3175020813941956</v>
       </c>
       <c r="F69">
-        <v>7.283308506011963</v>
+        <v>3.047636985778809</v>
       </c>
       <c r="G69">
-        <v>19.79765892028809</v>
+        <v>7.231604099273682</v>
       </c>
       <c r="H69">
-        <v>2.511561870574951</v>
+        <v>1.699272871017456</v>
       </c>
       <c r="I69">
-        <v>3.951925754547119</v>
+        <v>-8.207958221435547</v>
       </c>
       <c r="J69">
-        <v>5.539919376373291</v>
+        <v>3.622513294219971</v>
       </c>
       <c r="K69">
-        <v>1.95419716835022</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>2.497923612594604</v>
+      </c>
+      <c r="L69">
+        <v>0.8817967176437378</v>
+      </c>
+      <c r="M69">
+        <v>1.085453391075134</v>
+      </c>
+      <c r="N69">
+        <v>0.6398853659629822</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2831,34 +3461,43 @@
         <v>42248</v>
       </c>
       <c r="C70">
-        <v>4.107257843017578</v>
+        <v>2.559130191802979</v>
       </c>
       <c r="D70">
-        <v>16.86886596679688</v>
+        <v>10.79500579833984</v>
       </c>
       <c r="E70">
-        <v>0.9181920289993286</v>
+        <v>0.3176628649234772</v>
       </c>
       <c r="F70">
-        <v>7.283443450927734</v>
+        <v>3.047692060470581</v>
       </c>
       <c r="G70">
-        <v>19.68938064575195</v>
+        <v>7.242240905761719</v>
       </c>
       <c r="H70">
-        <v>2.500049114227295</v>
+        <v>1.653652191162109</v>
       </c>
       <c r="I70">
-        <v>3.947670459747314</v>
+        <v>-8.215189933776855</v>
       </c>
       <c r="J70">
-        <v>5.53971004486084</v>
+        <v>3.623144865036011</v>
       </c>
       <c r="K70">
-        <v>1.949886322021484</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>2.416147708892822</v>
+      </c>
+      <c r="L70">
+        <v>1.091173887252808</v>
+      </c>
+      <c r="M70">
+        <v>1.085453391075134</v>
+      </c>
+      <c r="N70">
+        <v>0.6405718326568604</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2866,34 +3505,43 @@
         <v>42278</v>
       </c>
       <c r="C71">
-        <v>4.13109827041626</v>
+        <v>2.538722515106201</v>
       </c>
       <c r="D71">
-        <v>15.22712135314941</v>
+        <v>11.8595142364502</v>
       </c>
       <c r="E71">
-        <v>1.329684734344482</v>
+        <v>0.2926775813102722</v>
       </c>
       <c r="F71">
-        <v>9.159782409667969</v>
+        <v>4.684210777282715</v>
       </c>
       <c r="G71">
-        <v>19.44755744934082</v>
+        <v>7.275429725646973</v>
       </c>
       <c r="H71">
-        <v>2.33644437789917</v>
+        <v>1.5749591588974</v>
       </c>
       <c r="I71">
-        <v>4.43613338470459</v>
+        <v>-6.819550514221191</v>
       </c>
       <c r="J71">
-        <v>5.850229740142822</v>
+        <v>3.762463808059692</v>
       </c>
       <c r="K71">
-        <v>1.601189255714417</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>2.316368818283081</v>
+      </c>
+      <c r="L71">
+        <v>1.091134548187256</v>
+      </c>
+      <c r="M71">
+        <v>1.081761479377747</v>
+      </c>
+      <c r="N71">
+        <v>0.6397420167922974</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2901,34 +3549,43 @@
         <v>42309</v>
       </c>
       <c r="C72">
-        <v>4.13834285736084</v>
+        <v>2.538042545318604</v>
       </c>
       <c r="D72">
-        <v>15.30204200744629</v>
+        <v>11.79337501525879</v>
       </c>
       <c r="E72">
-        <v>1.335040688514709</v>
+        <v>0.2960557043552399</v>
       </c>
       <c r="F72">
-        <v>9.214555740356445</v>
+        <v>4.683860778808594</v>
       </c>
       <c r="G72">
-        <v>19.44871711730957</v>
+        <v>7.269340515136719</v>
       </c>
       <c r="H72">
-        <v>2.330336093902588</v>
+        <v>1.619753479957581</v>
       </c>
       <c r="I72">
-        <v>4.444914817810059</v>
+        <v>-6.818602085113525</v>
       </c>
       <c r="J72">
-        <v>5.855575561523438</v>
+        <v>3.768634080886841</v>
       </c>
       <c r="K72">
-        <v>1.600389838218689</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>2.03764271736145</v>
+      </c>
+      <c r="L72">
+        <v>1.091330289840698</v>
+      </c>
+      <c r="M72">
+        <v>1.081761479377747</v>
+      </c>
+      <c r="N72">
+        <v>0.8825092315673828</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2936,34 +3593,43 @@
         <v>42339</v>
       </c>
       <c r="C73">
-        <v>4.139554023742676</v>
+        <v>2.538532733917236</v>
       </c>
       <c r="D73">
-        <v>15.20585155487061</v>
+        <v>11.76616477966309</v>
       </c>
       <c r="E73">
-        <v>1.332190036773682</v>
+        <v>0.3202778995037079</v>
       </c>
       <c r="F73">
-        <v>9.226020812988281</v>
+        <v>4.684209823608398</v>
       </c>
       <c r="G73">
-        <v>19.44861793518066</v>
+        <v>7.269097328186035</v>
       </c>
       <c r="H73">
-        <v>2.327013731002808</v>
+        <v>1.536310911178589</v>
       </c>
       <c r="I73">
-        <v>4.435894012451172</v>
+        <v>-6.816736698150635</v>
       </c>
       <c r="J73">
-        <v>5.858424186706543</v>
+        <v>3.768696546554565</v>
       </c>
       <c r="K73">
-        <v>1.600115776062012</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>2.15112829208374</v>
+      </c>
+      <c r="L73">
+        <v>1.310851335525513</v>
+      </c>
+      <c r="M73">
+        <v>1.081761479377747</v>
+      </c>
+      <c r="N73">
+        <v>0.8769124746322632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2971,34 +3637,43 @@
         <v>42370</v>
       </c>
       <c r="C74">
-        <v>4.145671844482422</v>
+        <v>2.536776065826416</v>
       </c>
       <c r="D74">
-        <v>12.09814071655273</v>
+        <v>11.3849401473999</v>
       </c>
       <c r="E74">
-        <v>1.366306900978088</v>
+        <v>0.3244710564613342</v>
       </c>
       <c r="F74">
-        <v>9.767720222473145</v>
+        <v>4.897139072418213</v>
       </c>
       <c r="G74">
-        <v>19.76885032653809</v>
+        <v>6.868701934814453</v>
       </c>
       <c r="H74">
-        <v>2.683970928192139</v>
+        <v>1.095028638839722</v>
       </c>
       <c r="I74">
-        <v>5.144949436187744</v>
+        <v>-13.85561370849609</v>
       </c>
       <c r="J74">
-        <v>5.984095573425293</v>
+        <v>3.6455237865448</v>
       </c>
       <c r="K74">
-        <v>2.898799657821655</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>3.038669109344482</v>
+      </c>
+      <c r="L74">
+        <v>1.310659289360046</v>
+      </c>
+      <c r="M74">
+        <v>1.087966203689575</v>
+      </c>
+      <c r="N74">
+        <v>0.8757913708686829</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3006,34 +3681,43 @@
         <v>42401</v>
       </c>
       <c r="C75">
-        <v>4.13405704498291</v>
+        <v>2.536772727966309</v>
       </c>
       <c r="D75">
-        <v>12.02215003967285</v>
+        <v>11.30044460296631</v>
       </c>
       <c r="E75">
-        <v>1.365403056144714</v>
+        <v>0.2972460389137268</v>
       </c>
       <c r="F75">
-        <v>9.768551826477051</v>
+        <v>4.897910118103027</v>
       </c>
       <c r="G75">
-        <v>19.78232383728027</v>
+        <v>6.863898277282715</v>
       </c>
       <c r="H75">
-        <v>2.710049867630005</v>
+        <v>1.076597213745117</v>
       </c>
       <c r="I75">
-        <v>5.38468074798584</v>
+        <v>-13.84215545654297</v>
       </c>
       <c r="J75">
-        <v>5.982077598571777</v>
+        <v>3.646008253097534</v>
       </c>
       <c r="K75">
-        <v>2.899033069610596</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>1.708523035049438</v>
+      </c>
+      <c r="L75">
+        <v>1.310622215270996</v>
+      </c>
+      <c r="M75">
+        <v>1.087966203689575</v>
+      </c>
+      <c r="N75">
+        <v>1.112394213676453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3041,34 +3725,43 @@
         <v>42430</v>
       </c>
       <c r="C76">
-        <v>4.145618438720703</v>
+        <v>2.536800146102905</v>
       </c>
       <c r="D76">
-        <v>12.08674049377441</v>
+        <v>11.17253112792969</v>
       </c>
       <c r="E76">
-        <v>1.370117783546448</v>
+        <v>0.312335878610611</v>
       </c>
       <c r="F76">
-        <v>9.76832103729248</v>
+        <v>4.897902965545654</v>
       </c>
       <c r="G76">
-        <v>19.78815841674805</v>
+        <v>6.821389198303223</v>
       </c>
       <c r="H76">
-        <v>2.715260028839111</v>
+        <v>0.9198582768440247</v>
       </c>
       <c r="I76">
-        <v>5.386697292327881</v>
+        <v>-13.84283924102783</v>
       </c>
       <c r="J76">
-        <v>5.984329223632812</v>
+        <v>3.646646022796631</v>
       </c>
       <c r="K76">
-        <v>2.8992018699646</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>1.250002861022949</v>
+      </c>
+      <c r="L76">
+        <v>1.484952449798584</v>
+      </c>
+      <c r="M76">
+        <v>1.087966203689575</v>
+      </c>
+      <c r="N76">
+        <v>1.101700305938721</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3076,34 +3769,43 @@
         <v>42461</v>
       </c>
       <c r="C77">
-        <v>4.100132942199707</v>
+        <v>2.538380146026611</v>
       </c>
       <c r="D77">
-        <v>8.863492012023926</v>
+        <v>11.70084762573242</v>
       </c>
       <c r="E77">
-        <v>1.307623147964478</v>
+        <v>0.3426225781440735</v>
       </c>
       <c r="F77">
-        <v>9.938563346862793</v>
+        <v>3.960746049880981</v>
       </c>
       <c r="G77">
-        <v>18.8690299987793</v>
+        <v>6.887592315673828</v>
       </c>
       <c r="H77">
-        <v>2.771414041519165</v>
+        <v>0.882350742816925</v>
       </c>
       <c r="I77">
-        <v>4.994667053222656</v>
+        <v>-21.24562454223633</v>
       </c>
       <c r="J77">
-        <v>5.887913703918457</v>
+        <v>3.765864133834839</v>
       </c>
       <c r="K77">
-        <v>2.27199649810791</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>0.6330085396766663</v>
+      </c>
+      <c r="L77">
+        <v>1.484886646270752</v>
+      </c>
+      <c r="M77">
+        <v>1.082618713378906</v>
+      </c>
+      <c r="N77">
+        <v>1.103241205215454</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3111,34 +3813,43 @@
         <v>42491</v>
       </c>
       <c r="C78">
-        <v>4.096678256988525</v>
+        <v>2.537913799285889</v>
       </c>
       <c r="D78">
-        <v>9.194082260131836</v>
+        <v>11.71754264831543</v>
       </c>
       <c r="E78">
-        <v>1.307485580444336</v>
+        <v>0.3501927852630615</v>
       </c>
       <c r="F78">
-        <v>9.933794021606445</v>
+        <v>3.960739850997925</v>
       </c>
       <c r="G78">
-        <v>18.86836051940918</v>
+        <v>6.8848557472229</v>
       </c>
       <c r="H78">
-        <v>2.77874755859375</v>
+        <v>0.9328292608261108</v>
       </c>
       <c r="I78">
-        <v>4.994531631469727</v>
+        <v>-21.2442626953125</v>
       </c>
       <c r="J78">
-        <v>5.886942863464355</v>
+        <v>3.765154361724854</v>
       </c>
       <c r="K78">
-        <v>2.274190902709961</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>0.6467214822769165</v>
+      </c>
+      <c r="L78">
+        <v>1.484894514083862</v>
+      </c>
+      <c r="M78">
+        <v>1.082618713378906</v>
+      </c>
+      <c r="N78">
+        <v>1.111036419868469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3146,34 +3857,43 @@
         <v>42522</v>
       </c>
       <c r="C79">
-        <v>4.099784851074219</v>
+        <v>2.538693904876709</v>
       </c>
       <c r="D79">
-        <v>8.852824211120605</v>
+        <v>11.74493217468262</v>
       </c>
       <c r="E79">
-        <v>1.30762791633606</v>
+        <v>0.3616348803043365</v>
       </c>
       <c r="F79">
-        <v>9.930237770080566</v>
+        <v>3.960665941238403</v>
       </c>
       <c r="G79">
-        <v>18.87717247009277</v>
+        <v>6.877963066101074</v>
       </c>
       <c r="H79">
-        <v>2.778427124023438</v>
+        <v>1.186157584190369</v>
       </c>
       <c r="I79">
-        <v>4.991594791412354</v>
+        <v>-21.23828506469727</v>
       </c>
       <c r="J79">
-        <v>5.885552406311035</v>
+        <v>3.764898777008057</v>
       </c>
       <c r="K79">
-        <v>2.273294448852539</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>0.6275647878646851</v>
+      </c>
+      <c r="L79">
+        <v>1.499919652938843</v>
+      </c>
+      <c r="M79">
+        <v>1.081530570983887</v>
+      </c>
+      <c r="N79">
+        <v>1.111037969589233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3181,34 +3901,43 @@
         <v>42552</v>
       </c>
       <c r="C80">
-        <v>4.078321933746338</v>
+        <v>2.539484262466431</v>
       </c>
       <c r="D80">
-        <v>10.60689353942871</v>
+        <v>11.18458843231201</v>
       </c>
       <c r="E80">
-        <v>1.214375257492065</v>
+        <v>0.3455642759799957</v>
       </c>
       <c r="F80">
-        <v>10.32612133026123</v>
+        <v>4.764616012573242</v>
       </c>
       <c r="G80">
-        <v>18.76025009155273</v>
+        <v>7.327207088470459</v>
       </c>
       <c r="H80">
-        <v>2.790330410003662</v>
+        <v>1.19299042224884</v>
       </c>
       <c r="I80">
-        <v>4.728623390197754</v>
+        <v>-6.812190055847168</v>
       </c>
       <c r="J80">
-        <v>5.896783351898193</v>
+        <v>3.765689849853516</v>
       </c>
       <c r="K80">
-        <v>2.168749809265137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>0.02435410022735596</v>
+      </c>
+      <c r="L80">
+        <v>1.499932527542114</v>
+      </c>
+      <c r="M80">
+        <v>1.081435918807983</v>
+      </c>
+      <c r="N80">
+        <v>1.13994562625885</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3216,34 +3945,43 @@
         <v>42583</v>
       </c>
       <c r="C81">
-        <v>4.079946994781494</v>
+        <v>2.539419412612915</v>
       </c>
       <c r="D81">
-        <v>10.61249351501465</v>
+        <v>11.16973400115967</v>
       </c>
       <c r="E81">
-        <v>1.214213013648987</v>
+        <v>0.3507029414176941</v>
       </c>
       <c r="F81">
-        <v>10.3398323059082</v>
+        <v>4.764634132385254</v>
       </c>
       <c r="G81">
-        <v>18.75957107543945</v>
+        <v>7.316525936126709</v>
       </c>
       <c r="H81">
-        <v>2.798785209655762</v>
+        <v>1.465918779373169</v>
       </c>
       <c r="I81">
-        <v>4.728880882263184</v>
+        <v>-6.811676025390625</v>
       </c>
       <c r="J81">
-        <v>5.895339012145996</v>
+        <v>3.765572786331177</v>
       </c>
       <c r="K81">
-        <v>2.169585466384888</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>0.04264820739626884</v>
+      </c>
+      <c r="L81">
+        <v>1.499927878379822</v>
+      </c>
+      <c r="M81">
+        <v>1.082610130310059</v>
+      </c>
+      <c r="N81">
+        <v>1.255564451217651</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3251,34 +3989,43 @@
         <v>42614</v>
       </c>
       <c r="C82">
-        <v>4.078366756439209</v>
+        <v>2.538404941558838</v>
       </c>
       <c r="D82">
-        <v>10.56218814849854</v>
+        <v>11.24896907806396</v>
       </c>
       <c r="E82">
-        <v>1.213958501815796</v>
+        <v>0.3693789541721344</v>
       </c>
       <c r="F82">
-        <v>10.28539657592773</v>
+        <v>4.764708995819092</v>
       </c>
       <c r="G82">
-        <v>18.75942230224609</v>
+        <v>7.315798282623291</v>
       </c>
       <c r="H82">
-        <v>2.804254055023193</v>
+        <v>1.722687482833862</v>
       </c>
       <c r="I82">
-        <v>4.739298820495605</v>
+        <v>-6.80876636505127</v>
       </c>
       <c r="J82">
-        <v>5.89877986907959</v>
+        <v>3.755681991577148</v>
       </c>
       <c r="K82">
-        <v>2.168200969696045</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>0.5010980367660522</v>
+      </c>
+      <c r="L82">
+        <v>1.452188730239868</v>
+      </c>
+      <c r="M82">
+        <v>1.082610130310059</v>
+      </c>
+      <c r="N82">
+        <v>1.255576133728027</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3286,34 +4033,43 @@
         <v>42644</v>
       </c>
       <c r="C83">
-        <v>4.041934967041016</v>
+        <v>2.537256717681885</v>
       </c>
       <c r="D83">
-        <v>12.55328845977783</v>
+        <v>11.21454238891602</v>
       </c>
       <c r="E83">
-        <v>1.254693865776062</v>
+        <v>0.3408638834953308</v>
       </c>
       <c r="F83">
-        <v>9.435724258422852</v>
+        <v>3.519543170928955</v>
       </c>
       <c r="G83">
-        <v>19.01897430419922</v>
+        <v>7.329115867614746</v>
       </c>
       <c r="H83">
-        <v>2.956618785858154</v>
+        <v>1.853565573692322</v>
       </c>
       <c r="I83">
-        <v>4.600944519042969</v>
+        <v>-6.745843410491943</v>
       </c>
       <c r="J83">
-        <v>5.792229652404785</v>
+        <v>3.637948274612427</v>
       </c>
       <c r="K83">
-        <v>2.497292757034302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>0.5360790491104126</v>
+      </c>
+      <c r="L83">
+        <v>1.452187418937683</v>
+      </c>
+      <c r="M83">
+        <v>1.088833093643188</v>
+      </c>
+      <c r="N83">
+        <v>1.255576133728027</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3321,34 +4077,43 @@
         <v>42675</v>
       </c>
       <c r="C84">
-        <v>4.059562206268311</v>
+        <v>2.537359952926636</v>
       </c>
       <c r="D84">
-        <v>12.53609371185303</v>
+        <v>11.27490520477295</v>
       </c>
       <c r="E84">
-        <v>1.255149483680725</v>
+        <v>0.3341540694236755</v>
       </c>
       <c r="F84">
-        <v>9.436014175415039</v>
+        <v>3.519203186035156</v>
       </c>
       <c r="G84">
-        <v>19.01871299743652</v>
+        <v>7.32909107208252</v>
       </c>
       <c r="H84">
-        <v>2.9591224193573</v>
+        <v>1.881544470787048</v>
       </c>
       <c r="I84">
-        <v>4.600020885467529</v>
+        <v>-6.746917724609375</v>
       </c>
       <c r="J84">
-        <v>5.799330711364746</v>
+        <v>3.638831377029419</v>
       </c>
       <c r="K84">
-        <v>2.498940229415894</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>0.5561984777450562</v>
+      </c>
+      <c r="L84">
+        <v>1.452206134796143</v>
+      </c>
+      <c r="M84">
+        <v>1.088833093643188</v>
+      </c>
+      <c r="N84">
+        <v>1.266803741455078</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3356,34 +4121,43 @@
         <v>42705</v>
       </c>
       <c r="C85">
-        <v>4.059833526611328</v>
+        <v>2.536625385284424</v>
       </c>
       <c r="D85">
-        <v>12.42027473449707</v>
+        <v>11.62819957733154</v>
       </c>
       <c r="E85">
-        <v>1.259307146072388</v>
+        <v>0.3644007444381714</v>
       </c>
       <c r="F85">
-        <v>9.4356689453125</v>
+        <v>3.520568132400513</v>
       </c>
       <c r="G85">
-        <v>19.01912689208984</v>
+        <v>7.329054355621338</v>
       </c>
       <c r="H85">
-        <v>2.939245700836182</v>
+        <v>1.863379836082458</v>
       </c>
       <c r="I85">
-        <v>4.605125427246094</v>
+        <v>-6.740148067474365</v>
       </c>
       <c r="J85">
-        <v>5.797204971313477</v>
+        <v>3.638775587081909</v>
       </c>
       <c r="K85">
-        <v>2.499314785003662</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>0.4567523002624512</v>
+      </c>
+      <c r="L85">
+        <v>1.422510147094727</v>
+      </c>
+      <c r="M85">
+        <v>1.088833093643188</v>
+      </c>
+      <c r="N85">
+        <v>1.265852689743042</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3391,34 +4165,43 @@
         <v>42736</v>
       </c>
       <c r="C86">
-        <v>3.996949672698975</v>
+        <v>2.566159725189209</v>
       </c>
       <c r="D86">
-        <v>16.34321403503418</v>
+        <v>12.0628833770752</v>
       </c>
       <c r="E86">
-        <v>1.382293701171875</v>
+        <v>0.3709762692451477</v>
       </c>
       <c r="F86">
-        <v>9.761235237121582</v>
+        <v>3.78082275390625</v>
       </c>
       <c r="G86">
-        <v>19.03586196899414</v>
+        <v>7.191205501556396</v>
       </c>
       <c r="H86">
-        <v>3.134841442108154</v>
+        <v>1.827010154724121</v>
       </c>
       <c r="I86">
-        <v>4.722701549530029</v>
+        <v>-6.625288486480713</v>
       </c>
       <c r="J86">
-        <v>6.18489933013916</v>
+        <v>3.669475555419922</v>
       </c>
       <c r="K86">
-        <v>2.918217897415161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>0.5846179723739624</v>
+      </c>
+      <c r="L86">
+        <v>1.422536492347717</v>
+      </c>
+      <c r="M86">
+        <v>1.087952852249146</v>
+      </c>
+      <c r="N86">
+        <v>1.264623045921326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3426,34 +4209,43 @@
         <v>42767</v>
       </c>
       <c r="C87">
-        <v>3.99368143081665</v>
+        <v>2.565394401550293</v>
       </c>
       <c r="D87">
-        <v>16.19342231750488</v>
+        <v>12.06834411621094</v>
       </c>
       <c r="E87">
-        <v>1.377972841262817</v>
+        <v>0.4926166534423828</v>
       </c>
       <c r="F87">
-        <v>9.762028694152832</v>
+        <v>3.781221389770508</v>
       </c>
       <c r="G87">
-        <v>19.03769302368164</v>
+        <v>7.191766262054443</v>
       </c>
       <c r="H87">
-        <v>3.156731367111206</v>
+        <v>1.764908790588379</v>
       </c>
       <c r="I87">
-        <v>4.722005367279053</v>
+        <v>-6.626614570617676</v>
       </c>
       <c r="J87">
-        <v>6.181758880615234</v>
+        <v>3.671175718307495</v>
       </c>
       <c r="K87">
-        <v>2.919712066650391</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>0.6299710273742676</v>
+      </c>
+      <c r="L87">
+        <v>1.42248260974884</v>
+      </c>
+      <c r="M87">
+        <v>1.087952852249146</v>
+      </c>
+      <c r="N87">
+        <v>1.294037222862244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3461,34 +4253,43 @@
         <v>42795</v>
       </c>
       <c r="C88">
-        <v>3.992258071899414</v>
+        <v>2.564783573150635</v>
       </c>
       <c r="D88">
-        <v>16.33470726013184</v>
+        <v>12.06826114654541</v>
       </c>
       <c r="E88">
-        <v>1.392573356628418</v>
+        <v>0.4926075041294098</v>
       </c>
       <c r="F88">
-        <v>9.762175559997559</v>
+        <v>3.780838489532471</v>
       </c>
       <c r="G88">
-        <v>19.03812789916992</v>
+        <v>7.192511081695557</v>
       </c>
       <c r="H88">
-        <v>3.149705171585083</v>
+        <v>1.620049834251404</v>
       </c>
       <c r="I88">
-        <v>4.723219871520996</v>
+        <v>-6.626111030578613</v>
       </c>
       <c r="J88">
-        <v>6.187303066253662</v>
+        <v>3.671363115310669</v>
       </c>
       <c r="K88">
-        <v>2.921353816986084</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>0.6530194282531738</v>
+      </c>
+      <c r="L88">
+        <v>1.421216726303101</v>
+      </c>
+      <c r="M88">
+        <v>1.087952852249146</v>
+      </c>
+      <c r="N88">
+        <v>1.282875061035156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3496,34 +4297,43 @@
         <v>42826</v>
       </c>
       <c r="C89">
-        <v>4.000030040740967</v>
+        <v>2.57084584236145</v>
       </c>
       <c r="D89">
-        <v>18.74979591369629</v>
+        <v>11.64245891571045</v>
       </c>
       <c r="E89">
-        <v>1.56671679019928</v>
+        <v>0.6606743335723877</v>
       </c>
       <c r="F89">
-        <v>9.142328262329102</v>
+        <v>3.363245725631714</v>
       </c>
       <c r="G89">
-        <v>20.34528732299805</v>
+        <v>7.235809326171875</v>
       </c>
       <c r="H89">
-        <v>3.24749755859375</v>
+        <v>1.621654152870178</v>
       </c>
       <c r="I89">
-        <v>4.985859870910645</v>
+        <v>-6.624851226806641</v>
       </c>
       <c r="J89">
-        <v>6.402575016021729</v>
+        <v>3.690690994262695</v>
       </c>
       <c r="K89">
-        <v>3.364720582962036</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>0.9542844891548157</v>
+      </c>
+      <c r="L89">
+        <v>1.42121946811676</v>
+      </c>
+      <c r="M89">
+        <v>1.094107508659363</v>
+      </c>
+      <c r="N89">
+        <v>1.283157110214233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3531,34 +4341,43 @@
         <v>42856</v>
       </c>
       <c r="C90">
-        <v>4.003303527832031</v>
+        <v>2.57044529914856</v>
       </c>
       <c r="D90">
-        <v>18.8204517364502</v>
+        <v>11.64652729034424</v>
       </c>
       <c r="E90">
-        <v>1.579245567321777</v>
+        <v>0.6606651544570923</v>
       </c>
       <c r="F90">
-        <v>9.141454696655273</v>
+        <v>3.366681575775146</v>
       </c>
       <c r="G90">
-        <v>20.34617233276367</v>
+        <v>7.235568046569824</v>
       </c>
       <c r="H90">
-        <v>3.247002363204956</v>
+        <v>1.615530014038086</v>
       </c>
       <c r="I90">
-        <v>4.971956253051758</v>
+        <v>-6.624851226806641</v>
       </c>
       <c r="J90">
-        <v>6.488478660583496</v>
+        <v>3.690555572509766</v>
       </c>
       <c r="K90">
-        <v>3.368240356445312</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>1.17462158203125</v>
+      </c>
+      <c r="L90">
+        <v>1.421228766441345</v>
+      </c>
+      <c r="M90">
+        <v>1.094107508659363</v>
+      </c>
+      <c r="N90">
+        <v>1.279105186462402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3566,34 +4385,43 @@
         <v>42887</v>
       </c>
       <c r="C91">
-        <v>4.000476837158203</v>
+        <v>2.569915294647217</v>
       </c>
       <c r="D91">
-        <v>18.81119346618652</v>
+        <v>11.73706722259521</v>
       </c>
       <c r="E91">
-        <v>1.576656579971313</v>
+        <v>0.6606537103652954</v>
       </c>
       <c r="F91">
-        <v>9.14130973815918</v>
+        <v>3.365742206573486</v>
       </c>
       <c r="G91">
-        <v>20.3469295501709</v>
+        <v>7.23537540435791</v>
       </c>
       <c r="H91">
-        <v>3.248876094818115</v>
+        <v>1.610170364379883</v>
       </c>
       <c r="I91">
-        <v>5.051175117492676</v>
+        <v>-6.623236179351807</v>
       </c>
       <c r="J91">
-        <v>6.482279777526855</v>
+        <v>3.690616607666016</v>
       </c>
       <c r="K91">
-        <v>3.369699954986572</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>2.320220947265625</v>
+      </c>
+      <c r="L91">
+        <v>1.428325653076172</v>
+      </c>
+      <c r="M91">
+        <v>1.094107508659363</v>
+      </c>
+      <c r="N91">
+        <v>1.292899370193481</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3601,34 +4429,43 @@
         <v>42917</v>
       </c>
       <c r="C92">
-        <v>4.059042453765869</v>
+        <v>2.570216417312622</v>
       </c>
       <c r="D92">
-        <v>19.036376953125</v>
+        <v>11.81028842926025</v>
       </c>
       <c r="E92">
-        <v>1.659642815589905</v>
+        <v>0.6602045297622681</v>
       </c>
       <c r="F92">
-        <v>8.843673706054688</v>
+        <v>3.356846570968628</v>
       </c>
       <c r="G92">
-        <v>20.83470726013184</v>
+        <v>7.597169399261475</v>
       </c>
       <c r="H92">
-        <v>3.377076625823975</v>
+        <v>1.628282189369202</v>
       </c>
       <c r="I92">
-        <v>5.009127616882324</v>
+        <v>-3.257454633712769</v>
       </c>
       <c r="J92">
-        <v>6.754198551177979</v>
+        <v>3.910607099533081</v>
       </c>
       <c r="K92">
-        <v>3.491996765136719</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>2.759552478790283</v>
+      </c>
+      <c r="L92">
+        <v>1.428337812423706</v>
+      </c>
+      <c r="M92">
+        <v>1.094045758247375</v>
+      </c>
+      <c r="N92">
+        <v>1.304081201553345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3636,34 +4473,43 @@
         <v>42948</v>
       </c>
       <c r="C93">
-        <v>4.060226917266846</v>
+        <v>2.570264577865601</v>
       </c>
       <c r="D93">
-        <v>19.03845596313477</v>
+        <v>11.71234512329102</v>
       </c>
       <c r="E93">
-        <v>1.68096923828125</v>
+        <v>0.6601952314376831</v>
       </c>
       <c r="F93">
-        <v>8.841891288757324</v>
+        <v>3.356836318969727</v>
       </c>
       <c r="G93">
-        <v>20.83590126037598</v>
+        <v>7.597146034240723</v>
       </c>
       <c r="H93">
-        <v>3.378732204437256</v>
+        <v>1.628136396408081</v>
       </c>
       <c r="I93">
-        <v>5.009180545806885</v>
+        <v>-3.257251739501953</v>
       </c>
       <c r="J93">
-        <v>6.752429008483887</v>
+        <v>3.910046339035034</v>
       </c>
       <c r="K93">
-        <v>3.49370002746582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>3.290491819381714</v>
+      </c>
+      <c r="L93">
+        <v>1.4283287525177</v>
+      </c>
+      <c r="M93">
+        <v>1.095859408378601</v>
+      </c>
+      <c r="N93">
+        <v>1.29932165145874</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3671,34 +4517,43 @@
         <v>42979</v>
       </c>
       <c r="C94">
-        <v>4.051226615905762</v>
+        <v>2.569716930389404</v>
       </c>
       <c r="D94">
-        <v>19.03738975524902</v>
+        <v>11.85550117492676</v>
       </c>
       <c r="E94">
-        <v>1.675233483314514</v>
+        <v>0.6683145761489868</v>
       </c>
       <c r="F94">
-        <v>8.776736259460449</v>
+        <v>3.35210919380188</v>
       </c>
       <c r="G94">
-        <v>20.74510765075684</v>
+        <v>7.467184543609619</v>
       </c>
       <c r="H94">
-        <v>3.358795166015625</v>
+        <v>1.629869818687439</v>
       </c>
       <c r="I94">
-        <v>4.990647792816162</v>
+        <v>-3.257310390472412</v>
       </c>
       <c r="J94">
-        <v>6.744585990905762</v>
+        <v>3.91279411315918</v>
       </c>
       <c r="K94">
-        <v>3.531356334686279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>3.25849461555481</v>
+      </c>
+      <c r="L94">
+        <v>1.428885817527771</v>
+      </c>
+      <c r="M94">
+        <v>1.084638953208923</v>
+      </c>
+      <c r="N94">
+        <v>1.28829026222229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3706,34 +4561,43 @@
         <v>43009</v>
       </c>
       <c r="C95">
-        <v>3.870553493499756</v>
+        <v>2.566609621047974</v>
       </c>
       <c r="D95">
-        <v>19.1584300994873</v>
+        <v>11.98713207244873</v>
       </c>
       <c r="E95">
-        <v>1.750376343727112</v>
+        <v>0.6685585975646973</v>
       </c>
       <c r="F95">
-        <v>7.572766304016113</v>
+        <v>3.333201885223389</v>
       </c>
       <c r="G95">
-        <v>21.3523006439209</v>
+        <v>6.945404052734375</v>
       </c>
       <c r="H95">
-        <v>3.419701814651489</v>
+        <v>1.635839462280273</v>
       </c>
       <c r="I95">
-        <v>5.176789283752441</v>
+        <v>-3.254854917526245</v>
       </c>
       <c r="J95">
-        <v>6.930451393127441</v>
+        <v>3.944403171539307</v>
       </c>
       <c r="K95">
-        <v>3.607805728912354</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>3.129708528518677</v>
+      </c>
+      <c r="L95">
+        <v>1.428906798362732</v>
+      </c>
+      <c r="M95">
+        <v>1.039757370948792</v>
+      </c>
+      <c r="N95">
+        <v>1.28829026222229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3741,34 +4605,43 @@
         <v>43040</v>
       </c>
       <c r="C96">
-        <v>3.870342969894409</v>
+        <v>2.567678928375244</v>
       </c>
       <c r="D96">
-        <v>19.18630027770996</v>
+        <v>11.98726844787598</v>
       </c>
       <c r="E96">
-        <v>1.751813888549805</v>
+        <v>0.6690249443054199</v>
       </c>
       <c r="F96">
-        <v>7.57066822052002</v>
+        <v>3.333206176757812</v>
       </c>
       <c r="G96">
-        <v>21.34602737426758</v>
+        <v>6.945086002349854</v>
       </c>
       <c r="H96">
-        <v>3.420099973678589</v>
+        <v>1.635862350463867</v>
       </c>
       <c r="I96">
-        <v>5.179868221282959</v>
+        <v>-3.256059169769287</v>
       </c>
       <c r="J96">
-        <v>6.932597160339355</v>
+        <v>3.943555116653442</v>
       </c>
       <c r="K96">
-        <v>3.611153841018677</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>3.122563123703003</v>
+      </c>
+      <c r="L96">
+        <v>1.428871870040894</v>
+      </c>
+      <c r="M96">
+        <v>1.039757370948792</v>
+      </c>
+      <c r="N96">
+        <v>1.288818359375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3776,34 +4649,43 @@
         <v>43070</v>
       </c>
       <c r="C97">
-        <v>3.870006084442139</v>
+        <v>2.569103956222534</v>
       </c>
       <c r="D97">
-        <v>19.19079399108887</v>
+        <v>11.98752593994141</v>
       </c>
       <c r="E97">
-        <v>1.750584363937378</v>
+        <v>0.6690149903297424</v>
       </c>
       <c r="F97">
-        <v>7.570973873138428</v>
+        <v>3.333200931549072</v>
       </c>
       <c r="G97">
-        <v>21.35801696777344</v>
+        <v>6.930471897125244</v>
       </c>
       <c r="H97">
-        <v>3.42314076423645</v>
+        <v>1.636274099349976</v>
       </c>
       <c r="I97">
-        <v>5.182900428771973</v>
+        <v>-3.256431579589844</v>
       </c>
       <c r="J97">
-        <v>6.937846183776855</v>
+        <v>3.943579196929932</v>
       </c>
       <c r="K97">
-        <v>3.613217830657959</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>3.230422973632812</v>
+      </c>
+      <c r="L97">
+        <v>1.447898864746094</v>
+      </c>
+      <c r="M97">
+        <v>1.039757370948792</v>
+      </c>
+      <c r="N97">
+        <v>1.289162397384644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3811,34 +4693,43 @@
         <v>43101</v>
       </c>
       <c r="C98">
-        <v>4.069823265075684</v>
+        <v>2.568027019500732</v>
       </c>
       <c r="D98">
-        <v>9.48046875</v>
+        <v>11.86455726623535</v>
       </c>
       <c r="E98">
-        <v>1.563482642173767</v>
+        <v>0.6701059937477112</v>
       </c>
       <c r="F98">
-        <v>18.21243858337402</v>
+        <v>3.755148649215698</v>
       </c>
       <c r="G98">
-        <v>30.29372024536133</v>
+        <v>7.200677394866943</v>
       </c>
       <c r="H98">
-        <v>3.728843688964844</v>
+        <v>1.642263650894165</v>
       </c>
       <c r="I98">
-        <v>-3.19440746307373</v>
+        <v>-6.712327480316162</v>
       </c>
       <c r="J98">
-        <v>6.30479097366333</v>
+        <v>3.149077892303467</v>
       </c>
       <c r="K98">
-        <v>3.092613220214844</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>2.504376411437988</v>
+      </c>
+      <c r="L98">
+        <v>1.447924017906189</v>
+      </c>
+      <c r="M98">
+        <v>1.094677209854126</v>
+      </c>
+      <c r="N98">
+        <v>1.289352655410767</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3846,34 +4737,43 @@
         <v>43132</v>
       </c>
       <c r="C99">
-        <v>4.068861961364746</v>
+        <v>2.567492246627808</v>
       </c>
       <c r="D99">
-        <v>9.051449775695801</v>
+        <v>11.92443370819092</v>
       </c>
       <c r="E99">
-        <v>1.560179829597473</v>
+        <v>0.6701744198799133</v>
       </c>
       <c r="F99">
-        <v>18.21368980407715</v>
+        <v>3.756124973297119</v>
       </c>
       <c r="G99">
-        <v>30.29615211486816</v>
+        <v>7.206680297851562</v>
       </c>
       <c r="H99">
-        <v>3.737611770629883</v>
+        <v>1.64228880405426</v>
       </c>
       <c r="I99">
-        <v>-3.196927547454834</v>
+        <v>-6.712327480316162</v>
       </c>
       <c r="J99">
-        <v>6.304269313812256</v>
+        <v>3.150058269500732</v>
       </c>
       <c r="K99">
-        <v>3.358577013015747</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>3.027315616607666</v>
+      </c>
+      <c r="L99">
+        <v>1.447899103164673</v>
+      </c>
+      <c r="M99">
+        <v>1.094677209854126</v>
+      </c>
+      <c r="N99">
+        <v>1.259169220924377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3881,34 +4781,43 @@
         <v>43160</v>
       </c>
       <c r="C100">
-        <v>4.071442604064941</v>
+        <v>2.568830013275146</v>
       </c>
       <c r="D100">
-        <v>8.627771377563477</v>
+        <v>11.88403511047363</v>
       </c>
       <c r="E100">
-        <v>1.558882713317871</v>
+        <v>0.6701470613479614</v>
       </c>
       <c r="F100">
-        <v>18.2139892578125</v>
+        <v>3.75033712387085</v>
       </c>
       <c r="G100">
-        <v>30.29648399353027</v>
+        <v>7.220019340515137</v>
       </c>
       <c r="H100">
-        <v>3.733582258224487</v>
+        <v>1.64190411567688</v>
       </c>
       <c r="I100">
-        <v>-3.197010517120361</v>
+        <v>-6.712066650390625</v>
       </c>
       <c r="J100">
-        <v>6.305237770080566</v>
+        <v>3.143329620361328</v>
       </c>
       <c r="K100">
-        <v>3.514997959136963</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>3.068781852722168</v>
+      </c>
+      <c r="L100">
+        <v>1.490653514862061</v>
+      </c>
+      <c r="M100">
+        <v>1.094677209854126</v>
+      </c>
+      <c r="N100">
+        <v>1.272224068641663</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3916,34 +4825,43 @@
         <v>43191</v>
       </c>
       <c r="C101">
-        <v>4.028765678405762</v>
+        <v>2.551183223724365</v>
       </c>
       <c r="D101">
-        <v>11.57131767272949</v>
+        <v>12.21655082702637</v>
       </c>
       <c r="E101">
-        <v>1.768309950828552</v>
+        <v>0.6698062419891357</v>
       </c>
       <c r="F101">
-        <v>16.72864151000977</v>
+        <v>3.601385593414307</v>
       </c>
       <c r="G101">
-        <v>31.61968421936035</v>
+        <v>7.587722778320312</v>
       </c>
       <c r="H101">
-        <v>4.002225399017334</v>
+        <v>1.64089035987854</v>
       </c>
       <c r="I101">
-        <v>-2.875911712646484</v>
+        <v>-6.623584747314453</v>
       </c>
       <c r="J101">
-        <v>7.007046699523926</v>
+        <v>3.278055906295776</v>
       </c>
       <c r="K101">
-        <v>4.567000865936279</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>3.679480075836182</v>
+      </c>
+      <c r="L101">
+        <v>1.490676522254944</v>
+      </c>
+      <c r="M101">
+        <v>1.132165551185608</v>
+      </c>
+      <c r="N101">
+        <v>1.272183656692505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3951,34 +4869,43 @@
         <v>43221</v>
       </c>
       <c r="C102">
-        <v>4.030101776123047</v>
+        <v>2.551937580108643</v>
       </c>
       <c r="D102">
-        <v>11.39626502990723</v>
+        <v>12.21564769744873</v>
       </c>
       <c r="E102">
-        <v>1.770063638687134</v>
+        <v>0.6696483492851257</v>
       </c>
       <c r="F102">
-        <v>15.81260967254639</v>
+        <v>3.600875854492188</v>
       </c>
       <c r="G102">
-        <v>31.74532699584961</v>
+        <v>7.58763599395752</v>
       </c>
       <c r="H102">
-        <v>4.005582809448242</v>
+        <v>1.643090844154358</v>
       </c>
       <c r="I102">
-        <v>-2.870643615722656</v>
+        <v>-6.623242855072021</v>
       </c>
       <c r="J102">
-        <v>7.024582862854004</v>
+        <v>3.278105497360229</v>
       </c>
       <c r="K102">
-        <v>3.540550708770752</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>3.432259321212769</v>
+      </c>
+      <c r="L102">
+        <v>1.490688800811768</v>
+      </c>
+      <c r="M102">
+        <v>1.132165551185608</v>
+      </c>
+      <c r="N102">
+        <v>1.280383706092834</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3986,34 +4913,43 @@
         <v>43252</v>
       </c>
       <c r="C103">
-        <v>4.030877113342285</v>
+        <v>2.551919460296631</v>
       </c>
       <c r="D103">
-        <v>11.32229900360107</v>
+        <v>12.21640586853027</v>
       </c>
       <c r="E103">
-        <v>1.771013617515564</v>
+        <v>0.6697922348976135</v>
       </c>
       <c r="F103">
-        <v>15.86672496795654</v>
+        <v>3.60089111328125</v>
       </c>
       <c r="G103">
-        <v>31.74543762207031</v>
+        <v>7.58887243270874</v>
       </c>
       <c r="H103">
-        <v>4.005755424499512</v>
+        <v>1.643111824989319</v>
       </c>
       <c r="I103">
-        <v>-2.869059562683105</v>
+        <v>-6.624248504638672</v>
       </c>
       <c r="J103">
-        <v>7.025203704833984</v>
+        <v>3.278622150421143</v>
       </c>
       <c r="K103">
-        <v>3.539298295974731</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>3.435732364654541</v>
+      </c>
+      <c r="L103">
+        <v>1.47826099395752</v>
+      </c>
+      <c r="M103">
+        <v>1.132165551185608</v>
+      </c>
+      <c r="N103">
+        <v>1.281000256538391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4021,34 +4957,43 @@
         <v>43282</v>
       </c>
       <c r="C104">
-        <v>3.939843416213989</v>
+        <v>2.550118923187256</v>
       </c>
       <c r="D104">
-        <v>12.44526195526123</v>
+        <v>11.99147415161133</v>
       </c>
       <c r="E104">
-        <v>1.940024971961975</v>
+        <v>0.7354910969734192</v>
       </c>
       <c r="F104">
-        <v>18.70310974121094</v>
+        <v>3.7205810546875</v>
       </c>
       <c r="G104">
-        <v>32.5346565246582</v>
+        <v>7.387798309326172</v>
       </c>
       <c r="H104">
-        <v>4.147792816162109</v>
+        <v>1.617023468017578</v>
       </c>
       <c r="I104">
-        <v>-2.524263858795166</v>
+        <v>-6.625843048095703</v>
       </c>
       <c r="J104">
-        <v>7.44146203994751</v>
+        <v>4.038521766662598</v>
       </c>
       <c r="K104">
-        <v>3.956057071685791</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>3.412396192550659</v>
+      </c>
+      <c r="L104">
+        <v>1.478272795677185</v>
+      </c>
+      <c r="M104">
+        <v>1.145765662193298</v>
+      </c>
+      <c r="N104">
+        <v>1.282411813735962</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4056,34 +5001,43 @@
         <v>43313</v>
       </c>
       <c r="C105">
-        <v>3.939965486526489</v>
+        <v>2.549428224563599</v>
       </c>
       <c r="D105">
-        <v>12.44253635406494</v>
+        <v>11.99089813232422</v>
       </c>
       <c r="E105">
-        <v>1.922592163085938</v>
+        <v>0.7491482496261597</v>
       </c>
       <c r="F105">
-        <v>19.24624061584473</v>
+        <v>3.719873428344727</v>
       </c>
       <c r="G105">
-        <v>33.08837127685547</v>
+        <v>7.387053489685059</v>
       </c>
       <c r="H105">
-        <v>4.153968811035156</v>
+        <v>1.617383241653442</v>
       </c>
       <c r="I105">
-        <v>-2.517148017883301</v>
+        <v>-6.62331485748291</v>
       </c>
       <c r="J105">
-        <v>7.488067626953125</v>
+        <v>4.038538455963135</v>
       </c>
       <c r="K105">
-        <v>3.968955993652344</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>3.412937879562378</v>
+      </c>
+      <c r="L105">
+        <v>1.478257536888123</v>
+      </c>
+      <c r="M105">
+        <v>1.145765662193298</v>
+      </c>
+      <c r="N105">
+        <v>1.28065824508667</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4091,34 +5045,43 @@
         <v>43344</v>
       </c>
       <c r="C106">
-        <v>3.96490740776062</v>
+        <v>2.550992488861084</v>
       </c>
       <c r="D106">
-        <v>12.51612663269043</v>
+        <v>11.90542316436768</v>
       </c>
       <c r="E106">
-        <v>1.929358243942261</v>
+        <v>0.8535922169685364</v>
       </c>
       <c r="F106">
-        <v>19.22064971923828</v>
+        <v>3.985022783279419</v>
       </c>
       <c r="G106">
-        <v>32.81281280517578</v>
+        <v>7.431339263916016</v>
       </c>
       <c r="H106">
-        <v>4.004702568054199</v>
+        <v>1.663711309432983</v>
       </c>
       <c r="I106">
-        <v>-2.5042724609375</v>
+        <v>-6.63286828994751</v>
       </c>
       <c r="J106">
-        <v>7.409489631652832</v>
+        <v>4.034938812255859</v>
       </c>
       <c r="K106">
-        <v>3.980411529541016</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>3.440221309661865</v>
+      </c>
+      <c r="L106">
+        <v>1.538767099380493</v>
+      </c>
+      <c r="M106">
+        <v>1.143959999084473</v>
+      </c>
+      <c r="N106">
+        <v>1.28065824508667</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4126,34 +5089,43 @@
         <v>43374</v>
       </c>
       <c r="C107">
-        <v>4.227344512939453</v>
+        <v>2.551936149597168</v>
       </c>
       <c r="D107">
-        <v>13.71165752410889</v>
+        <v>11.91081428527832</v>
       </c>
       <c r="E107">
-        <v>2.111033916473389</v>
+        <v>0.8533906936645508</v>
       </c>
       <c r="F107">
-        <v>25.11383438110352</v>
+        <v>5.04550838470459</v>
       </c>
       <c r="G107">
-        <v>34.89702987670898</v>
+        <v>7.608616828918457</v>
       </c>
       <c r="H107">
-        <v>4.285624504089355</v>
+        <v>1.836071252822876</v>
       </c>
       <c r="I107">
-        <v>-2.205717086791992</v>
+        <v>-6.665111541748047</v>
       </c>
       <c r="J107">
-        <v>8.071648597717285</v>
+        <v>4.027771949768066</v>
       </c>
       <c r="K107">
-        <v>4.205382823944092</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>3.501079559326172</v>
+      </c>
+      <c r="L107">
+        <v>1.53876519203186</v>
+      </c>
+      <c r="M107">
+        <v>1.143991351127625</v>
+      </c>
+      <c r="N107">
+        <v>1.28065824508667</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4161,34 +5133,43 @@
         <v>43405</v>
       </c>
       <c r="C108">
-        <v>4.229249954223633</v>
+        <v>2.550881147384644</v>
       </c>
       <c r="D108">
-        <v>13.70625591278076</v>
+        <v>11.93057537078857</v>
       </c>
       <c r="E108">
-        <v>2.104836940765381</v>
+        <v>0.8532310724258423</v>
       </c>
       <c r="F108">
-        <v>25.09147834777832</v>
+        <v>5.045783519744873</v>
       </c>
       <c r="G108">
-        <v>34.89993667602539</v>
+        <v>7.607312202453613</v>
       </c>
       <c r="H108">
-        <v>4.278064727783203</v>
+        <v>1.853963255882263</v>
       </c>
       <c r="I108">
-        <v>-2.188777923583984</v>
+        <v>-6.665117740631104</v>
       </c>
       <c r="J108">
-        <v>8.070492744445801</v>
+        <v>4.042649269104004</v>
       </c>
       <c r="K108">
-        <v>4.184301853179932</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>3.277182102203369</v>
+      </c>
+      <c r="L108">
+        <v>1.538694143295288</v>
+      </c>
+      <c r="M108">
+        <v>1.143991351127625</v>
+      </c>
+      <c r="N108">
+        <v>1.264912128448486</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4196,34 +5177,43 @@
         <v>43435</v>
       </c>
       <c r="C109">
-        <v>4.212117671966553</v>
+        <v>2.554350614547729</v>
       </c>
       <c r="D109">
-        <v>13.72633647918701</v>
+        <v>11.7660493850708</v>
       </c>
       <c r="E109">
-        <v>2.103530406951904</v>
+        <v>0.8516192436218262</v>
       </c>
       <c r="F109">
-        <v>25.08056831359863</v>
+        <v>4.532713413238525</v>
       </c>
       <c r="G109">
-        <v>34.79155731201172</v>
+        <v>7.547054290771484</v>
       </c>
       <c r="H109">
-        <v>4.210220336914062</v>
+        <v>1.9301677942276</v>
       </c>
       <c r="I109">
-        <v>-0.8198708295822144</v>
+        <v>-6.668948173522949</v>
       </c>
       <c r="J109">
-        <v>8.054849624633789</v>
+        <v>4.079389095306396</v>
       </c>
       <c r="K109">
-        <v>4.121840000152588</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>3.296573638916016</v>
+      </c>
+      <c r="L109">
+        <v>1.46718156337738</v>
+      </c>
+      <c r="M109">
+        <v>1.135824084281921</v>
+      </c>
+      <c r="N109">
+        <v>1.263256072998047</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4231,34 +5221,43 @@
         <v>43466</v>
       </c>
       <c r="C110">
-        <v>4.249300956726074</v>
+        <v>2.568471670150757</v>
       </c>
       <c r="D110">
-        <v>23.50438499450684</v>
+        <v>14.9450044631958</v>
       </c>
       <c r="E110">
-        <v>2.573913097381592</v>
+        <v>0.7042785882949829</v>
       </c>
       <c r="F110">
-        <v>1.628949761390686</v>
+        <v>2.48170280456543</v>
       </c>
       <c r="G110">
-        <v>25.8998908996582</v>
+        <v>7.314832210540771</v>
       </c>
       <c r="H110">
-        <v>3.940474033355713</v>
+        <v>2.218760013580322</v>
       </c>
       <c r="I110">
-        <v>6.625927925109863</v>
+        <v>-6.690525054931641</v>
       </c>
       <c r="J110">
-        <v>8.865361213684082</v>
+        <v>4.223525047302246</v>
       </c>
       <c r="K110">
-        <v>4.673908710479736</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>3.208061218261719</v>
+      </c>
+      <c r="L110">
+        <v>1.467247724533081</v>
+      </c>
+      <c r="M110">
+        <v>1.095900535583496</v>
+      </c>
+      <c r="N110">
+        <v>1.274264812469482</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4266,34 +5265,43 @@
         <v>43497</v>
       </c>
       <c r="C111">
-        <v>4.278619289398193</v>
+        <v>2.568742275238037</v>
       </c>
       <c r="D111">
-        <v>24.43439865112305</v>
+        <v>15.32834053039551</v>
       </c>
       <c r="E111">
-        <v>2.600906372070312</v>
+        <v>0.6697937846183777</v>
       </c>
       <c r="F111">
-        <v>1.62353515625</v>
+        <v>2.481285810470581</v>
       </c>
       <c r="G111">
-        <v>26.61319541931152</v>
+        <v>7.315179347991943</v>
       </c>
       <c r="H111">
-        <v>3.982450485229492</v>
+        <v>2.218953609466553</v>
       </c>
       <c r="I111">
-        <v>6.671717166900635</v>
+        <v>-6.687242031097412</v>
       </c>
       <c r="J111">
-        <v>8.961174964904785</v>
+        <v>4.223258972167969</v>
       </c>
       <c r="K111">
-        <v>4.705183506011963</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>2.867838382720947</v>
+      </c>
+      <c r="L111">
+        <v>1.467276811599731</v>
+      </c>
+      <c r="M111">
+        <v>1.095900535583496</v>
+      </c>
+      <c r="N111">
+        <v>1.281922936439514</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4301,34 +5309,43 @@
         <v>43525</v>
       </c>
       <c r="C112">
-        <v>4.261376857757568</v>
+        <v>2.569318532943726</v>
       </c>
       <c r="D112">
-        <v>25.16966247558594</v>
+        <v>15.35261249542236</v>
       </c>
       <c r="E112">
-        <v>2.604634284973145</v>
+        <v>0.7399099469184875</v>
       </c>
       <c r="F112">
-        <v>1.621547937393188</v>
+        <v>2.481302261352539</v>
       </c>
       <c r="G112">
-        <v>26.69819259643555</v>
+        <v>7.307112216949463</v>
       </c>
       <c r="H112">
-        <v>4.015944480895996</v>
+        <v>2.218960285186768</v>
       </c>
       <c r="I112">
-        <v>6.588766574859619</v>
+        <v>-6.689414024353027</v>
       </c>
       <c r="J112">
-        <v>8.979789733886719</v>
+        <v>4.221863746643066</v>
       </c>
       <c r="K112">
-        <v>4.710934638977051</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>2.890893220901489</v>
+      </c>
+      <c r="L112">
+        <v>1.466915130615234</v>
+      </c>
+      <c r="M112">
+        <v>1.095900535583496</v>
+      </c>
+      <c r="N112">
+        <v>1.287813425064087</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4336,34 +5353,43 @@
         <v>43556</v>
       </c>
       <c r="C113">
-        <v>4.505188941955566</v>
+        <v>2.569812297821045</v>
       </c>
       <c r="D113">
-        <v>23.9079475402832</v>
+        <v>15.26930809020996</v>
       </c>
       <c r="E113">
-        <v>2.648766756057739</v>
+        <v>0.7488836050033569</v>
       </c>
       <c r="F113">
-        <v>10.8714427947998</v>
+        <v>3.086572170257568</v>
       </c>
       <c r="G113">
-        <v>26.54862403869629</v>
+        <v>7.101428985595703</v>
       </c>
       <c r="H113">
-        <v>3.862366437911987</v>
+        <v>1.618451356887817</v>
       </c>
       <c r="I113">
-        <v>6.869841575622559</v>
+        <v>-8.141071319580078</v>
       </c>
       <c r="J113">
-        <v>9.250930786132812</v>
+        <v>4.32536506652832</v>
       </c>
       <c r="K113">
-        <v>4.649517059326172</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>2.812805891036987</v>
+      </c>
+      <c r="L113">
+        <v>1.466888666152954</v>
+      </c>
+      <c r="M113">
+        <v>1.145852446556091</v>
+      </c>
+      <c r="N113">
+        <v>1.272641777992249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4371,34 +5397,43 @@
         <v>43586</v>
       </c>
       <c r="C114">
-        <v>4.515897274017334</v>
+        <v>2.569002151489258</v>
       </c>
       <c r="D114">
-        <v>23.91165542602539</v>
+        <v>15.25791645050049</v>
       </c>
       <c r="E114">
-        <v>2.690484523773193</v>
+        <v>0.7663940191268921</v>
       </c>
       <c r="F114">
-        <v>9.295101165771484</v>
+        <v>3.086635112762451</v>
       </c>
       <c r="G114">
-        <v>26.89598655700684</v>
+        <v>7.099984169006348</v>
       </c>
       <c r="H114">
-        <v>3.862969636917114</v>
+        <v>1.618318319320679</v>
       </c>
       <c r="I114">
-        <v>6.871778011322021</v>
+        <v>-8.138354301452637</v>
       </c>
       <c r="J114">
-        <v>9.228682518005371</v>
+        <v>4.324013710021973</v>
       </c>
       <c r="K114">
-        <v>4.659931182861328</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>2.755715608596802</v>
+      </c>
+      <c r="L114">
+        <v>1.466873407363892</v>
+      </c>
+      <c r="M114">
+        <v>1.144447088241577</v>
+      </c>
+      <c r="N114">
+        <v>1.264204025268555</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4406,34 +5441,43 @@
         <v>43617</v>
       </c>
       <c r="C115">
-        <v>4.520336151123047</v>
+        <v>2.568779945373535</v>
       </c>
       <c r="D115">
-        <v>23.83611679077148</v>
+        <v>14.70876312255859</v>
       </c>
       <c r="E115">
-        <v>2.691854000091553</v>
+        <v>0.8533997535705566</v>
       </c>
       <c r="F115">
-        <v>10.88596630096436</v>
+        <v>3.086638689041138</v>
       </c>
       <c r="G115">
-        <v>26.54218482971191</v>
+        <v>7.100256443023682</v>
       </c>
       <c r="H115">
-        <v>3.856756925582886</v>
+        <v>1.616792321205139</v>
       </c>
       <c r="I115">
-        <v>6.870429992675781</v>
+        <v>-8.140693664550781</v>
       </c>
       <c r="J115">
-        <v>9.203692436218262</v>
+        <v>4.299498558044434</v>
       </c>
       <c r="K115">
-        <v>4.681746482849121</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>3.0068519115448</v>
+      </c>
+      <c r="L115">
+        <v>1.450626850128174</v>
+      </c>
+      <c r="M115">
+        <v>1.144120454788208</v>
+      </c>
+      <c r="N115">
+        <v>1.263921737670898</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4441,34 +5485,43 @@
         <v>43647</v>
       </c>
       <c r="C116">
-        <v>4.806096076965332</v>
+        <v>2.569195032119751</v>
       </c>
       <c r="D116">
-        <v>23.72422409057617</v>
+        <v>15.38700580596924</v>
       </c>
       <c r="E116">
-        <v>2.805678129196167</v>
+        <v>0.8695000410079956</v>
       </c>
       <c r="F116">
-        <v>11.75540733337402</v>
+        <v>3.405674457550049</v>
       </c>
       <c r="G116">
-        <v>26.5655574798584</v>
+        <v>7.071630001068115</v>
       </c>
       <c r="H116">
-        <v>3.830507755279541</v>
+        <v>2.251479387283325</v>
       </c>
       <c r="I116">
-        <v>7.181566715240479</v>
+        <v>-6.775355339050293</v>
       </c>
       <c r="J116">
-        <v>9.760869979858398</v>
+        <v>4.076629161834717</v>
       </c>
       <c r="K116">
-        <v>4.588809967041016</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>3.024148225784302</v>
+      </c>
+      <c r="L116">
+        <v>1.450614213943481</v>
+      </c>
+      <c r="M116">
+        <v>1.065447092056274</v>
+      </c>
+      <c r="N116">
+        <v>1.264666676521301</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4476,31 +5529,172 @@
         <v>43678</v>
       </c>
       <c r="C117">
-        <v>4.838399410247803</v>
+        <v>2.569405078887939</v>
       </c>
       <c r="D117">
-        <v>23.82462120056152</v>
+        <v>15.38250160217285</v>
       </c>
       <c r="E117">
-        <v>2.799602508544922</v>
+        <v>0.8695372343063354</v>
       </c>
       <c r="F117">
-        <v>11.75671100616455</v>
+        <v>3.402681350708008</v>
       </c>
       <c r="G117">
-        <v>27.27486610412598</v>
+        <v>7.091534614562988</v>
       </c>
       <c r="H117">
-        <v>3.845990419387817</v>
+        <v>2.270891904830933</v>
       </c>
       <c r="I117">
-        <v>7.18744421005249</v>
+        <v>-6.774289608001709</v>
       </c>
       <c r="J117">
-        <v>9.786554336547852</v>
+        <v>4.074702262878418</v>
       </c>
       <c r="K117">
-        <v>4.589581966400146</v>
+        <v>3.036912202835083</v>
+      </c>
+      <c r="L117">
+        <v>1.450608253479004</v>
+      </c>
+      <c r="M117">
+        <v>1.065447092056274</v>
+      </c>
+      <c r="N117">
+        <v>1.278547167778015</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43709</v>
+      </c>
+      <c r="C118">
+        <v>2.569360017776489</v>
+      </c>
+      <c r="D118">
+        <v>15.32178974151611</v>
+      </c>
+      <c r="E118">
+        <v>0.8695279955863953</v>
+      </c>
+      <c r="F118">
+        <v>3.403156757354736</v>
+      </c>
+      <c r="G118">
+        <v>7.091446876525879</v>
+      </c>
+      <c r="H118">
+        <v>2.266913175582886</v>
+      </c>
+      <c r="I118">
+        <v>-6.776590824127197</v>
+      </c>
+      <c r="J118">
+        <v>4.074593067169189</v>
+      </c>
+      <c r="K118">
+        <v>2.541427135467529</v>
+      </c>
+      <c r="L118">
+        <v>0.5551213622093201</v>
+      </c>
+      <c r="M118">
+        <v>1.065447092056274</v>
+      </c>
+      <c r="N118">
+        <v>1.278563976287842</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C119">
+        <v>1.825177788734436</v>
+      </c>
+      <c r="D119">
+        <v>5.861844062805176</v>
+      </c>
+      <c r="E119">
+        <v>3.57023811340332</v>
+      </c>
+      <c r="F119">
+        <v>3.539912462234497</v>
+      </c>
+      <c r="G119">
+        <v>2.359931230545044</v>
+      </c>
+      <c r="H119">
+        <v>1.632344007492065</v>
+      </c>
+      <c r="I119">
+        <v>34.30098342895508</v>
+      </c>
+      <c r="J119">
+        <v>3.250511884689331</v>
+      </c>
+      <c r="K119">
+        <v>3.43986701965332</v>
+      </c>
+      <c r="L119">
+        <v>0.5551213622093201</v>
+      </c>
+      <c r="M119">
+        <v>0.02655649185180664</v>
+      </c>
+      <c r="N119">
+        <v>1.278563976287842</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>43770</v>
+      </c>
+      <c r="C120">
+        <v>1.825177788734436</v>
+      </c>
+      <c r="D120">
+        <v>5.861844062805176</v>
+      </c>
+      <c r="E120">
+        <v>3.57023811340332</v>
+      </c>
+      <c r="F120">
+        <v>3.539912462234497</v>
+      </c>
+      <c r="G120">
+        <v>2.359931230545044</v>
+      </c>
+      <c r="H120">
+        <v>1.632344007492065</v>
+      </c>
+      <c r="I120">
+        <v>34.30098342895508</v>
+      </c>
+      <c r="J120">
+        <v>3.250511884689331</v>
+      </c>
+      <c r="K120">
+        <v>3.43986701965332</v>
+      </c>
+      <c r="L120">
+        <v>0.5551213622093201</v>
+      </c>
+      <c r="M120">
+        <v>0.02655649185180664</v>
+      </c>
+      <c r="N120">
+        <v>0.2000186443328857</v>
       </c>
     </row>
   </sheetData>
